--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8263518223330697</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06610814578664558</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06301504120174584</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01301504120174584</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008077813615431388</v>
+        <v>0.008740133404970225</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009462742418285958</v>
+        <v>0.002253334545342003</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007471240324445934</v>
+        <v>0.000775509569120955</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001920854419801332</v>
+        <v>0.005644895771706376</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007285885782569777</v>
+        <v>0.00077132759986977</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004561078367939786</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007338183906651128</v>
+        <v>0.0008866459627329201</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01128708265610195</v>
+        <v>0.002253334545342003</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006954256096513499</v>
+        <v>0.000775509569120955</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002768057919335473</v>
+        <v>0.004155609681846868</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001494248064889187</v>
+        <v>0.00155101913824191</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00391070896239544</v>
+        <v>0.01149511979898016</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001457177156513955</v>
+        <v>0.00154265519973954</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007999999999999979</v>
+        <v>0.01518328401528329</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001219527078565977</v>
+        <v>0.001541376589961321</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02165463219017716</v>
+        <v>0.004155609681846868</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.0013908512193027</v>
+        <v>0.00155101913824191</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003372671317142563</v>
+        <v>0.006163133883962141</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00224137209733378</v>
+        <v>0.002326528707362865</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0059333324207924</v>
+        <v>0.01691295354493552</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002185765734770933</v>
+        <v>0.00231398279960931</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01247337677255569</v>
+        <v>0.02318289358796122</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002201455171995338</v>
+        <v>0.002312064884941982</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0301693972259196</v>
+        <v>0.006163133883962141</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00208627682895405</v>
+        <v>0.002326528707362865</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.007732215626135346</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002692604538477129</v>
+        <v>0.00310203827648382</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007452493588002297</v>
+        <v>0.02099999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002914354313027911</v>
+        <v>0.003071914800175668</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01665016203500197</v>
+        <v>0.03023775749853003</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002935273562660451</v>
+        <v>0.003082753179922643</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03849812638702332</v>
+        <v>0.007732215626135346</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002781702438605399</v>
+        <v>0.00310203827648382</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002692604538477129</v>
+        <v>0.004344565217391303</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006858064456589007</v>
+        <v>0.009119163382814037</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003735620162222967</v>
+        <v>0.003877547845604775</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008731961257035195</v>
+        <v>0.02392390617919266</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003642942891284888</v>
+        <v>0.00385663799934885</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01994107245736221</v>
+        <v>0.03577989406892401</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003669091953325564</v>
+        <v>0.003853441474903304</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04400756829718233</v>
+        <v>0.009119163382814037</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003477128048256749</v>
+        <v>0.003877547845604775</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008931900499242251</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00448274419466756</v>
+        <v>0.004344565217391303</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
+        <v>0.02708141184656501</v>
+      </c>
+      <c r="K71" s="171" t="n">
+        <v>0.00462796559921862</v>
+      </c>
+      <c r="L71" s="172" t="n">
+        <v>0.04234132162107723</v>
+      </c>
+      <c r="M71" s="170" t="n">
+        <v>0.004624129769883964</v>
+      </c>
+      <c r="N71" s="171" t="n">
         <v>0.009999999999999995</v>
       </c>
-      <c r="K71" s="171" t="n">
+      <c r="O71" s="172" t="n">
         <v>0.004344565217391303</v>
-      </c>
-      <c r="L71" s="172" t="n">
-        <v>0.02312466404038446</v>
-      </c>
-      <c r="M71" s="170" t="n">
-        <v>0.004402910343990677</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.04799999999999999</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.004089002557544757</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009918204736860899</v>
+        <v>0.01111067062818714</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005229868227112154</v>
+        <v>0.005428566983846685</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01091507184434516</v>
+        <v>0.02978542681768101</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005100120047798844</v>
+        <v>0.00539929319908839</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02667949278481671</v>
+        <v>0.04755405847692373</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005136728734655789</v>
+        <v>0.005394818064864625</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04995613245136876</v>
+        <v>0.01111067062818714</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004867979267559448</v>
+        <v>0.005428566983846685</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00882485304771017</v>
+        <v>0.01190809831596836</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005976992259556747</v>
+        <v>0.00620407655296764</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01166166207640915</v>
+        <v>0.03218803947769247</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005828708626055822</v>
+        <v>0.00617062079895816</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02918411469140703</v>
+        <v>0.05215012295839788</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005870547125320902</v>
+        <v>0.006165506359845286</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0523016683771037</v>
+        <v>0.01190809831596836</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005563404877210799</v>
+        <v>0.00620407655296764</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01165972131005531</v>
+        <v>0.0127042689126854</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00672411629200134</v>
+        <v>0.006979586122088595</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01221364369641038</v>
+        <v>0.03434133821175137</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006557297204312799</v>
+        <v>0.00694194839882793</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03141708576090341</v>
+        <v>0.05610983896043342</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006604365515986015</v>
+        <v>0.007107080311980365</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05430900790880777</v>
+        <v>0.0127042689126854</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006258830486862149</v>
+        <v>0.006979586122088595</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01243068540216153</v>
+        <v>0.01321306234126889</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007471240324445934</v>
+        <v>0.00775509569120955</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01290929016736606</v>
+        <v>0.03509600768737309</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007285885782569777</v>
+        <v>0.007334145948429962</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03509600768737309</v>
+        <v>0.05731013240170868</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007642952093627015</v>
+        <v>0.007706882949806607</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05610983896043342</v>
+        <v>0.01321306234126889</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006828371280137998</v>
+        <v>0.00775509569120955</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01301504120174584</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008077813615431388</v>
+        <v>0.008740133404970225</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01338687495229333</v>
+        <v>0.03669309121338934</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008014474360826756</v>
+        <v>0.00848460359856747</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03593780245609149</v>
+        <v>0.06018211383003441</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008072002297316241</v>
+        <v>0.008477571244787268</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05763989232395483</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007649681706164847</v>
+        <v>0.008740133404970225</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01285189993240042</v>
+        <v>0.01433762839042992</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00896548838933512</v>
+        <v>0.009306114829451461</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.03840706453164644</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008740133404970225</v>
+        <v>0.009255931198437239</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03798571655500907</v>
+        <v>0.06210760669585741</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008805820687981353</v>
+        <v>0.009248259539767928</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0606140198490886</v>
+        <v>0.01433762839042992</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008345107315816199</v>
+        <v>0.009306114829451461</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01356387293975516</v>
+        <v>0.01482319609043925</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009712612421779714</v>
+        <v>0.01008162439857242</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01452203487884569</v>
+        <v>0.03970051932270763</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00947165151734071</v>
+        <v>0.01002725879830701</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03982198416026042</v>
+        <v>0.06408647339525797</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009539639078646465</v>
+        <v>0.01001894783474859</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06297961373799532</v>
+        <v>0.01482319609043925</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009040532925467549</v>
+        <v>0.01008162439857242</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01327919939191621</v>
+        <v>0.01540667108852181</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01045973645422431</v>
+        <v>0.01085713396769337</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01528948245235756</v>
+        <v>0.04067305262086218</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01020024009559769</v>
+        <v>0.01079858639817678</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04174031551337337</v>
+        <v>0.06651857632431668</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01027345746931158</v>
+        <v>0.01078963612972925</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06522215268777298</v>
+        <v>0.01540667108852181</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009735958535118897</v>
+        <v>0.01085713396769337</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01599448180452123</v>
+        <v>0.01568762612991555</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0112068604866689</v>
+        <v>0.01163264353681433</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01598175218208125</v>
+        <v>0.04222426146039948</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01092882867385466</v>
+        <v>0.01156991399804655</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04353442085587592</v>
+        <v>0.06830377787911385</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01100727585997669</v>
+        <v>0.01156032442470991</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06762711539551963</v>
+        <v>0.01568762612991555</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01043138414477025</v>
+        <v>0.01163264353681433</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01670632269320779</v>
+        <v>0.01636563395985841</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01195398451911349</v>
+        <v>0.01240815310593528</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01679358220145799</v>
+        <v>0.04345374287560874</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01165741725211164</v>
+        <v>0.01234124159791632</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04579801042929599</v>
+        <v>0.0705419404557297</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0117410942506418</v>
+        <v>0.01233101271969057</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07017998055833341</v>
+        <v>0.01636563395985841</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0111268097544216</v>
+        <v>0.01240815310593528</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01541132457361356</v>
+        <v>0.01664026732358835</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01270110855155809</v>
+        <v>0.01318366267505624</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01731971064392891</v>
+        <v>0.04436109390077936</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01238600583036862</v>
+        <v>0.01311256919778609</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0476247944751616</v>
+        <v>0.07213292645024494</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01247491264130692</v>
+        <v>0.01310170101467123</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07176622687331224</v>
+        <v>0.01664026732358835</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01182223536407295</v>
+        <v>0.01318366267505624</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01610608996137614</v>
+        <v>0.01721109896634333</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01344823258400268</v>
+        <v>0.01395917224417719</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01825487564293519</v>
+        <v>0.04524591157020058</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0131145944086256</v>
+        <v>0.01388389679765586</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04930848323500062</v>
+        <v>0.07367659825873973</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01320873103197203</v>
+        <v>0.01387238930965189</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07477133303755434</v>
+        <v>0.01721109896634333</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0125176609737243</v>
+        <v>0.01395917224417719</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01678722137213318</v>
+        <v>0.01757770163336127</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01419535661644727</v>
+        <v>0.01473468181329815</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01889381533191803</v>
+        <v>0.04670779291816168</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01384318298688258</v>
+        <v>0.01465522439752563</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05044278695034102</v>
+        <v>0.07607281827729451</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01394254942263714</v>
+        <v>0.01464307760463255</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07768077774815768</v>
+        <v>0.01757770163336127</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01321308658337565</v>
+        <v>0.01473468181329815</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01745132132152229</v>
+        <v>0.01813964806988017</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01494248064889187</v>
+        <v>0.0155101913824191</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01973126784431856</v>
+        <v>0.04754633497895197</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01457177156513955</v>
+        <v>0.0154265519973954</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05222141586271076</v>
+        <v>0.07822144890198962</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01467636781330226</v>
+        <v>0.01541376589961321</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07908003970222038</v>
+        <v>0.01813964806988017</v>
       </c>
       <c r="O85" t="n">
-        <v>0.013908512193027</v>
+        <v>0.0155101913824191</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02009499232518111</v>
+        <v>0.01859651102113792</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01568960468133646</v>
+        <v>0.01628570095154006</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02046197131357801</v>
+        <v>0.04896113478686082</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01530036014339653</v>
+        <v>0.01619787959726517</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05413808021363778</v>
+        <v>0.08032235252890563</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01541018620396737</v>
+        <v>0.01618445419459387</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08215459759684046</v>
+        <v>0.01859651102113792</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01460393780267835</v>
+        <v>0.01628570095154006</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01871483689874725</v>
+        <v>0.01904786323237251</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01643672871378106</v>
+        <v>0.01706121052066101</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02098066387313748</v>
+        <v>0.05015178937617742</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01602894872165351</v>
+        <v>0.01696920719713494</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05598649024465002</v>
+        <v>0.08127539155412272</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01614400459463248</v>
+        <v>0.01695514248957454</v>
       </c>
       <c r="N87" t="n">
-        <v>0.084389930129116</v>
+        <v>0.01904786323237251</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01529936341232969</v>
+        <v>0.01706121052066101</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02030745755785835</v>
+        <v>0.01939327744882188</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01718385274622565</v>
+        <v>0.01783672008978196</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02168208365643819</v>
+        <v>0.05111789578119116</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01675753729991048</v>
+        <v>0.01774053479700471</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05696035619727549</v>
+        <v>0.08298042837372138</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01687782298529759</v>
+        <v>0.0177258307845552</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08647151599614511</v>
+        <v>0.01939327744882188</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01599478902198105</v>
+        <v>0.01783672008978196</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02186945681815205</v>
+        <v>0.01993232641572397</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01793097677867024</v>
+        <v>0.01861222965890292</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02246096879692133</v>
+        <v>0.05195905103619133</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01748612587816746</v>
+        <v>0.01851186239687448</v>
       </c>
       <c r="L89" t="n">
-        <v>0.058453388313042</v>
+        <v>0.08523732538378215</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01761164137596271</v>
+        <v>0.01849651907953586</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08918483389502574</v>
+        <v>0.01993232641572397</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0166902146316324</v>
+        <v>0.01861222965890292</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02239743719526593</v>
+        <v>0.02036458287831677</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01867810081111483</v>
+        <v>0.01938773922802388</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02311205742802802</v>
+        <v>0.05327485217546721</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01821471445642444</v>
+        <v>0.01928318999674425</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05995929683347767</v>
+        <v>0.08604594498038515</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01834545976662782</v>
+        <v>0.01926720737451652</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09171536252285595</v>
+        <v>0.02036458287831677</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01738564024128374</v>
+        <v>0.01938773922802388</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02188800120483767</v>
+        <v>0.02068961958183817</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01942522484355943</v>
+        <v>0.02016324879714483</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02383008768319948</v>
+        <v>0.05386489623330809</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01894330303468142</v>
+        <v>0.02005451759661402</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06137179200011039</v>
+        <v>0.0878061495596108</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01907927815729293</v>
+        <v>0.02003789566949718</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09354858057673393</v>
+        <v>0.02068961958183817</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0180810658509351</v>
+        <v>0.02016324879714483</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02333775136250484</v>
+        <v>0.02110700927152617</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02017234887600402</v>
+        <v>0.02093875836626579</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02420979769587686</v>
+        <v>0.05482878024400331</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0196718916129384</v>
+        <v>0.02082584519648379</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06208458405446801</v>
+        <v>0.08991780151753981</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01981309654795805</v>
+        <v>0.02080858396447784</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09546996675375774</v>
+        <v>0.02110700927152617</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01877649146058645</v>
+        <v>0.02093875836626579</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02274329018390513</v>
+        <v>0.02151632469261869</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02091947290844862</v>
+        <v>0.02171426793538674</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02474592559950134</v>
+        <v>0.05626610124184211</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02040048019119538</v>
+        <v>0.02159717279635356</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0634913832380786</v>
+        <v>0.09128076325025214</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02054691493862316</v>
+        <v>0.0215792722594585</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09726499975102532</v>
+        <v>0.02151632469261869</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01947191707023779</v>
+        <v>0.02171426793538674</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02410122018467612</v>
+        <v>0.0221171385903537</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02166659694089321</v>
+        <v>0.0224897775045077</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02523320952751409</v>
+        <v>0.05707645626111385</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02112906876945235</v>
+        <v>0.02236850039622333</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06398589979247005</v>
+        <v>0.0921948971538285</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02128073332928827</v>
+        <v>0.02234996055443916</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09911915826563483</v>
+        <v>0.0221171385903537</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02016734267988915</v>
+        <v>0.0224897775045077</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02240814388045547</v>
+        <v>0.02250902370996913</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0224137209733378</v>
+        <v>0.02326528707362865</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02576638761335628</v>
+        <v>0.05795944233610781</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02185765734770933</v>
+        <v>0.0231398279960931</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06496184395917035</v>
+        <v>0.09346006562434916</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02201455171995338</v>
+        <v>0.02312064884941982</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1003179209946843</v>
+        <v>0.02250902370996913</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0208627682895405</v>
+        <v>0.02326528707362865</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02466066378688076</v>
+        <v>0.02279155279670297</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02316084500578239</v>
+        <v>0.02404079664274961</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0262401979904691</v>
+        <v>0.05841465650111333</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02258624592596631</v>
+        <v>0.02391115559596287</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06561292597970736</v>
+        <v>0.09547613105789449</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0227483701106185</v>
+        <v>0.02389133714440048</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1020467666352717</v>
+        <v>0.02279155279670297</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02155819389919185</v>
+        <v>0.02404079664274961</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02385538241958968</v>
+        <v>0.02306429859579311</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02390796903822699</v>
+        <v>0.02481630621187056</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02644937879229371</v>
+        <v>0.05934169579041962</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02331483450422329</v>
+        <v>0.02468248319583264</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06593285609560914</v>
+        <v>0.09654295585054484</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02348218850128361</v>
+        <v>0.02466202543938114</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1037911738844953</v>
+        <v>0.02306429859579311</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0222536195088432</v>
+        <v>0.02481630621187056</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02398890229421981</v>
+        <v>0.02352683385247754</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02465509307067158</v>
+        <v>0.02559181578099151</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02668866815227128</v>
+        <v>0.06044015723831603</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02404342308248026</v>
+        <v>0.02545381079570241</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06671534454840364</v>
+        <v>0.09786040239838079</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02421600689194872</v>
+        <v>0.0254327137343618</v>
       </c>
       <c r="N98" t="n">
-        <v>0.104736621439453</v>
+        <v>0.02352683385247754</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02294904511849455</v>
+        <v>0.02559181578099151</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02305782592640877</v>
+        <v>0.02377873131199422</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02540221710311618</v>
+        <v>0.02636732535011247</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02675280420384298</v>
+        <v>0.06120963787909192</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02477201166073724</v>
+        <v>0.02622513839557218</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06655410157961864</v>
+        <v>0.09822833309748258</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02494982528261383</v>
+        <v>0.02620340202934246</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1059685879972429</v>
+        <v>0.02377873131199422</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0236444707281459</v>
+        <v>0.02636732535011247</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02506156143924673</v>
+        <v>0.02411956371958107</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02614934113556077</v>
+        <v>0.02714283491923343</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02693652508045</v>
+        <v>0.06144973474703647</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02550060023899422</v>
+        <v>0.02699646599544195</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06634283743078231</v>
+        <v>0.09964661034393058</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02568364367327895</v>
+        <v>0.02697409032432313</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1060725522549631</v>
+        <v>0.02411956371958107</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02433989633779724</v>
+        <v>0.02714283491923343</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02401744773048651</v>
+        <v>0.02464890382047608</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02689646516800536</v>
+        <v>0.02791834448835438</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02703588862231056</v>
+        <v>0.0625600448764391</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0262291888172512</v>
+        <v>0.02776779359531172</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06666363253866564</v>
+        <v>0.1013150965338053</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02641746206394406</v>
+        <v>0.02774477861930378</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1063339929097116</v>
+        <v>0.02464890382047608</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02503532194744859</v>
+        <v>0.02791834448835438</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0239326066711122</v>
+        <v>0.02486632435991716</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02764358920044995</v>
+        <v>0.02869385405747533</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02675843437710276</v>
+        <v>0.06344016530158908</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02695777739550817</v>
+        <v>0.02853912119518149</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06601070481071783</v>
+        <v>0.101933654063187</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02715128045460917</v>
+        <v>0.02851546691428444</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1066385582403538</v>
+        <v>0.02486632435991716</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02573074755709994</v>
+        <v>0.02869385405747533</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02481132763494911</v>
+        <v>0.02527139808314227</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02839071323289455</v>
+        <v>0.02946936362659629</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02661370603817755</v>
+        <v>0.06388969305677564</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02768636597376515</v>
+        <v>0.02931044879505126</v>
       </c>
       <c r="L103" t="n">
-        <v>0.065903464594497</v>
+        <v>0.1033021453281561</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02788509884527428</v>
+        <v>0.02928615520926511</v>
       </c>
       <c r="N103" t="n">
-        <v>0.106696734096226</v>
+        <v>0.02527139808314227</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02642617316675129</v>
+        <v>0.02946936362659629</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02465789999582258</v>
+        <v>0.02536369773538937</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02913783726533915</v>
+        <v>0.03024487319571724</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02661066690602122</v>
+        <v>0.06410822517628811</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02841495455202213</v>
+        <v>0.03008177639492103</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06526142084999412</v>
+        <v>0.1043204327247931</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0286189172359394</v>
+        <v>0.03005684350424577</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1057370495934325</v>
+        <v>0.02536369773538937</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02712159877640264</v>
+        <v>0.03024487319571724</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02247661312755799</v>
+        <v>0.0257427960618964</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02988496129778374</v>
+        <v>0.0310203827648382</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02635828028112014</v>
+        <v>0.06509535869441588</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02914354313027911</v>
+        <v>0.0308531039947908</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06480408253720008</v>
+        <v>0.1052883786491783</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02935273562660451</v>
+        <v>0.03082753179922643</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1055810029681543</v>
+        <v>0.0257427960618964</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02781702438605399</v>
+        <v>0.0310203827648382</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02427175640398069</v>
+        <v>0.02590826580790132</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03063208533022833</v>
+        <v>0.03179589233395916</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02606550946396063</v>
+        <v>0.06545069064544815</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02987213170853609</v>
+        <v>0.03162443159466057</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0637509586161058</v>
+        <v>0.1051058454973921</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03008655401726962</v>
+        <v>0.03159822009420709</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1051500924565721</v>
+        <v>0.02590826580790132</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02851244999570534</v>
+        <v>0.03179589233395916</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02204761919891601</v>
+        <v>0.02635967971864207</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03137920936267292</v>
+        <v>0.03257140190308011</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02554131775502905</v>
+        <v>0.06607381806367424</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03060072028679307</v>
+        <v>0.03239575919453034</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06332155804670223</v>
+        <v>0.1065726956655149</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03082037240793474</v>
+        <v>0.03236890838918775</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1034658162948671</v>
+        <v>0.02635967971864207</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02920787560535669</v>
+        <v>0.03257140190308011</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02380849088618928</v>
+        <v>0.02649661053935662</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03212633339511752</v>
+        <v>0.03334691147220106</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02519466845481171</v>
+        <v>0.06636433798338351</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03132930886505005</v>
+        <v>0.03316708679440011</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06223538978898033</v>
+        <v>0.1067887915496271</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03155419079859985</v>
+        <v>0.03313959668416841</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1030496727192198</v>
+        <v>0.02649661053935662</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02990330121500804</v>
+        <v>0.03334691147220106</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02255866083962587</v>
+        <v>0.02661863101528289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03287345742756211</v>
+        <v>0.03412242104132202</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02503452486379497</v>
+        <v>0.06712184743886518</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03205789744330702</v>
+        <v>0.03393841439426988</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06171196280293106</v>
+        <v>0.1072539955458091</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03228800918926496</v>
+        <v>0.03391028497914907</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1021231599658114</v>
+        <v>0.02661863101528289</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03059872682465939</v>
+        <v>0.03412242104132202</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02230241843305112</v>
+        <v>0.02702531389165887</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0336205814600067</v>
+        <v>0.03489793061044297</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02446985028246515</v>
+        <v>0.06784594346440859</v>
       </c>
       <c r="K110" t="n">
-        <v>0.032786486021564</v>
+        <v>0.03470974199413965</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06027078604854533</v>
+        <v>0.1080681700501412</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03302182757993007</v>
+        <v>0.03468097327412973</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1003077762708227</v>
+        <v>0.02702531389165887</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03129415243431075</v>
+        <v>0.03489793061044297</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0220440530402904</v>
+        <v>0.02711623191372248</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03436770549245129</v>
+        <v>0.03567344017956393</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02430960801130862</v>
+        <v>0.06773622309430308</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03351507459982097</v>
+        <v>0.03548106959400942</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05943136848581404</v>
+        <v>0.1094311774587039</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03375564597059519</v>
+        <v>0.03545166156911039</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09902501987043444</v>
+        <v>0.02711623191372248</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0319895780439621</v>
+        <v>0.03567344017956393</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02278785403516902</v>
+        <v>0.02719095782671166</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03511482952489589</v>
+        <v>0.03644894974868489</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02376276135081165</v>
+        <v>0.0680922833628379</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03424366317807795</v>
+        <v>0.03625239719387919</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0588132190747282</v>
+        <v>0.1089428801675776</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0344894643612603</v>
+        <v>0.03622234986409106</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09769638900082767</v>
+        <v>0.02719095782671166</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03268500365361344</v>
+        <v>0.03644894974868489</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02053811079151235</v>
+        <v>0.0274490643758644</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03586195355734048</v>
+        <v>0.03722445931780585</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02363827360146066</v>
+        <v>0.06831372130430236</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03497225175633493</v>
+        <v>0.03702372479374896</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05743584677527869</v>
+        <v>0.1095031405728425</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03522328275192541</v>
+        <v>0.03699303815907171</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09684338189818309</v>
+        <v>0.0274490643758644</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0333804292632648</v>
+        <v>0.03722445931780585</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02029911268314574</v>
+        <v>0.0274901243064186</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03660907758978507</v>
+        <v>0.03799996888692679</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02314510806374194</v>
+        <v>0.06870013395298574</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03570084033459191</v>
+        <v>0.03779505239361873</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05721876054745648</v>
+        <v>0.1104118210705793</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03595710114259052</v>
+        <v>0.03776372645405237</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09518749679868177</v>
+        <v>0.0274901243064186</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03407585487291614</v>
+        <v>0.03799996888692679</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02107514908389451</v>
+        <v>0.02761371036361228</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03735620162222967</v>
+        <v>0.03877547845604775</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02299222803814184</v>
+        <v>0.06885111834317742</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03642942891284889</v>
+        <v>0.0385663799934885</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05578146935125247</v>
+        <v>0.1107687840568682</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03669091953325564</v>
+        <v>0.03853441474903303</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09335023193850445</v>
+        <v>0.02761371036361228</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03477128048256749</v>
+        <v>0.03877547845604775</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02087050936758405</v>
+        <v>0.02771939529268333</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03810332565467427</v>
+        <v>0.03955098802516871</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02268859682514668</v>
+        <v>0.06966627150916654</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03715801749110587</v>
+        <v>0.03933770759335827</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05554348214665769</v>
+        <v>0.1112738919277896</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03742473792392075</v>
+        <v>0.0393051030440137</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09305308555383213</v>
+        <v>0.02771939529268333</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03546670609221884</v>
+        <v>0.03955098802516871</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02068948290803967</v>
+        <v>0.02800675183886972</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03885044968711886</v>
+        <v>0.04032649759428966</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02254317772524282</v>
+        <v>0.0693451904852426</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03788660606936284</v>
+        <v>0.04010903519322804</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05492430789366295</v>
+        <v>0.1116270070794239</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03815855631458586</v>
+        <v>0.04007579133899436</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09171755588084562</v>
+        <v>0.02800675183886972</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03616213170187019</v>
+        <v>0.04032649759428966</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02153635907908674</v>
+        <v>0.02807535274740941</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03959757371956345</v>
+        <v>0.04110200716341061</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02246493403891658</v>
+        <v>0.0699874723056948</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03861519464761982</v>
+        <v>0.04088036279309781</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05434345555225931</v>
+        <v>0.1112279919078515</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03889237470525098</v>
+        <v>0.04084647963397502</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08996514115572574</v>
+        <v>0.02807535274740941</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03685755731152154</v>
+        <v>0.04110200716341061</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0214154272545506</v>
+        <v>0.02812477076354032</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04034469775200804</v>
+        <v>0.04187751673253157</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0225565794051195</v>
+        <v>0.06989271400481242</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0393437832258768</v>
+        <v>0.04165169039296758</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0544204340824376</v>
+        <v>0.1119767088091527</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03962619309591609</v>
+        <v>0.04161716792895568</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08951733961465347</v>
+        <v>0.02812477076354032</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03755298292117289</v>
+        <v>0.04187751673253157</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02133097680825658</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04109182178445264</v>
+        <v>0.04265302630165253</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02258084880172188</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04007237180413378</v>
+        <v>0.04242301799283735</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05447132042561084</v>
+        <v>0.1111730201794082</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04036001148658121</v>
+        <v>0.04238785622393634</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08869564949380965</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03824840853082424</v>
+        <v>0.04265302630165253</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02028729711403005</v>
+        <v>0.02816435157347852</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04183894581689723</v>
+        <v>0.04342853587077348</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02272886286104861</v>
+        <v>0.06959046517620127</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04080096038239076</v>
+        <v>0.04319434559270712</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05453609333783807</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04109382987724632</v>
+        <v>0.043158544518917</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08782156902937521</v>
+        <v>0.02816435157347852</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03894383414047559</v>
+        <v>0.04342853587077348</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02128701153812227</v>
+        <v>0.02796081047418346</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04258606984934182</v>
+        <v>0.04420404543989444</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02279924834213415</v>
+        <v>0.06949042119603283</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04152954896064773</v>
+        <v>0.04396567319257689</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05418235714197303</v>
+        <v>0.1112168028850864</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04182764826791143</v>
+        <v>0.04392923281389766</v>
       </c>
       <c r="N122" t="n">
-        <v>0.087116596457531</v>
+        <v>0.02796081047418346</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03963925975012694</v>
+        <v>0.04420404543989444</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02132271556564874</v>
+        <v>0.0281505790583914</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04333319388178641</v>
+        <v>0.04497955500901539</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02289063200401302</v>
+        <v>0.07018286028092627</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04225813753890471</v>
+        <v>0.04473700079244666</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05480482897047287</v>
+        <v>0.1121017991756269</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04256146665857654</v>
+        <v>0.04469992110887832</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08640223001445785</v>
+        <v>0.0281505790583914</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04033468535977829</v>
+        <v>0.04497955500901539</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0193907595036553</v>
+        <v>0.02813385075127257</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04408031791423101</v>
+        <v>0.04575506457813634</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02290164060571973</v>
+        <v>0.06966909697803694</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04298672611716168</v>
+        <v>0.04550832839231643</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05529822595579478</v>
+        <v>0.1119740018509276</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04329528504924165</v>
+        <v>0.04547060940385898</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08559996793633667</v>
+        <v>0.02813385075127257</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04103011096942964</v>
+        <v>0.04575506457813634</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01948859554896185</v>
+        <v>0.02791081897799717</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0448274419466756</v>
+        <v>0.0465305741472573</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02303090090628877</v>
+        <v>0.07014914771499081</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04371531469541866</v>
+        <v>0.0462796559921862</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05555726523039592</v>
+        <v>0.1112334512183765</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04402910343990676</v>
+        <v>0.04624129769883965</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0859155498445065</v>
+        <v>0.02791081897799717</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04172553657908099</v>
+        <v>0.0465305741472573</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02161367589838823</v>
+        <v>0.02798167716373545</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04557456597912019</v>
+        <v>0.04730608371637825</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02327703966475467</v>
+        <v>0.07002302891941387</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04444390327367564</v>
+        <v>0.04705098359205597</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05617666392673348</v>
+        <v>0.1113801875853615</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04476292183057188</v>
+        <v>0.0470119859938203</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08679694283199169</v>
+        <v>0.02798167716373545</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04242096218873234</v>
+        <v>0.04730608371637825</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0217634527487543</v>
+        <v>0.02804661873365763</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04632169001156479</v>
+        <v>0.04808159328549921</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02343868364015189</v>
+        <v>0.06949075701893201</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04517249185193262</v>
+        <v>0.04782231119192574</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05635113917726464</v>
+        <v>0.1113142512592706</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04549674022123699</v>
+        <v>0.04778267428880096</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0868281797990495</v>
+        <v>0.02804661873365763</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04311638779838369</v>
+        <v>0.04808159328549921</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01993537829687991</v>
+        <v>0.0278058371129339</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04706881404400939</v>
+        <v>0.04885710285462017</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02351445959151495</v>
+        <v>0.06955234844117125</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0459010804301896</v>
+        <v>0.04859363879179551</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05687540811444658</v>
+        <v>0.1114356825474917</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0462305586119021</v>
+        <v>0.04855336258378162</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08709819083073983</v>
+        <v>0.0278058371129339</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04381181340803504</v>
+        <v>0.04885710285462017</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0211269047395849</v>
+        <v>0.02795952572673452</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04781593807645398</v>
+        <v>0.04963261242374112</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02380299427787835</v>
+        <v>0.06970781961375758</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04662966900844658</v>
+        <v>0.04936496639166528</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05754418787073642</v>
+        <v>0.1108445217574128</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04696437700256722</v>
+        <v>0.04932405087876229</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0874959060121222</v>
+        <v>0.02795952572673452</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04450723901768639</v>
+        <v>0.04963261242374112</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02033548427368916</v>
+        <v>0.0278078780002297</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04856306210889857</v>
+        <v>0.05040812199286208</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02390291445827658</v>
+        <v>0.06955718696431692</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04735825758670355</v>
+        <v>0.05013629399153505</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05785219557859148</v>
+        <v>0.111740809196422</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04769819539323233</v>
+        <v>0.05009473917374294</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08851025542825641</v>
+        <v>0.0278078780002297</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04520266462733774</v>
+        <v>0.05040812199286208</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02055856909601252</v>
+        <v>0.02785108735858967</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04931018614134317</v>
+        <v>0.05118363156198303</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02401284689174416</v>
+        <v>0.06980046692047528</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04808684616496053</v>
+        <v>0.05090762159140482</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05829414837046878</v>
+        <v>0.1107245851719071</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04843201378389744</v>
+        <v>0.05086542746872361</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08933016916420211</v>
+        <v>0.02785108735858967</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04589809023698909</v>
+        <v>0.05118363156198303</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02079361140337483</v>
+        <v>0.02778934722698465</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05005731017378776</v>
+        <v>0.05195914113110398</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02433141833731559</v>
+        <v>0.0692376759098586</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04881543474321751</v>
+        <v>0.0516789491912746</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05966476337882562</v>
+        <v>0.1113958899912561</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04916583217456255</v>
+        <v>0.05163611576370427</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09024457730501906</v>
+        <v>0.02778934722698465</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04659351584664044</v>
+        <v>0.05195914113110398</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02303806339259596</v>
+        <v>0.02762285103058484</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05080443420623235</v>
+        <v>0.05273465070022494</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02455725555402533</v>
+        <v>0.06916883036009289</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04954402332147449</v>
+        <v>0.05245027679114436</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0603587577361191</v>
+        <v>0.1109547639618569</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04989965056522767</v>
+        <v>0.05240680405868493</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09124240993576688</v>
+        <v>0.02762285103058484</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04728894145629179</v>
+        <v>0.05273465070022494</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02128937726049577</v>
+        <v>0.02745179219456051</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05155155823867694</v>
+        <v>0.05351016026934589</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02468898530090793</v>
+        <v>0.06919394669880405</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05027261189973146</v>
+        <v>0.05322160439101414</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06077084857480641</v>
+        <v>0.1104012473910976</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05063346895589278</v>
+        <v>0.05317749235366559</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09201259714150534</v>
+        <v>0.02745179219456051</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04798436706594314</v>
+        <v>0.05351016026934589</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02354500520389408</v>
+        <v>0.02737636414408186</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05229868227112153</v>
+        <v>0.05428566983846685</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0251252343369979</v>
+        <v>0.06961304135361812</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05100120047798844</v>
+        <v>0.0539929319908839</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06179575302734477</v>
+        <v>0.1106353805863661</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05136728734655789</v>
+        <v>0.05394818064864625</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09294406900729407</v>
+        <v>0.02737636414408186</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04867979267559449</v>
+        <v>0.05428566983846685</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02280239941961077</v>
+        <v>0.02729676030431909</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05304580630356613</v>
+        <v>0.05506117940758781</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02536462942132968</v>
+        <v>0.069226130752161</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05172978905624542</v>
+        <v>0.05476425959075368</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06232818822619132</v>
+        <v>0.1107572038550504</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05210110573722301</v>
+        <v>0.05471886894362691</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09452575561819282</v>
+        <v>0.02729676030431909</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04937521828524584</v>
+        <v>0.05506117940758781</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0230590121044657</v>
+        <v>0.02721317410044245</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05379293033601072</v>
+        <v>0.05583668897670876</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02550579731293781</v>
+        <v>0.06923323132205869</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0524583776345024</v>
+        <v>0.05553558719062344</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06266287130380327</v>
+        <v>0.1100667575045385</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05283492412788812</v>
+        <v>0.05548955723860757</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09594658705926123</v>
+        <v>0.02721317410044245</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05007064389489719</v>
+        <v>0.05583668897670876</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02331229545527871</v>
+        <v>0.02732579895762217</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05454005436845531</v>
+        <v>0.05661219854582972</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02564736477085679</v>
+        <v>0.0690343594909372</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05318696621275937</v>
+        <v>0.05630691479049321</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06329451939263775</v>
+        <v>0.1102640818422181</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05356874251855323</v>
+        <v>0.05626024553358824</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09659549341555912</v>
+        <v>0.02732579895762217</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05076606950454854</v>
+        <v>0.05661219854582972</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02355970166886965</v>
+        <v>0.02703482830102845</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0552871784008999</v>
+        <v>0.05738770811495067</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02598795855412113</v>
+        <v>0.06882953168642242</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05391555479101635</v>
+        <v>0.05707824239036299</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06441784962515198</v>
+        <v>0.1102492171754775</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05430256090921835</v>
+        <v>0.05703093382856889</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09856140477214603</v>
+        <v>0.02703482830102845</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05146149511419989</v>
+        <v>0.05738770811495067</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02379868294205841</v>
+        <v>0.02704045555583154</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05603430243334451</v>
+        <v>0.05816321768407162</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02612620542176529</v>
+        <v>0.06911876433614036</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05464414336927333</v>
+        <v>0.05784956999023275</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06542757913380312</v>
+        <v>0.1091222038117045</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05503637929988345</v>
+        <v>0.05780162212354956</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09933325121408176</v>
+        <v>0.02704045555583154</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05215692072385124</v>
+        <v>0.05816321768407162</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0240266914716648</v>
+        <v>0.02684287414720163</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0567814264657891</v>
+        <v>0.05893872725319258</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02636073213282382</v>
+        <v>0.068302073867717</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05537273194753031</v>
+        <v>0.05862089759010253</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06591842505104836</v>
+        <v>0.1090830820582871</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05577019769054856</v>
+        <v>0.05857231041853021</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1002999628264261</v>
+        <v>0.02684287414720163</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05285234633350258</v>
+        <v>0.05893872725319258</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0252411794545087</v>
+        <v>0.02674227750030897</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05752855049823369</v>
+        <v>0.05971423682231353</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02659016544633118</v>
+        <v>0.06867947670877828</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05610132052578728</v>
+        <v>0.05939222518997229</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06678510450934486</v>
+        <v>0.1087318922226132</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05650401608121369</v>
+        <v>0.05934299871351087</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1017504696942385</v>
+        <v>0.02674227750030897</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05354777194315394</v>
+        <v>0.05971423682231353</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02343959908740995</v>
+        <v>0.02663885904032377</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05827567453067829</v>
+        <v>0.06048974639143449</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02701313212132192</v>
+        <v>0.06855098928695019</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05682990910404426</v>
+        <v>0.06016355278984207</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06682233464114984</v>
+        <v>0.1081686746120709</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05723783447187879</v>
+        <v>0.06011368700849153</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1038737019025788</v>
+        <v>0.02663885904032377</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05424319755280529</v>
+        <v>0.06048974639143449</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02461940256718841</v>
+        <v>0.02673281219241626</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05902279856312288</v>
+        <v>0.06126525596055545</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02702825891683049</v>
+        <v>0.06861662802985868</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05755849768230124</v>
+        <v>0.06093488038971183</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0677248325789204</v>
+        <v>0.1079934695340479</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0579716528625439</v>
+        <v>0.06088437530347219</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1049585895365067</v>
+        <v>0.02673281219241626</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05493862316245663</v>
+        <v>0.06126525596055545</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02377804209066395</v>
+        <v>0.02662433038175667</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05976992259556747</v>
+        <v>0.0620407655296764</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02723417259189141</v>
+        <v>0.06787640936512979</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05828708626055822</v>
+        <v>0.0617062079895816</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06818731545511378</v>
+        <v>0.1086063172959325</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05870547125320903</v>
+        <v>0.06165506359845286</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1052940626810818</v>
+        <v>0.02662433038175667</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05563404877210799</v>
+        <v>0.0620407655296764</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0249129698546564</v>
+        <v>0.0264136070335152</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06051704662801206</v>
+        <v>0.06281627509879735</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0275294999055392</v>
+        <v>0.06793034972038933</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05901567483881519</v>
+        <v>0.06247753558945137</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06890450040218712</v>
+        <v>0.1078072582051124</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05943928964387413</v>
+        <v>0.06242575189343352</v>
       </c>
       <c r="N146" t="n">
-        <v>0.106469051421364</v>
+        <v>0.0264136070335152</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05632947438175934</v>
+        <v>0.06281627509879735</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02603008240349169</v>
+        <v>0.0264008355728621</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06126417066045665</v>
+        <v>0.06359178466791832</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02771286761680831</v>
+        <v>0.06747846552326342</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05974426341707217</v>
+        <v>0.06324886318932114</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06917110455259767</v>
+        <v>0.1070963325689758</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06017310803453924</v>
+        <v>0.06319644018841418</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1082724858424129</v>
+        <v>0.0264008355728621</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05702489999141068</v>
+        <v>0.06359178466791832</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02611362372553585</v>
+        <v>0.02618620942496756</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06201129469290125</v>
+        <v>0.06436729423703927</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02778290248473331</v>
+        <v>0.06802077320137798</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06047285199532915</v>
+        <v>0.06402019078919091</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06988184503880257</v>
+        <v>0.1072735806949105</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06090692642520436</v>
+        <v>0.06396712848339484</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1086932960292881</v>
+        <v>0.02618620942496756</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05772032560106204</v>
+        <v>0.06436729423703927</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02420493579261313</v>
+        <v>0.02596992201500184</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06275841872534585</v>
+        <v>0.06514280380616022</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.06765728918235892</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06120144057358613</v>
+        <v>0.06479151838906068</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0701920153747462</v>
+        <v>0.1064390428903044</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06164074481586947</v>
+        <v>0.06473781677837549</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1098204120670495</v>
+        <v>0.02596992201500184</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05841575121071339</v>
+        <v>0.06514280380616022</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02529559531477046</v>
+        <v>0.02585216676813513</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06350554275779044</v>
+        <v>0.06591831337528117</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02808456544538523</v>
+        <v>0.06758802989383231</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06193002915184311</v>
+        <v>0.06556284598893046</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07058525602741655</v>
+        <v>0.1059927594625457</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06237456320653459</v>
+        <v>0.06550850507335616</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1098427640407565</v>
+        <v>0.02585216676813513</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05911117682036473</v>
+        <v>0.06591831337528117</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02438550685354792</v>
+        <v>0.0257331371095377</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06425266679023504</v>
+        <v>0.06669382294440213</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02833457941915035</v>
+        <v>0.06691301176342404</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06265861773010009</v>
+        <v>0.06633417358880023</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0708354709735084</v>
+        <v>0.1056347707190222</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0631083815971997</v>
+        <v>0.06627919336833682</v>
       </c>
       <c r="N151" t="n">
-        <v>0.110349282035469</v>
+        <v>0.0257331371095377</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05980660243001609</v>
+        <v>0.06669382294440213</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02647457497048566</v>
+        <v>0.02571302646437974</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06499979082267963</v>
+        <v>0.06746933251352309</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02848805582697152</v>
+        <v>0.06673225121876011</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06338720630835706</v>
+        <v>0.06710550118866998</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07068732072516701</v>
+        <v>0.1063651169671218</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06384219998786481</v>
+        <v>0.06704988166331749</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1116288961362468</v>
+        <v>0.02571302646437974</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06050202803966744</v>
+        <v>0.06746933251352309</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02456270422712375</v>
+        <v>0.02549202825783146</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06574691485512422</v>
+        <v>0.06824484208264404</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02854444572206688</v>
+        <v>0.06644576468746646</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06411579488661405</v>
+        <v>0.06787682878853976</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0714399698610769</v>
+        <v>0.1056838385142326</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06457601837852993</v>
+        <v>0.06782056995829815</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.02549202825783146</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06119745364931878</v>
+        <v>0.06824484208264404</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02664979918500233</v>
+        <v>0.02537033591506312</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06649403888756882</v>
+        <v>0.069020351651765</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02890320015765468</v>
+        <v>0.06665356859716912</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06484438346487102</v>
+        <v>0.06864815638840953</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07179258295992255</v>
+        <v>0.1048909756677425</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06530983676919504</v>
+        <v>0.0685912582532788</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1123118433890846</v>
+        <v>0.02537033591506312</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06189287925897013</v>
+        <v>0.069020351651765</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02473576440566148</v>
+        <v>0.02534814286124491</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06724116292001341</v>
+        <v>0.06979586122088595</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02896377018695305</v>
+        <v>0.066555679375494</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06557297204312799</v>
+        <v>0.06941948398827931</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07194432460038844</v>
+        <v>0.1042865687350396</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06604365515986015</v>
+        <v>0.06936194654825946</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1117456786865186</v>
+        <v>0.02534814286124491</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06258830486862149</v>
+        <v>0.06979586122088595</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02582050445064136</v>
+        <v>0.02512564252154709</v>
       </c>
       <c r="G156" t="n">
-        <v>0.067988286952458</v>
+        <v>0.0705713707900069</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02922560686318018</v>
+        <v>0.06615211345006708</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06630156062138497</v>
+        <v>0.07019081158814906</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07229435936115905</v>
+        <v>0.1046706580235116</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06677747355052527</v>
+        <v>0.07013263484324012</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1121743694810599</v>
+        <v>0.02512564252154709</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06328373047827283</v>
+        <v>0.0705713707900069</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02690392388148206</v>
+        <v>0.02520302832113984</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06873541098490259</v>
+        <v>0.07134688035912785</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02928816123955429</v>
+        <v>0.06634288724851437</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06703014919964194</v>
+        <v>0.07096213918801884</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07304185182091893</v>
+        <v>0.1037432838405467</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06751129194119038</v>
+        <v>0.07090332313822079</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1125975201240291</v>
+        <v>0.02520302832113984</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06397915608792419</v>
+        <v>0.07134688035912785</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02498592725972367</v>
+        <v>0.02498049368519339</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06948253501734718</v>
+        <v>0.07212238992824882</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02955088436929353</v>
+        <v>0.06562801719846179</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06775873777789893</v>
+        <v>0.07173346678788861</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07348596655835252</v>
+        <v>0.1038044864935327</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06824511033185549</v>
+        <v>0.07167401143320144</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1132147349667476</v>
+        <v>0.02498049368519339</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06467458169757553</v>
+        <v>0.07212238992824882</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02506641914690632</v>
+        <v>0.02485823203887801</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07022965904979178</v>
+        <v>0.07289789949736977</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02961322730561608</v>
+        <v>0.0652075197275353</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0684873263561559</v>
+        <v>0.07250479438775838</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07342586815214425</v>
+        <v>0.1029543062898576</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06897892872252061</v>
+        <v>0.07244469972818211</v>
       </c>
       <c r="N159" t="n">
-        <v>0.113225618360536</v>
+        <v>0.02485823203887801</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06537000730722688</v>
+        <v>0.07289789949736977</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02614530410457013</v>
+        <v>0.02463272958316573</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07097678308223637</v>
+        <v>0.07367340906649072</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02987464110174014</v>
+        <v>0.0652814112633609</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06921591493441288</v>
+        <v>0.07327612198762816</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07376072118097873</v>
+        <v>0.1027927835369095</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06971274711318572</v>
+        <v>0.07321538802316277</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1133297746567156</v>
+        <v>0.02463272958316573</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06606543291687823</v>
+        <v>0.07367340906649072</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02622248669425519</v>
+        <v>0.02459550397667433</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07172390711468096</v>
+        <v>0.07444891863561169</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02983457681088388</v>
+        <v>0.06484970823356456</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06994450351266986</v>
+        <v>0.07404744958749791</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07438969022354042</v>
+        <v>0.1018199585420763</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07044656550385082</v>
+        <v>0.07398607631814343</v>
       </c>
       <c r="N161" t="n">
-        <v>0.113026808206607</v>
+        <v>0.02459550397667433</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06676085852652959</v>
+        <v>0.07444891863561169</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02729787147750162</v>
+        <v>0.02454680616044048</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07247103114712555</v>
+        <v>0.07522442820473263</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03019248548626548</v>
+        <v>0.06491242706577222</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07067309209092683</v>
+        <v>0.07481877718736769</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07481193985851373</v>
+        <v>0.1010358716127458</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07118038389451593</v>
+        <v>0.07475676461312408</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1135163233615314</v>
+        <v>0.02454680616044048</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06745628413618093</v>
+        <v>0.07522442820473263</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02537136301584953</v>
+        <v>0.02438728173521615</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07321815517957014</v>
+        <v>0.07599993777385358</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03024781818110316</v>
+        <v>0.0646695841876099</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07140168066918381</v>
+        <v>0.07559010478723746</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07512663466458322</v>
+        <v>0.1007405630563062</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07191420228518104</v>
+        <v>0.07552745290810474</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1132979244728096</v>
+        <v>0.02438728173521615</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06815170974583229</v>
+        <v>0.07599993777385358</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02744286587083906</v>
+        <v>0.02401757630175325</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07396527921201475</v>
+        <v>0.07677544734297455</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03030002594861503</v>
+        <v>0.06442119602670349</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07213026924744079</v>
+        <v>0.07636143238710724</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07473293922043339</v>
+        <v>0.1001340731801453</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07264802067584616</v>
+        <v>0.07629814120308541</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1137712158917628</v>
+        <v>0.02401757630175325</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06884713535548363</v>
+        <v>0.07677544734297455</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02651228460401028</v>
+        <v>0.02383833546080373</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07471240324445934</v>
+        <v>0.0775509569120955</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03044855984201933</v>
+        <v>0.06386727901067904</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07285885782569777</v>
+        <v>0.077132759986977</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07543001810474873</v>
+        <v>0.09981644229165115</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07338183906651127</v>
+        <v>0.07706882949806607</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1138358019697116</v>
+        <v>0.02383833546080373</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06954256096513498</v>
+        <v>0.0775509569120955</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02557952377690331</v>
+        <v>0.02365020481311952</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07545952727690393</v>
+        <v>0.07832646648121647</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03079287091453424</v>
+        <v>0.06380784956716246</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07358744640395475</v>
+        <v>0.07790408758684676</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07531703589621366</v>
+        <v>0.0991877106982117</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07411565745717638</v>
+        <v>0.07783951779304674</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1144912870579773</v>
+        <v>0.02365020481311952</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07023798657478633</v>
+        <v>0.07832646648121647</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02664448795105828</v>
+        <v>0.02345382995945258</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07620665130934853</v>
+        <v>0.07910197605033742</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03093241021937793</v>
+        <v>0.06364292412377973</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07431603498221173</v>
+        <v>0.07867541518671654</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07569315717351274</v>
+        <v>0.09904791870721485</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0748494758478415</v>
+        <v>0.07861020608802739</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1141372755078807</v>
+        <v>0.02345382995945258</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07093341218443769</v>
+        <v>0.07910197605033742</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02570708168801527</v>
+        <v>0.02324985650055482</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07695377534179312</v>
+        <v>0.07987748561945836</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03086662880976856</v>
+        <v>0.06327251910815682</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0750446235604687</v>
+        <v>0.07944674278658631</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07605754651533039</v>
+        <v>0.09869710662604869</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07558329423850661</v>
+        <v>0.07938089438300805</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1139733716707429</v>
+        <v>0.02324985650055482</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07162883779408903</v>
+        <v>0.07987748561945836</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02776720954931444</v>
+        <v>0.02313893003717819</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07770089937423771</v>
+        <v>0.08065299518857932</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03119497773892438</v>
+        <v>0.06289665094791971</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07577321213872568</v>
+        <v>0.08021807038645608</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07680936850035119</v>
+        <v>0.09723531476210107</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07631711262917172</v>
+        <v>0.08015158267798872</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1141991798978846</v>
+        <v>0.02313893003717819</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07232426340374039</v>
+        <v>0.08065299518857932</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02582477609649585</v>
+        <v>0.02302169617007466</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0784480234066823</v>
+        <v>0.08142850475770028</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0312169080600635</v>
+        <v>0.06261533607069439</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07650180071698266</v>
+        <v>0.08098939798632585</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07684778770725958</v>
+        <v>0.09716258342275996</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07705093101983684</v>
+        <v>0.08092227097296938</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1147143045406269</v>
+        <v>0.02302169617007466</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07301968901339173</v>
+        <v>0.08142850475770028</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02787968589109963</v>
+        <v>0.02279880049999611</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0791951474391269</v>
+        <v>0.08220401432682123</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03143187082640414</v>
+        <v>0.06272859090410682</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07723038929523963</v>
+        <v>0.08176072558619563</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07687196871474006</v>
+        <v>0.09687895291541337</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07778474941050195</v>
+        <v>0.08169295926795003</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1152183499502909</v>
+        <v>0.02279880049999611</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07371511462304307</v>
+        <v>0.08220401432682123</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02793184349466591</v>
+        <v>0.02237088862769451</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0799422714715715</v>
+        <v>0.08297952389594219</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03133931709116447</v>
+        <v>0.06183643187578286</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07795897787349662</v>
+        <v>0.08253205318606539</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07718107610147715</v>
+        <v>0.09628446354744924</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07851856780116706</v>
+        <v>0.08246364756293069</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1152109204781973</v>
+        <v>0.02237088862769451</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07441054023269443</v>
+        <v>0.08297952389594219</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02698115346873477</v>
+        <v>0.0221386061539218</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08068939550401609</v>
+        <v>0.08375503346506315</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03143869790756268</v>
+        <v>0.06153887541334865</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07868756645175359</v>
+        <v>0.08330338078593516</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07707427444615531</v>
+        <v>0.09567915562625562</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07925238619183218</v>
+        <v>0.08323433585791136</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1149916204756672</v>
+        <v>0.0221386061539218</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07510596584234579</v>
+        <v>0.08375503346506315</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02802752037484636</v>
+        <v>0.02190259867942991</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08143651953646068</v>
+        <v>0.0845305430341841</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03172946432881696</v>
+        <v>0.06160308317021618</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07941615503001058</v>
+        <v>0.08407470838580493</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07755072832745896</v>
+        <v>0.09496306945922034</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07998620458249729</v>
+        <v>0.08400502415289202</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1156600542940215</v>
+        <v>0.02190259867942991</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07580139145199713</v>
+        <v>0.0845305430341841</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02707084877454075</v>
+        <v>0.02166351180497077</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08218364356890528</v>
+        <v>0.08530605260330505</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03181106740814547</v>
+        <v>0.0608909798308632</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08014474360826755</v>
+        <v>0.08484603598567469</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07730960232407269</v>
+        <v>0.09389289222223873</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08072002297316241</v>
+        <v>0.08477571244787267</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1152158262845813</v>
+        <v>0.02166351180497077</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07649681706164849</v>
+        <v>0.08530605260330505</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02811104322935808</v>
+        <v>0.02152199113129634</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08293076760134988</v>
+        <v>0.086081562172426</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0318829581987664</v>
+        <v>0.06070703018692142</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08087333218652452</v>
+        <v>0.08561736358554448</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07745006101468097</v>
+        <v>0.09309109146853151</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08145384136382752</v>
+        <v>0.08554640074285334</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1151585407986674</v>
+        <v>0.02152199113129634</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07719224267129983</v>
+        <v>0.086081562172426</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02814800830083845</v>
+        <v>0.02117868225915852</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08367789163379447</v>
+        <v>0.08685707174154696</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03194458775389795</v>
+        <v>0.05977424883357099</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08160192076478151</v>
+        <v>0.08638869118541424</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07777126897796827</v>
+        <v>0.09120154036296219</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08218765975449263</v>
+        <v>0.086317089037834</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1157878021876008</v>
+        <v>0.02117868225915852</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07788766828095117</v>
+        <v>0.08685707174154696</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02718164855052198</v>
+        <v>0.02093423078930931</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08442501566623906</v>
+        <v>0.08763258131066792</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03189540712675829</v>
+        <v>0.05821565036599205</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08233050934303848</v>
+        <v>0.08716001878528401</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0780723907926191</v>
+        <v>0.0896697578563026</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08292147814515775</v>
+        <v>0.08708777733281466</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1152032148027025</v>
+        <v>0.02093423078930931</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07858309389060253</v>
+        <v>0.08763258131066792</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02821186853994876</v>
+        <v>0.0208892823225006</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08517213969868365</v>
+        <v>0.08840809087978888</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03183486737056561</v>
+        <v>0.05735424937936481</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08305909792129547</v>
+        <v>0.08793134638515378</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07775259103731794</v>
+        <v>0.08804126289932473</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08365529653582286</v>
+        <v>0.08785846562779531</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1155029698962702</v>
+        <v>0.0208892823225006</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07927851950025389</v>
+        <v>0.08840809087978888</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02723857283065893</v>
+        <v>0.02064448245948433</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08591926373112824</v>
+        <v>0.08918360044890983</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03206241953853808</v>
+        <v>0.05671306046886943</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08378768649955244</v>
+        <v>0.08870267398502354</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07781103429074923</v>
+        <v>0.08576157444280014</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08438911492648797</v>
+        <v>0.08862915392277598</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1150750218776542</v>
+        <v>0.02064448245948433</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07997394510990523</v>
+        <v>0.08918360044890983</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02726166598419257</v>
+        <v>0.02030047680101246</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08666638776357283</v>
+        <v>0.08995911001803078</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03207751468389387</v>
+        <v>0.055315098229686</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08451627507780941</v>
+        <v>0.08947400158489333</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07844688513159756</v>
+        <v>0.08357621143750099</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08512293331715308</v>
+        <v>0.08939984221775664</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1150172765677335</v>
+        <v>0.02030047680101246</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08066937071955659</v>
+        <v>0.08995911001803078</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02828105256208981</v>
+        <v>0.02015791094783692</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08741351179601742</v>
+        <v>0.09073461958715173</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03197868986607925</v>
+        <v>0.0542833772569947</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08524486365606639</v>
+        <v>0.09024532918476309</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07855930813854736</v>
+        <v>0.08173069283419898</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08585675170781819</v>
+        <v>0.0901705305127373</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1147304400097851</v>
+        <v>0.02015791094783692</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08136479632920794</v>
+        <v>0.09073461958715173</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02629663712589076</v>
+        <v>0.01981743050070964</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08816063582846202</v>
+        <v>0.09151012915627268</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03205463899429212</v>
+        <v>0.05274091214597573</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08597345223432336</v>
+        <v>0.09101665678463286</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07822308704841768</v>
+        <v>0.080070537583666</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0865905700984833</v>
+        <v>0.09094121880771797</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1144152182470859</v>
+        <v>0.01981743050070964</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08206022193885927</v>
+        <v>0.09151012915627268</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02630832423713555</v>
+        <v>0.01967968106038256</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08890775986090661</v>
+        <v>0.09228563872539365</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03200328821594885</v>
+        <v>0.05121071749180925</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08670204081258034</v>
+        <v>0.09178798438450263</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07811432379027008</v>
+        <v>0.07804126463667393</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08732438848914842</v>
+        <v>0.09171190710269862</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1152723173229129</v>
+        <v>0.01967968106038256</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08275564754851063</v>
+        <v>0.09228563872539365</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02731601845736423</v>
+        <v>0.01924530822760762</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0896548838933512</v>
+        <v>0.0930611482945146</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03192610851718923</v>
+        <v>0.05061580788967535</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08743062939083732</v>
+        <v>0.09255931198437241</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07773688954770697</v>
+        <v>0.07598839294399462</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08805820687981353</v>
+        <v>0.09248259539767929</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1149024432805429</v>
+        <v>0.01924530822760762</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08345107315816198</v>
+        <v>0.0930611482945146</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.027319624348117</v>
+        <v>0.01921495760313678</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09040200792579579</v>
+        <v>0.09383665786363556</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03162457088415305</v>
+        <v>0.04927919793475427</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0881592179690943</v>
+        <v>0.09333063958424218</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07729466370623259</v>
+        <v>0.07345744145639999</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08879202527047864</v>
+        <v>0.09325328369265995</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1139063021632528</v>
+        <v>0.01921495760313678</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08414649876781333</v>
+        <v>0.09383665786363556</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02630981925076756</v>
+        <v>0.01888927478772193</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09114913195824038</v>
+        <v>0.09461216743275651</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03150014630298008</v>
+        <v>0.04832390222222616</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08888780654735128</v>
+        <v>0.09410196718411194</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0773915256513513</v>
+        <v>0.07219392912466188</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08952584366114376</v>
+        <v>0.09402397198764061</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1147846000143195</v>
+        <v>0.01888927478772193</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08484192437746468</v>
+        <v>0.09461216743275651</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02725499924757668</v>
+        <v>0.01876890538211505</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09189625599068499</v>
+        <v>0.09538767700187746</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03145430575981011</v>
+        <v>0.04747293534727112</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08961639512560826</v>
+        <v>0.09487329478398171</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07693135476856736</v>
+        <v>0.070343374899552</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09025966205180887</v>
+        <v>0.09479466028262126</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1140380428770199</v>
+        <v>0.01876890538211505</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08553734998711604</v>
+        <v>0.09538767700187746</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02715617434871182</v>
+        <v>0.01855449498706806</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09264338002312958</v>
+        <v>0.09616318657099843</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0311885202407829</v>
+        <v>0.04604931190506936</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09034498370386523</v>
+        <v>0.09564462238385148</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07651803044338504</v>
+        <v>0.06943551170160678</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09099348044247399</v>
+        <v>0.09556534857760192</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1140673367946308</v>
+        <v>0.01855449498706806</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08623277559676738</v>
+        <v>0.09616318657099843</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02601747474417335</v>
+        <v>0.01814668920333289</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09339050405557417</v>
+        <v>0.09693869614011938</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03110426073203826</v>
+        <v>0.04577604649080094</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09107357228212221</v>
+        <v>0.09641594998372126</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07585543206130865</v>
+        <v>0.06769588114731317</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0917272988331391</v>
+        <v>0.09633603687258259</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1138731878104293</v>
+        <v>0.01814668920333289</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08692820120641873</v>
+        <v>0.09693869614011938</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02784303062396163</v>
+        <v>0.01804613363166151</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09413762808801877</v>
+        <v>0.09771420570924033</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03100299821971596</v>
+        <v>0.04497563934307811</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09180216086037919</v>
+        <v>0.09718727758359103</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07564743900784252</v>
+        <v>0.06696504105719686</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09246111722380421</v>
+        <v>0.09710672516756325</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1130563019676921</v>
+        <v>0.01804613363166151</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08762362681607008</v>
+        <v>0.09771420570924033</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02663697217807703</v>
+        <v>0.01785347387280584</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09488475212046336</v>
+        <v>0.0984897152783613</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03058620368995574</v>
+        <v>0.04497021590560643</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09253074943863616</v>
+        <v>0.09795860518346079</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07489793066849085</v>
+        <v>0.06514423528307767</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09319493561446933</v>
+        <v>0.09787741346254392</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1122173853096962</v>
+        <v>0.01785347387280584</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08831905242572143</v>
+        <v>0.0984897152783613</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02640342959651989</v>
+        <v>0.01756935552751779</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09563187615290795</v>
+        <v>0.09926522484748224</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03035534812889741</v>
+        <v>0.04429021379859857</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09325933801689315</v>
+        <v>0.09872993278333056</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07431078642875799</v>
+        <v>0.06433470767677518</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09392875400513444</v>
+        <v>0.09864810175752457</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1128571438797185</v>
+        <v>0.01756935552751779</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08901447803537278</v>
+        <v>0.09926522484748224</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02714653306929061</v>
+        <v>0.01748917576666549</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09637900018535255</v>
+        <v>0.1000407344166032</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03011190252268076</v>
+        <v>0.04413392035298636</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09398792659515012</v>
+        <v>0.09950126038320033</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07348988567414821</v>
+        <v>0.06313770209010922</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09466257239579955</v>
+        <v>0.09941879005250523</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1115762837210357</v>
+        <v>0.01748917576666549</v>
       </c>
       <c r="O194" t="n">
-        <v>0.08970990364502414</v>
+        <v>0.1000407344166032</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02687041278638953</v>
+        <v>0.01720351356679914</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09712612421779714</v>
+        <v>0.1008162439857242</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03005733785744555</v>
+        <v>0.0432996228997016</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09471651517340711</v>
+        <v>0.1002725879830701</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07313910779016583</v>
+        <v>0.06185446237489955</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09539639078646467</v>
+        <v>0.1001894783474859</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1113755108769249</v>
+        <v>0.01720351356679914</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09040532925467548</v>
+        <v>0.1008162439857242</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02657919893781701</v>
+        <v>0.01701282033472327</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09787324825024174</v>
+        <v>0.1015917535548451</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02979312511933158</v>
+        <v>0.04318560876967611</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09544510375166408</v>
+        <v>0.1010439155829399</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07256233216231511</v>
+        <v>0.06068623238296589</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09613020917712978</v>
+        <v>0.1009601666424665</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1115555313906631</v>
+        <v>0.01701282033472327</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09110075486432682</v>
+        <v>0.1015917535548451</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02527702171357343</v>
+        <v>0.01701779959144693</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09862037228268633</v>
+        <v>0.1023672631239661</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02932073529447857</v>
+        <v>0.0431901652938417</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09617369232992105</v>
+        <v>0.1018152431828096</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07216343817610038</v>
+        <v>0.05913425596612792</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09686402756779489</v>
+        <v>0.1017308549374472</v>
       </c>
       <c r="N197" t="n">
-        <v>0.110617051305527</v>
+        <v>0.01701779959144693</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09179618047397818</v>
+        <v>0.1023672631239661</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02596801130365915</v>
+        <v>0.01681915485797923</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09936749631513092</v>
+        <v>0.103142772693087</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02914163936902638</v>
+        <v>0.04301157980313028</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09690228090817804</v>
+        <v>0.1025865707826794</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07134630521702587</v>
+        <v>0.05789977697620535</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09759784595845999</v>
+        <v>0.1025015432324279</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1101607766647935</v>
+        <v>0.01681915485797923</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09249160608362952</v>
+        <v>0.103142772693087</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02565629789807451</v>
+        <v>0.01651758965532926</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1001146203475755</v>
+        <v>0.103918282262208</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02895730832911474</v>
+        <v>0.0428481396284735</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09763086948643501</v>
+        <v>0.1033578983825492</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07001481267059589</v>
+        <v>0.05718403926501792</v>
       </c>
       <c r="M199" t="n">
-        <v>0.0983316643491251</v>
+        <v>0.1032722315274085</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1098874135117394</v>
+        <v>0.01651758965532926</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09318703169328088</v>
+        <v>0.103918282262208</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0243460116868199</v>
+        <v>0.0162138075045061</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1008617443800201</v>
+        <v>0.1046937918313289</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02856921316088341</v>
+        <v>0.04189813210080329</v>
       </c>
       <c r="K200" t="n">
-        <v>0.098359458064692</v>
+        <v>0.104129225982419</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06927283992231476</v>
+        <v>0.0557882866843854</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09906548273979023</v>
+        <v>0.1040429198223892</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1092976678896418</v>
+        <v>0.0162138075045061</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09388245730293224</v>
+        <v>0.1046937918313289</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02504128285989569</v>
+        <v>0.01610851192651885</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1016088684124647</v>
+        <v>0.1054693014004499</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02817882485047224</v>
+        <v>0.04165984455105146</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09908804664294897</v>
+        <v>0.1049005535822887</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06912426635768676</v>
+        <v>0.05511376308612759</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09979930113045533</v>
+        <v>0.1048136081173699</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1091922458417776</v>
+        <v>0.01610851192651885</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09457788291258358</v>
+        <v>0.1054693014004499</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02274624160730222</v>
+        <v>0.0158024064423766</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1023559924449093</v>
+        <v>0.1062448109695708</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02808761438402094</v>
+        <v>0.04203156431014979</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09981663522120594</v>
+        <v>0.1056718811821585</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06827297136221613</v>
+        <v>0.05396171232206404</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1005331195211204</v>
+        <v>0.1055842964123505</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1080718534114235</v>
+        <v>0.0158024064423766</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09527330852223492</v>
+        <v>0.1062448109695708</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02446501811903986</v>
+        <v>0.01559619457308843</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1031031164773539</v>
+        <v>0.1070203205386918</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02759705274766931</v>
+        <v>0.04191157870903015</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1005452237994629</v>
+        <v>0.1064432087820283</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06772283432140724</v>
+        <v>0.05253337824401472</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1012669379117856</v>
+        <v>0.1063549847073312</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1080371966418565</v>
+        <v>0.01559619457308843</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09596873413188628</v>
+        <v>0.1070203205386918</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02320174258510898</v>
+        <v>0.01539057983966344</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1038502405097985</v>
+        <v>0.1077958301078127</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02740861092755716</v>
+        <v>0.04159817507862432</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1012738123777199</v>
+        <v>0.107214536381898</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06687773462076432</v>
+        <v>0.05213000470379908</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1020007563024507</v>
+        <v>0.1071256730023118</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1077889815763536</v>
+        <v>0.01539057983966344</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09666415974153762</v>
+        <v>0.1077958301078127</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02396054519550993</v>
+        <v>0.01528626576311071</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1045973645422431</v>
+        <v>0.1085713396769337</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02702375990982421</v>
+        <v>0.04098964074986408</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1020024009559769</v>
+        <v>0.1079858639817678</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06554155164579167</v>
+        <v>0.05115283555323702</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1027345746931158</v>
+        <v>0.1078963612972925</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1070279142581915</v>
+        <v>0.01528626576311071</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09735958535118898</v>
+        <v>0.1085713396769337</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0227455561402431</v>
+        <v>0.01508395586443934</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1053444885746877</v>
+        <v>0.1093468492460547</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0268439706806103</v>
+        <v>0.04108426305368132</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1027309895342338</v>
+        <v>0.1087571915816376</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0650181647819936</v>
+        <v>0.04960311464414824</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1034683930837809</v>
+        <v>0.1086670495922732</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1059547007306473</v>
+        <v>0.01508395586443934</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09805501096084034</v>
+        <v>0.1093468492460547</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02256090560930882</v>
+        <v>0.01488435366465841</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1060916126071323</v>
+        <v>0.1101223588151756</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02647071422605515</v>
+        <v>0.04098032932100781</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1034595781124908</v>
+        <v>0.1095285191815074</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06411145341487437</v>
+        <v>0.04928208582835247</v>
       </c>
       <c r="M207" t="n">
-        <v>0.104202211474446</v>
+        <v>0.1094377378872538</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1060700470369976</v>
+        <v>0.01488435366465841</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09875043657049168</v>
+        <v>0.1101223588151756</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0234107237927075</v>
+        <v>0.01468816268477705</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1068387366395768</v>
+        <v>0.1108978683842966</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02620546153229859</v>
+        <v>0.04027612688277543</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1041881666907478</v>
+        <v>0.1102998467813771</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06402529692993836</v>
+        <v>0.0485909929576695</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1049360298651111</v>
+        <v>0.1102084261822345</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1048746592205196</v>
+        <v>0.01468816268477705</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09944586218014302</v>
+        <v>0.1108978683842966</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02129914088043944</v>
+        <v>0.01459608644580428</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1075858606720214</v>
+        <v>0.1116733779534175</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02594968358548037</v>
+        <v>0.03996994306991591</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1049167552690048</v>
+        <v>0.1110711743812469</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06286357471268975</v>
+        <v>0.04753107988391891</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1056698482557762</v>
+        <v>0.1109791144772151</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1047692433244901</v>
+        <v>0.01459608644580428</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1001412877897944</v>
+        <v>0.1116733779534175</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02123028706250506</v>
+        <v>0.01430882846874922</v>
       </c>
       <c r="G210" t="n">
-        <v>0.108332984704466</v>
+        <v>0.1124488875225385</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02570485137174028</v>
+        <v>0.03996006521336115</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1056453438472618</v>
+        <v>0.1118425019811167</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06213016614863281</v>
+        <v>0.04640359045892062</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1064036666464414</v>
+        <v>0.1117498027721958</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1039545053921859</v>
+        <v>0.01430882846874922</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1008367133994457</v>
+        <v>0.1124488875225385</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02220821488427668</v>
+        <v>0.01402709227462098</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1090801087369106</v>
+        <v>0.1132243970916594</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0256724358772181</v>
+        <v>0.0395447806440429</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1063739324255187</v>
+        <v>0.1126138295809864</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06222895062327197</v>
+        <v>0.0453097685344942</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1071374850371065</v>
+        <v>0.1125204910671765</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1026311514668839</v>
+        <v>0.01402709227462098</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1015321390090971</v>
+        <v>0.1132243970916594</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02320822378599167</v>
+        <v>0.01405158138442865</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1098272327693552</v>
+        <v>0.1139999066607804</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02535390808805359</v>
+        <v>0.03982237669289304</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1071025210037757</v>
+        <v>0.1133851571808562</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06136380752211143</v>
+        <v>0.04515085796245943</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1078713034277716</v>
+        <v>0.1132911793621571</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1029998875918611</v>
+        <v>0.01405158138442865</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1022275646187484</v>
+        <v>0.1139999066607804</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0212082806567238</v>
+        <v>0.01388299931918129</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1105743568017998</v>
+        <v>0.1147754162299013</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02505073899038654</v>
+        <v>0.03919114069084337</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1078311095820327</v>
+        <v>0.114156484780726</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06083861623065545</v>
+        <v>0.04412810259463606</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1086051218184367</v>
+        <v>0.1140618676571378</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1020614198103944</v>
+        <v>0.01388299931918129</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1029229902283998</v>
+        <v>0.1147754162299013</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02320843095313737</v>
+        <v>0.01372204959988803</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1113214808342444</v>
+        <v>0.1155509257990223</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02496439957035673</v>
+        <v>0.03934935996882563</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1085596981602897</v>
+        <v>0.1149278123805957</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06054784377503525</v>
+        <v>0.04314274628284387</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1093389402091018</v>
+        <v>0.1148325559521184</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1017164541657606</v>
+        <v>0.01372204959988803</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1036184158380511</v>
+        <v>0.1155509257990223</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02120872013189661</v>
+        <v>0.01356943574755791</v>
       </c>
       <c r="G215" t="n">
-        <v>0.112068604866689</v>
+        <v>0.1163264353681432</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02489636081410394</v>
+        <v>0.03869532185777178</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1092882867385467</v>
+        <v>0.1156991399804655</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06006144634423979</v>
+        <v>0.04249603287890241</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1100727585997669</v>
+        <v>0.1156032442470991</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1006656967012367</v>
+        <v>0.01356943574755791</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1043138414477025</v>
+        <v>0.1163264353681432</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02120919364966583</v>
+        <v>0.01342586128320006</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1128157288991336</v>
+        <v>0.1171019449372642</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02453916187123095</v>
+        <v>0.03892731368861349</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1100168753168036</v>
+        <v>0.1164704675803353</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05957686955145483</v>
+        <v>0.04268920623463163</v>
       </c>
       <c r="M216" t="n">
-        <v>0.110806576990432</v>
+        <v>0.1163739325420798</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0994098534600994</v>
+        <v>0.01342586128320006</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1050092670573538</v>
+        <v>0.1171019449372642</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0232098969631093</v>
+        <v>0.01329202972782355</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1135628529315782</v>
+        <v>0.1178774545063852</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02448273599012879</v>
+        <v>0.03844941067178312</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1107454638950606</v>
+        <v>0.1172417951802051</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05879416130456985</v>
+        <v>0.04112351020185118</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1115403953810971</v>
+        <v>0.1171446208370604</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09864963048562581</v>
+        <v>0.01329202972782355</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1057046926670052</v>
+        <v>0.1178774545063852</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0212108755288913</v>
+        <v>0.01316864460243748</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1143099769640228</v>
+        <v>0.1186529640755061</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0243271126940907</v>
+        <v>0.03777033361862717</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1114740524733176</v>
+        <v>0.1180131227800748</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05861336951147433</v>
+        <v>0.04080018863238072</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1122742137717622</v>
+        <v>0.1179153091320411</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09828573382109262</v>
+        <v>0.01316864460243748</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1064001182766565</v>
+        <v>0.1186529640755061</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02221217480367609</v>
+        <v>0.01305640942805093</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1150571009964674</v>
+        <v>0.1194284736446271</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02417234078086418</v>
+        <v>0.0376902037074949</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1122026410515746</v>
+        <v>0.1187844503799446</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05823454208005766</v>
+        <v>0.04052048537804009</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1130080321624274</v>
+        <v>0.1186859974270217</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09741886950977696</v>
+        <v>0.01305640942805093</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1070955438863079</v>
+        <v>0.1194284736446271</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02321384024412797</v>
+        <v>0.01275602772567301</v>
       </c>
       <c r="G220" t="n">
-        <v>0.115804225028912</v>
+        <v>0.120203983213748</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02411846904819669</v>
+        <v>0.03750901325459188</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1129312296298315</v>
+        <v>0.1195557779798144</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05765772691820936</v>
+        <v>0.03988564429064889</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1137418505530925</v>
+        <v>0.1194566857220024</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09744974359495556</v>
+        <v>0.01275602772567301</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1077909694959592</v>
+        <v>0.120203983213748</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0232159173069112</v>
+        <v>0.01276820301631279</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1165513490613566</v>
+        <v>0.120979492782869</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02386554629383575</v>
+        <v>0.03732675457612375</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1136598182080885</v>
+        <v>0.1203271055796841</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05658297193381881</v>
+        <v>0.03929690922202694</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1144756689437576</v>
+        <v>0.1202273740169831</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09677906211990539</v>
+        <v>0.01276820301631279</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1084863951056106</v>
+        <v>0.120979492782869</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02121845144869006</v>
+        <v>0.01259363882097936</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1172984730938012</v>
+        <v>0.12175500235199</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02361362131552885</v>
+        <v>0.03704341998829611</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1143884067863455</v>
+        <v>0.1210984331795539</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05631032503477557</v>
+        <v>0.03973809678351065</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1152094873344227</v>
+        <v>0.1209980623119637</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09618750355082373</v>
+        <v>0.01259363882097936</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1091818207152619</v>
+        <v>0.12175500235199</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02222148812612882</v>
+        <v>0.01253303866068183</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1180455971262458</v>
+        <v>0.1225305119211109</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02366274291102351</v>
+        <v>0.03635900180731463</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1151169953646025</v>
+        <v>0.1218697607794237</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05633983412896901</v>
+        <v>0.0387830949176311</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1159433057250878</v>
+        <v>0.1217687506069444</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09485115293000768</v>
+        <v>0.01253303866068183</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1098772463249133</v>
+        <v>0.1225305119211109</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02122507279589177</v>
+        <v>0.01248710605642927</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1187927211586903</v>
+        <v>0.1233060214902318</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02351295987806717</v>
+        <v>0.03657349234938492</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1158455839428595</v>
+        <v>0.1226410883792934</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05517154712428865</v>
+        <v>0.03923184973522442</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1166771241157529</v>
+        <v>0.1225394389019251</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09407075207698462</v>
+        <v>0.01248710605642927</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1105726719345646</v>
+        <v>0.1233060214902318</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02222925091464319</v>
+        <v>0.01255654452923079</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1195398451911349</v>
+        <v>0.1240815310593528</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02316432101440738</v>
+        <v>0.03578688393071264</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1165741725211164</v>
+        <v>0.1234124159791632</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05470551192862388</v>
+        <v>0.03868459816548747</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1174109425064181</v>
+        <v>0.1233101271969057</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09294710865842987</v>
+        <v>0.01255654452923079</v>
       </c>
       <c r="O225" t="n">
-        <v>0.111268097544216</v>
+        <v>0.1240815310593528</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02223406793904734</v>
+        <v>0.01264205760009544</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1202869692235796</v>
+        <v>0.1248570406284737</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02321687511779159</v>
+        <v>0.03619916886750335</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1173027610993734</v>
+        <v>0.124183743579033</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05484177644986427</v>
+        <v>0.03864157713761718</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1181447608970831</v>
+        <v>0.1240808154918864</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09288103034101869</v>
+        <v>0.01264205760009544</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1119635231538673</v>
+        <v>0.1248570406284737</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0212395693257685</v>
+        <v>0.01264091317292941</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1210340932560241</v>
+        <v>0.1256325501975947</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02307067098596736</v>
+        <v>0.03551033947596272</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1180313496776304</v>
+        <v>0.1249550711789027</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05428038859589912</v>
+        <v>0.03750302358081037</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1188785792877483</v>
+        <v>0.124851503786867</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0916733247914262</v>
+        <v>0.01264091317292941</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1126589487635187</v>
+        <v>0.1256325501975947</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02124580053147095</v>
+        <v>0.01244092639234873</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1217812172884687</v>
+        <v>0.1264080597667157</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0227257574166821</v>
+        <v>0.03492038807229639</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1187599382558874</v>
+        <v>0.1257263987787725</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05382139627461799</v>
+        <v>0.03706917442426388</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1196123976784134</v>
+        <v>0.1256221920818477</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09132479967632762</v>
+        <v>0.01244092639234873</v>
       </c>
       <c r="O228" t="n">
-        <v>0.11335437437317</v>
+        <v>0.1264080597667157</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02325280701281898</v>
+        <v>0.01254097121446456</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1225283413209133</v>
+        <v>0.1271835693358366</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02278218320768335</v>
+        <v>0.03532930697271</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1194885268341443</v>
+        <v>0.1264977263786423</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05336484739391034</v>
+        <v>0.03724026659717455</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1203462160690785</v>
+        <v>0.1263928803768284</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08943626266239818</v>
+        <v>0.01254097121446456</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1140497999828214</v>
+        <v>0.1271835693358366</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02326063422647685</v>
+        <v>0.01264106699889669</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1232754653533579</v>
+        <v>0.1279590789049576</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02263999715671863</v>
+        <v>0.03483708849340911</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1202171154124013</v>
+        <v>0.127269053978512</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05301078986166563</v>
+        <v>0.03631653702873916</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1210800344597436</v>
+        <v>0.127163568671809</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08850852141631305</v>
+        <v>0.01264106699889669</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1147452255924727</v>
+        <v>0.1279590789049576</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02326932762910883</v>
+        <v>0.0124412331052649</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1240225893858025</v>
+        <v>0.1287345884740785</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02239924806153537</v>
+        <v>0.03424372495059938</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1209457039906583</v>
+        <v>0.1280403815783818</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05215927158577327</v>
+        <v>0.03599822264815467</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1218138528504087</v>
+        <v>0.1279342569667897</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08804238360474748</v>
+        <v>0.0124412331052649</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1154406512021241</v>
+        <v>0.1287345884740785</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0232789326773792</v>
+        <v>0.01254148889318898</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1247697134182471</v>
+        <v>0.1295100980431995</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02235998471988113</v>
+        <v>0.03434920866048646</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1216742925689153</v>
+        <v>0.1288117091782516</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05171034047412271</v>
+        <v>0.0361855603846179</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1225476712410738</v>
+        <v>0.1287049452617703</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08693865689437663</v>
+        <v>0.01254148889318898</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1161360768117754</v>
+        <v>0.1295100980431995</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02228949482795226</v>
+        <v>0.01254185372228873</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1255168374506917</v>
+        <v>0.1302856076123204</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02222225592950337</v>
+        <v>0.033653531939276</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1224028811471723</v>
+        <v>0.1295830367781214</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05126404443460347</v>
+        <v>0.0361787871673257</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1232814896317389</v>
+        <v>0.129475633556751</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08519814895187566</v>
+        <v>0.01254185372228873</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1168315024214268</v>
+        <v>0.1302856076123204</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02330105953749226</v>
+        <v>0.01264234695218394</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1262639614831363</v>
+        <v>0.1310611171814414</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02208611048814958</v>
+        <v>0.03365668710317354</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1231314697254292</v>
+        <v>0.1303543643779911</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05102043137510498</v>
+        <v>0.03597813992547488</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1240153080224041</v>
+        <v>0.1302463218517317</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08412166744391991</v>
+        <v>0.01264234695218394</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1175269280310781</v>
+        <v>0.1310611171814414</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0223136722626635</v>
+        <v>0.0126429879424944</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1270110855155809</v>
+        <v>0.1318366267505623</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02195159719356729</v>
+        <v>0.03305866646838479</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1238600583036862</v>
+        <v>0.1311256919778609</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05077954920351671</v>
+        <v>0.03578385558826241</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1247491264130692</v>
+        <v>0.1310170101467123</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08301002003718444</v>
+        <v>0.0126429879424944</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1182223536407295</v>
+        <v>0.1318366267505623</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02132737846013024</v>
+        <v>0.01244379605283989</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1277582095480255</v>
+        <v>0.1326121363196833</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02181876484350395</v>
+        <v>0.03255946235111537</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1245886468819432</v>
+        <v>0.1318970195777307</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04974144582772805</v>
+        <v>0.03519617108488499</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1254829448037343</v>
+        <v>0.131787698441693</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08156401439834443</v>
+        <v>0.01244379605283989</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1189177792503808</v>
+        <v>0.1326121363196833</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02334222358655675</v>
+        <v>0.01244479064284019</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1285053335804701</v>
+        <v>0.1333876458888043</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02158766223570707</v>
+        <v>0.03245906706757087</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1253172354602002</v>
+        <v>0.1326683471776005</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04990616915562859</v>
+        <v>0.0351153233445396</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1262167631943994</v>
+        <v>0.1325583867366736</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08018445819407533</v>
+        <v>0.01244479064284019</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1196132048600322</v>
+        <v>0.1333876458888043</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02335825309860732</v>
+        <v>0.01264599107211511</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1292524576129147</v>
+        <v>0.1341631554579252</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02155833816792417</v>
+        <v>0.03205747293395694</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1260458240384572</v>
+        <v>0.1334396747774702</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04897376709510765</v>
+        <v>0.03484154929642297</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1269505815850645</v>
+        <v>0.1333290750316543</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07957215909105214</v>
+        <v>0.01264599107211511</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1203086304696835</v>
+        <v>0.1341631554579252</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02237551245294623</v>
+        <v>0.01254741670028443</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1299995816453593</v>
+        <v>0.1349386650270462</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02143084143790271</v>
+        <v>0.0321546722664792</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1267744126167141</v>
+        <v>0.13421100237734</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04864428755405473</v>
+        <v>0.03397508586973202</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1276843999757296</v>
+        <v>0.134099763326635</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07802792475595</v>
+        <v>0.01254741670028443</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1210040560793349</v>
+        <v>0.1349386650270462</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02139404710623773</v>
+        <v>0.01254908688696796</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1307467056778038</v>
+        <v>0.1357141745961671</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0213052208433902</v>
+        <v>0.03165065738134329</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1275030011949711</v>
+        <v>0.1349823299772097</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04801777844035932</v>
+        <v>0.03361616999366362</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1284182183663947</v>
+        <v>0.1348704516216156</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07595256285544433</v>
+        <v>0.01254908688696796</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1216994816889862</v>
+        <v>0.1357141745961671</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02341390251514614</v>
+        <v>0.01245102099178546</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1314938297102484</v>
+        <v>0.1364896841652881</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02108152518213414</v>
+        <v>0.03154542059475479</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1282315897732281</v>
+        <v>0.1357536575770795</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04779428766191085</v>
+        <v>0.0341650385974146</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1291520367570599</v>
+        <v>0.1356411399165963</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07454688105621021</v>
+        <v>0.01245102099178546</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1223949072986376</v>
+        <v>0.1364896841652881</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0224351241363357</v>
+        <v>0.01245323837435672</v>
       </c>
       <c r="G242" t="n">
-        <v>0.132240953742693</v>
+        <v>0.137265193734409</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02105980325188203</v>
+        <v>0.03103895422291941</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1289601783514851</v>
+        <v>0.1365249851769493</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04737386312659883</v>
+        <v>0.03282192861018185</v>
       </c>
       <c r="M242" t="n">
-        <v>0.129885855147725</v>
+        <v>0.1364118282115769</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07401168702492278</v>
+        <v>0.01245323837435672</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1230903329082889</v>
+        <v>0.137265193734409</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02345775742647071</v>
+        <v>0.01265575839430157</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1329880777751376</v>
+        <v>0.13804070330353</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02084010385038136</v>
+        <v>0.03103125058204279</v>
       </c>
       <c r="K243" t="n">
-        <v>0.129688766929742</v>
+        <v>0.1372963127768191</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04715655274231265</v>
+        <v>0.03268707696116213</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1306196735383901</v>
+        <v>0.1371825165065576</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07244778842825739</v>
+        <v>0.01265575839430157</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1237857585179403</v>
+        <v>0.13804070330353</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02248184784221543</v>
+        <v>0.01265860041123976</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1337352018075822</v>
+        <v>0.1388162128726509</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0207224757753796</v>
+        <v>0.03022230198833042</v>
       </c>
       <c r="K244" t="n">
-        <v>0.130417355507999</v>
+        <v>0.1380676403766888</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04694240441694175</v>
+        <v>0.0328607205795523</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1313534919290552</v>
+        <v>0.1379532048015383</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07105599293288917</v>
+        <v>0.01265860041123976</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1244811841275916</v>
+        <v>0.1388162128726509</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02350744084023413</v>
+        <v>0.01256178378479107</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1344823258400268</v>
+        <v>0.1395917224417719</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02060696782462428</v>
+        <v>0.03051210075798802</v>
       </c>
       <c r="K245" t="n">
-        <v>0.131145944086256</v>
+        <v>0.1388389679765586</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04593146605837567</v>
+        <v>0.03304309639454928</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1320873103197203</v>
+        <v>0.1387238930965189</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06883710820549327</v>
+        <v>0.01256178378479107</v>
       </c>
       <c r="O245" t="n">
-        <v>0.125176609737243</v>
+        <v>0.1395917224417719</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02353458187719112</v>
+        <v>0.01256532787457534</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1352294498724714</v>
+        <v>0.1403672320108929</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02039362879586286</v>
+        <v>0.02970063920722124</v>
       </c>
       <c r="K246" t="n">
-        <v>0.131874532664513</v>
+        <v>0.1396102955764284</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04582378557450381</v>
+        <v>0.03253444133534988</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1328211287103854</v>
+        <v>0.1394945813914996</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06819194191274497</v>
+        <v>0.01256532787457534</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1258720353468943</v>
+        <v>0.1403672320108929</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02356331640975064</v>
+        <v>0.01256925204021232</v>
       </c>
       <c r="G247" t="n">
-        <v>0.135976573904916</v>
+        <v>0.1411427415800138</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02048250748684288</v>
+        <v>0.02968790965223569</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1326031212427699</v>
+        <v>0.1403816231762981</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04551941087321568</v>
+        <v>0.03213499233115102</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1335549471010505</v>
+        <v>0.1402652696864802</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06642130172131949</v>
+        <v>0.01256925204021232</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1265674609565457</v>
+        <v>0.1411427415800138</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02159368989457699</v>
+        <v>0.0125735756413218</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1367236979373606</v>
+        <v>0.1419182511491348</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0202736526953118</v>
+        <v>0.02927390440923694</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1333317098210269</v>
+        <v>0.1411529507761679</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04501838986240067</v>
+        <v>0.0323449863111494</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1342887654917156</v>
+        <v>0.1410359579814609</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06492599529789189</v>
+        <v>0.0125735756413218</v>
       </c>
       <c r="O248" t="n">
-        <v>0.127262886566197</v>
+        <v>0.1419182511491348</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02262574778833443</v>
+        <v>0.0125783180375236</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1374708219698052</v>
+        <v>0.1426937607182557</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02016711321901712</v>
+        <v>0.02895861579443074</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1340602983992839</v>
+        <v>0.1419242783760377</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04432077044994828</v>
+        <v>0.03186466020454209</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1350225838823808</v>
+        <v>0.1418066462764416</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06230683030913753</v>
+        <v>0.0125783180375236</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1279583121758484</v>
+        <v>0.1426937607182557</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02165953554768724</v>
+        <v>0.01258349858843748</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1382179460022498</v>
+        <v>0.1434692702873767</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02006293785570636</v>
+        <v>0.02884203612402261</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1347888869775409</v>
+        <v>0.1426956059759074</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04422660054374794</v>
+        <v>0.03129425094052574</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1357564022730459</v>
+        <v>0.1425773345714222</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06066461442173154</v>
+        <v>0.01258349858843748</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1286537377854997</v>
+        <v>0.1434692702873767</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02169509862929973</v>
+        <v>0.01258913665368325</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1389650700346944</v>
+        <v>0.1442447798564976</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01996117540312696</v>
+        <v>0.02842415771421816</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1355174755557979</v>
+        <v>0.1434669335757772</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04413592805168917</v>
+        <v>0.03213399544829731</v>
       </c>
       <c r="M251" t="n">
-        <v>0.136490220663711</v>
+        <v>0.1433480228664029</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05950015530234914</v>
+        <v>0.01258913665368325</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1293491633951511</v>
+        <v>0.1442447798564976</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02273248248983612</v>
+        <v>0.01269525159288068</v>
       </c>
       <c r="G252" t="n">
-        <v>0.139712194067139</v>
+        <v>0.1450202894256186</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01996187465902646</v>
+        <v>0.02820497288122314</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1362460641340548</v>
+        <v>0.144238261175647</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04364880088166131</v>
+        <v>0.03088413065705359</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1372240390543761</v>
+        <v>0.1441187111613835</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05831426061766554</v>
+        <v>0.01269525159288068</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1300445890048024</v>
+        <v>0.1450202894256186</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02277173258596073</v>
+        <v>0.01260186276564956</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1404593180995836</v>
+        <v>0.1457957989947395</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01966508442115236</v>
+        <v>0.02778447394124312</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1369746527123118</v>
+        <v>0.1450095887755168</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04296526694155395</v>
+        <v>0.03084489349599145</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1379578574450412</v>
+        <v>0.1448893994563642</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05660773803435598</v>
+        <v>0.01260186276564956</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1307400146144538</v>
+        <v>0.1457957989947395</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02381289437433782</v>
+        <v>0.0126089895316097</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1412064421320282</v>
+        <v>0.1465713085638605</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01977085348725213</v>
+        <v>0.02746265321048369</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1377032412905688</v>
+        <v>0.1457809163753865</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04248537413925649</v>
+        <v>0.03071652089430782</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1386916758357063</v>
+        <v>0.1456600877513449</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05438139521909557</v>
+        <v>0.0126089895316097</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1314354402241051</v>
+        <v>0.1465713085638605</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02185601331163167</v>
+        <v>0.01251665125038087</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1419535661644727</v>
+        <v>0.1473468181329814</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01957923065507326</v>
+        <v>0.02723950300515049</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1384318298688258</v>
+        <v>0.1465522439752563</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04250917038265833</v>
+        <v>0.03089924978119951</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1394254942263714</v>
+        <v>0.1464307760463255</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05213603983855958</v>
+        <v>0.01251665125038087</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1321308658337565</v>
+        <v>0.1473468181329814</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02390113485450655</v>
+        <v>0.01272486728158288</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1427006901969173</v>
+        <v>0.1481223277021024</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01949026472236329</v>
+        <v>0.02631501564144917</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1391604184470827</v>
+        <v>0.1473235715751261</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04233670357964903</v>
+        <v>0.03149331708586323</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1401593126170365</v>
+        <v>0.1472014643413062</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05107247955942323</v>
+        <v>0.01272486728158288</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1328262914434078</v>
+        <v>0.1481223277021024</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02294830445962674</v>
+        <v>0.01273365698483551</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1434478142293619</v>
+        <v>0.1488978372712234</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01950400448686966</v>
+        <v>0.02648918343558535</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1398890070253397</v>
+        <v>0.1480948991749958</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04136802163811798</v>
+        <v>0.03119895973749598</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1408931310077016</v>
+        <v>0.1479721526362869</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04869152204836164</v>
+        <v>0.01273365698483551</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1335217170530592</v>
+        <v>0.1488978372712234</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02199756758365651</v>
+        <v>0.01274303971975854</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1441949382618065</v>
+        <v>0.1496733468403443</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01932049874633991</v>
+        <v>0.02626199870376467</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1406175956035967</v>
+        <v>0.1488662267748656</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04160317246595463</v>
+        <v>0.03021641466529457</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1416269493983668</v>
+        <v>0.1487428409312675</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04779397497205007</v>
+        <v>0.01274303971975854</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1342171426627105</v>
+        <v>0.1496733468403443</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02204896968326017</v>
+        <v>0.01275303484597178</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1449420622942511</v>
+        <v>0.1504488564094653</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01923979629852149</v>
+        <v>0.02603345376219274</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1413461841818537</v>
+        <v>0.1496375543747354</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04074220397104852</v>
+        <v>0.03084591879845588</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1423607677890319</v>
+        <v>0.1495135292262482</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04538064599716374</v>
+        <v>0.01275303484597178</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1349125682723619</v>
+        <v>0.1504488564094653</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02410255621510195</v>
+        <v>0.01276366172309498</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1456891863266957</v>
+        <v>0.1512243659785862</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01906194594116192</v>
+        <v>0.02550354092707521</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1420747727601107</v>
+        <v>0.1504088819746051</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04028516406128901</v>
+        <v>0.03118770906617674</v>
       </c>
       <c r="M260" t="n">
-        <v>0.143094586179697</v>
+        <v>0.1502842175212288</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04375234279037776</v>
+        <v>0.01276366172309498</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1356079938820132</v>
+        <v>0.1512243659785862</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02415837263584616</v>
+        <v>0.01257493971074797</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1464363103591403</v>
+        <v>0.1519998755477072</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01898699647200872</v>
+        <v>0.02467225251461769</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1428033613383676</v>
+        <v>0.1511802095744749</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0403321006445656</v>
+        <v>0.03104202239765402</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1438284045703621</v>
+        <v>0.1510549058162095</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04160987301836749</v>
+        <v>0.01257493971074797</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1363034194916646</v>
+        <v>0.1519998755477072</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02321646440215706</v>
+        <v>0.01268688816855054</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1471834343915849</v>
+        <v>0.1527753851168281</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01901499668880932</v>
+        <v>0.02493958084102582</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1435319499166246</v>
+        <v>0.1519515371743447</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03988306162876776</v>
+        <v>0.03110909572208448</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1445622229610272</v>
+        <v>0.1518255941111902</v>
       </c>
       <c r="N262" t="n">
-        <v>0.039654044347808</v>
+        <v>0.01268688816855054</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1369988451013159</v>
+        <v>0.1527753851168281</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02427687697069892</v>
+        <v>0.01279952645612245</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1479305584240295</v>
+        <v>0.1535508946859491</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01904599538931129</v>
+        <v>0.02460551822250523</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1442605384948816</v>
+        <v>0.1527228647742145</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03983809492178494</v>
+        <v>0.0307891659686651</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1452960413516923</v>
+        <v>0.1525962824061708</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03868566444537452</v>
+        <v>0.01279952645612245</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1376942707109673</v>
+        <v>0.1535508946859491</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02233965579813604</v>
+        <v>0.01261287393308351</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1486776824564741</v>
+        <v>0.15432640425507</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01898004137126207</v>
+        <v>0.02377005697526152</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1449891270731386</v>
+        <v>0.1534941923740842</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0388972484315066</v>
+        <v>0.03038247006659273</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1460298597423574</v>
+        <v>0.1533669707011515</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03630554097774236</v>
+        <v>0.01261287393308351</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1383896963206186</v>
+        <v>0.15432640425507</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8263518223330697</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06610814578664558</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08379055466999208</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.03379055466999208</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008740133404970225</v>
+        <v>0.01327902538943776</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002253334545342003</v>
+        <v>0.0008581209728205294</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000775509569120955</v>
+        <v>0.0006388032867619977</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005644895771706376</v>
+        <v>0.001774645492631607</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.00077132759986977</v>
+        <v>0.000775509569120955</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.004999999999999977</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008866459627329201</v>
+        <v>0.0007785959170952121</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.002253334545342003</v>
+        <v>0.008902498016146676</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000775509569120955</v>
+        <v>0.0007701009858203006</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004155609681846868</v>
+        <v>0.001820654450451563</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00155101913824191</v>
+        <v>0.001277606573523995</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01149511979898016</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00154265519973954</v>
+        <v>0.00130336956521739</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01518328401528329</v>
+        <v>0.008861642239812284</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001541376589961321</v>
+        <v>0.001545541578269901</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004155609681846868</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00155101913824191</v>
+        <v>0.001204433921653036</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006163133883962141</v>
+        <v>0.002882107318813658</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002326528707362865</v>
+        <v>0.001916409860285993</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01691295354493552</v>
+        <v>0.004932480057182595</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00231398279960931</v>
+        <v>0.002326528707362865</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02318289358796122</v>
+        <v>0.0126057732118918</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002312064884941982</v>
+        <v>0.002318312367404851</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.006163133883962141</v>
+        <v>0.02444679679114425</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002326528707362865</v>
+        <v>0.002310302957460902</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007732215626135346</v>
+        <v>0.004036986463827358</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00310203827648382</v>
+        <v>0.002555213147047991</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02099999999999999</v>
+        <v>0.00616000391838032</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003071914800175668</v>
+        <v>0.00310203827648382</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03023775749853003</v>
+        <v>0.01672941154888918</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003082753179922643</v>
+        <v>0.003091083156539801</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.007732215626135346</v>
+        <v>0.03136267312419716</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00310203827648382</v>
+        <v>0.003080403943281203</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004344565217391303</v>
+        <v>0.01077041815390852</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009119163382814037</v>
+        <v>0.005279798771413213</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003877547845604775</v>
+        <v>0.003194016433809988</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02392390617919266</v>
+        <v>0.007635963918855966</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00385663799934885</v>
+        <v>0.003877547845604775</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03577989406892401</v>
+        <v>0.02076119102318319</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003853441474903304</v>
+        <v>0.003863853945674752</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.009119163382814037</v>
+        <v>0.03704600139589398</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003877547845604775</v>
+        <v>0.003850504929101503</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.006605051127491782</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004344565217391303</v>
+        <v>0.003832819720571986</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02708141184656501</v>
+        <v>0.008842757456064811</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00462796559921862</v>
+        <v>0.004653057414725731</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04234132162107723</v>
+        <v>0.02402974540715277</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004624129769883964</v>
+        <v>0.004636624734809702</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.04370479933577276</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004344565217391303</v>
+        <v>0.004620605914921804</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01111067062818714</v>
+        <v>0.008007250417983593</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005428566983846685</v>
+        <v>0.004471623007333983</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02978542681768101</v>
+        <v>0.01026278192746213</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00539929319908839</v>
+        <v>0.005428566983846685</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04755405847692373</v>
+        <v>0.02746370847317675</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005394818064864625</v>
+        <v>0.005409395523944652</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01111067062818714</v>
+        <v>0.04844708467337161</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005428566983846685</v>
+        <v>0.005390706900742104</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01190809831596836</v>
+        <v>0.009480903528809211</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00620407655296764</v>
+        <v>0.005110426294095981</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03218803947769247</v>
+        <v>0.0111784347305032</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00617062079895816</v>
+        <v>0.00620407655296764</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05215012295839788</v>
+        <v>0.03079171399363395</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006165506359845286</v>
+        <v>0.006182166313079602</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01190809831596836</v>
+        <v>0.05228087513822832</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00620407655296764</v>
+        <v>0.006160807886562405</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0127042689126854</v>
+        <v>0.01102051734588918</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006979586122088595</v>
+        <v>0.005749229580857979</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03434133821175137</v>
+        <v>0.01227211326264328</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00694194839882793</v>
+        <v>0.006979586122088595</v>
       </c>
       <c r="L74" s="172" t="n">
+        <v>0.03314239574090319</v>
+      </c>
+      <c r="M74" s="170" t="n">
+        <v>0.006954937102214553</v>
+      </c>
+      <c r="N74" s="171" t="n">
         <v>0.05610983896043342</v>
       </c>
-      <c r="M74" s="170" t="n">
-        <v>0.007107080311980365</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.0127042689126854</v>
-      </c>
       <c r="O74" s="172" t="n">
-        <v>0.006979586122088595</v>
+        <v>0.006895978916575007</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01321306234126889</v>
+        <v>0.01262059875514406</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00775509569120955</v>
+        <v>0.006388032867619977</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
+        <v>0.0132262149213377</v>
+      </c>
+      <c r="K75" s="171" t="n">
+        <v>0.00775509569120955</v>
+      </c>
+      <c r="L75" s="172" t="n">
         <v>0.03509600768737309</v>
       </c>
-      <c r="K75" s="171" t="n">
-        <v>0.007334145948429962</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.05731013240170868</v>
-      </c>
       <c r="M75" s="170" t="n">
-        <v>0.007706882949806607</v>
+        <v>0.007807316654780284</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01321306234126889</v>
+        <v>0.05802196070087207</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00775509569120955</v>
+        <v>0.007701009858203007</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.01427565464249437</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008740133404970225</v>
+        <v>0.007026836154381975</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03669309121338934</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00848460359856747</v>
+        <v>0.008740133404970225</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06018211383003441</v>
+        <v>0.03587690346383385</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008477571244787268</v>
+        <v>0.008500478680484454</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.06058126178175388</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008740133404970225</v>
+        <v>0.008471110844023307</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01433762839042992</v>
+        <v>0.01598019189386068</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007665639441143971</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01449202337003425</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009306114829451461</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03840706453164644</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009255931198437239</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06210760669585741</v>
+        <v>0.03718023887813388</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009248259539767928</v>
+        <v>0.009273249469619403</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01433762839042992</v>
+        <v>0.06239337771400894</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009306114829451461</v>
+        <v>0.009241211829843608</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01482319609043925</v>
+        <v>0.01772871739516355</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008304442727905969</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01494632702924109</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01008162439857242</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03970051932270763</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01002725879830701</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06408647339525797</v>
+        <v>0.03885733634538935</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01001894783474859</v>
+        <v>0.01004602025875435</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01482319609043925</v>
+        <v>0.06505821646230336</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01008162439857242</v>
+        <v>0.01001131281566391</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01540667108852181</v>
+        <v>0.0195157380323235</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008943246014667967</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01539204682341899</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01085713396769337</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04067305262086218</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01079858639817678</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06651857632431668</v>
+        <v>0.04010795907885603</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01078963612972925</v>
+        <v>0.0108187910478893</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01540667108852181</v>
+        <v>0.06617568599130347</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01085713396769337</v>
+        <v>0.01078141380148421</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01568762612991555</v>
+        <v>0.02133576069126112</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009582049301429965</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01592898668655082</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01163264353681433</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04222426146039948</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01156991399804655</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06830377787911385</v>
+        <v>0.04143187029178969</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01156032442470991</v>
+        <v>0.01159156183702425</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01568762612991555</v>
+        <v>0.06824569426567545</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01163264353681433</v>
+        <v>0.01155151478730451</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01636563395985841</v>
+        <v>0.0231832922578969</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01022085258819196</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01645695055261959</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01240815310593528</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04345374287560874</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01234124159791632</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.0705419404557297</v>
+        <v>0.04242883319744611</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01233101271969057</v>
+        <v>0.0123643326261592</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01636563395985841</v>
+        <v>0.07056814925008537</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01240815310593528</v>
+        <v>0.01232161577312481</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01664026732358835</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01077041815390852</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0171757423556082</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01318366267505624</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04436109390077936</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01311256919778609</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.07213292645024494</v>
+        <v>0.04379861100908103</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01310170101467123</v>
+        <v>0.01313710341529416</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01664026732358835</v>
+        <v>0.07264295890919958</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01318366267505624</v>
+        <v>0.01309171675894511</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01721109896634333</v>
+        <v>0.02750251866276988</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01149845916171596</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01748516602949962</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01395917224417719</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04524591157020058</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01388389679765586</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07367659825873973</v>
+        <v>0.04534096693995018</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01387238930965189</v>
+        <v>0.01390987420442911</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01721109896634333</v>
+        <v>0.07497003120768431</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01395917224417719</v>
+        <v>0.01386181774476541</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01757770163336127</v>
+        <v>0.03027533807271749</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01213726244847796</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01808502550827677</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01473468181329815</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04670779291816168</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01465522439752563</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07607281827729451</v>
+        <v>0.04655566420330934</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01464307760463255</v>
+        <v>0.01468264499356405</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01757770163336127</v>
+        <v>0.07664927411020567</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01473468181329815</v>
+        <v>0.01463191873058571</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01813964806988017</v>
+        <v>0.03265942546998277</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01277606573523995</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0186751247259226</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.0155101913824191</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04754633497895197</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.0154265519973954</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07822144890198962</v>
+        <v>0.04754246601241427</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01541376589961321</v>
+        <v>0.01545541578269901</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01813964806988017</v>
+        <v>0.07788059558142985</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0155101913824191</v>
+        <v>0.01540201971640601</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01859651102113792</v>
+        <v>0.03379055466999208</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01327902538943776</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01905526761642005</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01628570095154006</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04896113478686082</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01619787959726517</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.08032235252890563</v>
+        <v>0.04860113558052073</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01618445419459387</v>
+        <v>0.01622818657183396</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01859651102113792</v>
+        <v>0.07966390358602321</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01628570095154006</v>
+        <v>0.01617212070222631</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01904786323237251</v>
+        <v>0.03478216231389442</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01405367230876395</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01952525811375207</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01706121052066101</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05015178937617742</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01696920719713494</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.08127539155412272</v>
+        <v>0.05023143612088449</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01695514248957454</v>
+        <v>0.01700095736096891</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01904786323237251</v>
+        <v>0.08229910608865171</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01706121052066101</v>
+        <v>0.01694222168804661</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01939327744882188</v>
+        <v>0.03554322754571864</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01469247559552595</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02008490015190161</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01783672008978196</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05111789578119116</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01774053479700471</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08298042837372138</v>
+        <v>0.05093313084676124</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0177258307845552</v>
+        <v>0.01777372815010386</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01939327744882188</v>
+        <v>0.08388611105398169</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01783672008978196</v>
+        <v>0.01771232267386692</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01993232641572397</v>
+        <v>0.03625549502089356</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01533127888228794</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02053399766485156</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01861222965890292</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05195905103619133</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01851186239687448</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08523732538378215</v>
+        <v>0.05210598297140684</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01849651907953586</v>
+        <v>0.01854649893923881</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01993232641572397</v>
+        <v>0.08542482644667948</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01861222965890292</v>
+        <v>0.01848242365968722</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02036458287831677</v>
+        <v>0.03692121488394522</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01597008216904994</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02077235458658494</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01938773922802388</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05327485217546721</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01928318999674425</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08604594498038515</v>
+        <v>0.05344975570807697</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01926720737451652</v>
+        <v>0.01931926972837376</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02036458287831677</v>
+        <v>0.08671516023141107</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01938773922802388</v>
+        <v>0.01925252464550752</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02068961958183817</v>
+        <v>0.03754263727939971</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01660888545581194</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02139977485108464</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02016324879714483</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05386489623330809</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02005451759661402</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.0878061495596108</v>
+        <v>0.05456421227002745</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02003789566949718</v>
+        <v>0.02009204051750871</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02068961958183817</v>
+        <v>0.08835702037284276</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02016324879714483</v>
+        <v>0.02002262563132782</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02110700927152617</v>
+        <v>0.03812201235178312</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01724768874257394</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0217160623923336</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02093875836626579</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05482878024400331</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02082584519648379</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08991780151753981</v>
+        <v>0.05524911587051398</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02080858396447784</v>
+        <v>0.02086481130664366</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02110700927152617</v>
+        <v>0.08975031483564083</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02093875836626579</v>
+        <v>0.02079272661714812</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02151632469261869</v>
+        <v>0.03866159024562148</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01788649202933593</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02202102114431478</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02171426793538674</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05626610124184211</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02159717279635356</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09128076325025214</v>
+        <v>0.05610422972279236</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0215792722594585</v>
+        <v>0.02163758209577861</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02151632469261869</v>
+        <v>0.09119495158447138</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02171426793538674</v>
+        <v>0.02156282760296842</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0221171385903537</v>
+        <v>0.03916362110544085</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01852529531609793</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02261445504101116</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.0224897775045077</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05707645626111385</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02236850039622333</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.0921948971538285</v>
+        <v>0.05702931704011827</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02234996055443916</v>
+        <v>0.02241035288491356</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0221171385903537</v>
+        <v>0.09279083858400061</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0224897775045077</v>
+        <v>0.02233292858878872</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02250902370996913</v>
+        <v>0.03963035507576734</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01916409860285993</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0227961680164056</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02326528707362865</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05795944233610781</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.0231398279960931</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09346006562434916</v>
+        <v>0.05792414103574758</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02312064884941982</v>
+        <v>0.02318312367404851</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02250902370996913</v>
+        <v>0.09363788379889471</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02326528707362865</v>
+        <v>0.02310302957460902</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02279155279670297</v>
+        <v>0.04006404230112697</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01980290188962193</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0232659640044811</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02404079664274961</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05841465650111333</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02391115559596287</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.09547613105789449</v>
+        <v>0.05908846492293601</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02389133714440048</v>
+        <v>0.02395589446318346</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02279155279670297</v>
+        <v>0.09513599519381993</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02404079664274961</v>
+        <v>0.02387313056042932</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02306429859579311</v>
+        <v>0.04046693292604584</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02044170517638393</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02372364693922056</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02481630621187056</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05934169579041962</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02468248319583264</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.09654295585054484</v>
+        <v>0.05952205191493928</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02466202543938114</v>
+        <v>0.02472866525231841</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02306429859579311</v>
+        <v>0.09698508073344259</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02481630621187056</v>
+        <v>0.02464323154624962</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02352683385247754</v>
+        <v>0.04084127709504998</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02108050846314592</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.024069020754607</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02559181578099151</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06044015723831603</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02545381079570241</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.09786040239838079</v>
+        <v>0.06042466522501314</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0254327137343618</v>
+        <v>0.02550143604145336</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02352683385247754</v>
+        <v>0.09758504838242865</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02559181578099151</v>
+        <v>0.02541333253206992</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02377873131199422</v>
+        <v>0.04118932495266548</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02171931174990792</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02430188938462327</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02636732535011247</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06120963787909192</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02622513839557218</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.09822833309748258</v>
+        <v>0.06139606806641343</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02620340202934246</v>
+        <v>0.02627420683058831</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02377873131199422</v>
+        <v>0.09923580610544452</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02636732535011247</v>
+        <v>0.02618343351789022</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02411956371958107</v>
+        <v>0.0415133266434184</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02235811503666992</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02472205676325236</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02714283491923343</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06144973474703647</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02699646599544195</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.09964661034393058</v>
+        <v>0.06173602365239586</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02697409032432313</v>
+        <v>0.02704697761972326</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02411956371958107</v>
+        <v>0.1005372618671564</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02714283491923343</v>
+        <v>0.02695353450371053</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02464890382047608</v>
+        <v>0.0418155323118348</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02299691832343191</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02482932682447721</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02791834448835438</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.0625600448764391</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02776779359531172</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1013150965338053</v>
+        <v>0.06274429519621619</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02774477861930378</v>
+        <v>0.02781974840885821</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02464890382047608</v>
+        <v>0.1015893236322303</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02791834448835438</v>
+        <v>0.02772363548953082</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02486632435991716</v>
+        <v>0.04209819210244076</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02363572161019391</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02532350350228076</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02869385405747533</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06344016530158908</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02853912119518149</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.101933654063187</v>
+        <v>0.06312064591113017</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02851546691428444</v>
+        <v>0.02859251919799316</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02486632435991716</v>
+        <v>0.1019918993653326</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02869385405747533</v>
+        <v>0.02849373647535112</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02527139808314227</v>
+        <v>0.04236355615976233</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02427452489695591</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02560439073064595</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02946936362659629</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06388969305677564</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02931044879505126</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1033021453281561</v>
+        <v>0.06436483901039353</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02928615520926511</v>
+        <v>0.02936528998712811</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02527139808314227</v>
+        <v>0.1036448970311294</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02946936362659629</v>
+        <v>0.02926383746117142</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02536369773538937</v>
+        <v>0.0426138746283256</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02491332818371791</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02587179244355571</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03024487319571724</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06410822517628811</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03008177639492103</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1043204327247931</v>
+        <v>0.06447663770726206</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03005684350424577</v>
+        <v>0.03013806077626306</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02536369773538937</v>
+        <v>0.1036482245942871</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03024487319571724</v>
+        <v>0.03003393844699172</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0257427960618964</v>
+        <v>0.0428513976526566</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02555213147047991</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.026025512574993</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0310203827648382</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06509535869441588</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.0308531039947908</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1052883786491783</v>
+        <v>0.06555580521499152</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03082753179922643</v>
+        <v>0.03091083156539801</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0257427960618964</v>
+        <v>0.1050017900194717</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0310203827648382</v>
+        <v>0.03080403943281203</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02590826580790132</v>
+        <v>0.04307837537728141</v>
       </c>
       <c r="G106" t="n">
+        <v>0.0261909347572419</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02626535505894076</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03179589233395916</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06545069064544815</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03162443159466057</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1051058454973921</v>
+        <v>0.06570210474683769</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03159822009420709</v>
+        <v>0.03168360235453296</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02590826580790132</v>
+        <v>0.1057055012713494</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03179589233395916</v>
+        <v>0.03157414041863232</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02635967971864207</v>
+        <v>0.04329705794672612</v>
       </c>
       <c r="G107" t="n">
+        <v>0.0268297380440039</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02639112382938191</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03257140190308011</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06607381806367424</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03239575919453034</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1065726956655149</v>
+        <v>0.06631529951605625</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03236890838918775</v>
+        <v>0.03245637314366791</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02635967971864207</v>
+        <v>0.1069592663145865</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03257140190308011</v>
+        <v>0.03234424140445263</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02649661053935662</v>
+        <v>0.04350969550551678</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0274685413307659</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02670262282029942</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03334691147220106</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.06636433798338351</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03316708679440011</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1067887915496271</v>
+        <v>0.06699515273590309</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03313959668416841</v>
+        <v>0.03322914393280287</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02649661053935662</v>
+        <v>0.1076629931138493</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03334691147220106</v>
+        <v>0.03311434239027293</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02661863101528289</v>
+        <v>0.04371853819817944</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0281073446175279</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02699965596567623</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03412242104132202</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.06712184743886518</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03393841439426988</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1072539955458091</v>
+        <v>0.06744142761963384</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03391028497914907</v>
+        <v>0.03400191472193782</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02661863101528289</v>
+        <v>0.1082165896338038</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03412242104132202</v>
+        <v>0.03388444337609323</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02702531389165887</v>
+        <v>0.04392582976777484</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02874614790428989</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02718202719949528</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03489793061044297</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.06784594346440859</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03470974199413965</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1080681700501412</v>
+        <v>0.06745388738050431</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03468097327412973</v>
+        <v>0.03477468551107276</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02702531389165887</v>
+        <v>0.1085199638391162</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03489793061044297</v>
+        <v>0.03465454436191353</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02711623191372248</v>
+        <v>0.04413221146058516</v>
       </c>
       <c r="G111" t="n">
+        <v>0.0293849511910519</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02714954045573947</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03567344017956393</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.06773622309430308</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03548106959400942</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1094311774587039</v>
+        <v>0.0677322952317703</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03545166156911039</v>
+        <v>0.03554745630020771</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02711623191372248</v>
+        <v>0.108673023694453</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03567344017956393</v>
+        <v>0.03542464534773383</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02719095782671166</v>
+        <v>0.04433707193879721</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03002375447781389</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02730199966839182</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03644894974868489</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.0680922833628379</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03625239719387919</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1089428801675776</v>
+        <v>0.0682764143866875</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03622234986409106</v>
+        <v>0.03632022708934266</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02719095782671166</v>
+        <v>0.1088756771644801</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03644894974868489</v>
+        <v>0.03619474633355413</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0274490643758644</v>
+        <v>0.04454032219454595</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03066255776457589</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02753920877143522</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03722445931780585</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.06831372130430236</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03702372479374896</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1095031405728425</v>
+        <v>0.06898600805851166</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03699303815907171</v>
+        <v>0.03709299787847761</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0274490643758644</v>
+        <v>0.1097278322138637</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03722445931780585</v>
+        <v>0.03696484731937443</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0274901243064186</v>
+        <v>0.04474187321996636</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03130136105133789</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02776097169885261</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03799996888692679</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.06870013395298574</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03779505239361873</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1104118210705793</v>
+        <v>0.0692608394604986</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03776372645405237</v>
+        <v>0.03786576866761256</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0274901243064186</v>
+        <v>0.1101293968072703</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03799996888692679</v>
+        <v>0.03773494830519473</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02761371036361228</v>
+        <v>0.04494163600719337</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03194016433809988</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02766709238462695</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03877547845604775</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.06885111834317742</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.0385663799934885</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1107687840568682</v>
+        <v>0.06930067180590405</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03853441474903303</v>
+        <v>0.03863853945674751</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02761371036361228</v>
+        <v>0.1110802789093658</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03877547845604775</v>
+        <v>0.03850504929101504</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02771939529268333</v>
+        <v>0.04513952154836199</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03257896762486188</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0279573747627412</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03955098802516871</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.06966627150916654</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03933770759335827</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1112738919277896</v>
+        <v>0.06950526830798376</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0393051030440137</v>
+        <v>0.03941131024588247</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02771939529268333</v>
+        <v>0.1108803864848165</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03955098802516871</v>
+        <v>0.03927515027683533</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02800675183886972</v>
+        <v>0.04533544083560715</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03321777091162387</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02793162276717824</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04032649759428966</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.0693451904852426</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04010903519322804</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1116270070794239</v>
+        <v>0.06967439217999347</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04007579133899436</v>
+        <v>0.04018408103501742</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02800675183886972</v>
+        <v>0.1106296274982888</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04032649759428966</v>
+        <v>0.04004525126265563</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02807535274740941</v>
+        <v>0.0455293048610638</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03385657419838588</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02808964033192107</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04110200716341061</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.0699874723056948</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04088036279309781</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1112279919078515</v>
+        <v>0.069707806635189</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04084647963397502</v>
+        <v>0.04095685182415237</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02807535274740941</v>
+        <v>0.1112279099144485</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04110200716341061</v>
+        <v>0.04081535224847593</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02812477076354032</v>
+        <v>0.04572102461686692</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03449537748514787</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02803123139095262</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04187751673253157</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.06989271400481242</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04165169039296758</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1119767088091527</v>
+        <v>0.06950527488682606</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04161716792895568</v>
+        <v>0.04172962261328732</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02812477076354032</v>
+        <v>0.1117751416979622</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04187751673253157</v>
+        <v>0.04158545323429624</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.04591051109515148</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03513418077190987</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02816435282862557</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04265302630165253</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.0701920153747462</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04242301799283735</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.1111730201794082</v>
-      </c>
       <c r="M120" t="n">
-        <v>0.04238785622393634</v>
+        <v>0.04250239340242227</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04265302630165253</v>
+        <v>0.04235555422011653</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02816435157347852</v>
+        <v>0.04609767528805239</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03577298405867187</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0280643514086141</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04342853587077348</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.06959046517620127</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04319434559270712</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.06999142563244781</v>
       </c>
       <c r="M121" t="n">
-        <v>0.043158544518917</v>
+        <v>0.04327516419155721</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02816435157347852</v>
+        <v>0.1117160852257158</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04342853587077348</v>
+        <v>0.04312565520593684</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02796081047418346</v>
+        <v>0.04628242818770469</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03641178734543387</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02796035021073831</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04420404543989444</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.06949042119603283</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04396567319257689</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1112168028850864</v>
+        <v>0.06988328309947706</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04392923281389766</v>
+        <v>0.04404793498069217</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02796081047418346</v>
+        <v>0.1120136677787127</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04420404543989444</v>
+        <v>0.04389575619175714</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0281505790583914</v>
+        <v>0.04646468078624327</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03705059063219587</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02804880933207207</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04497955500901539</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.07018286028092627</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04473700079244666</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1121017991756269</v>
+        <v>0.06974956886730094</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04469992110887832</v>
+        <v>0.04482070576982712</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0281505790583914</v>
+        <v>0.1111795124567646</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04497955500901539</v>
+        <v>0.04466585717757744</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02813385075127257</v>
+        <v>0.04664434407580312</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03768939391895786</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02802997664794073</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04575506457813634</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.06966909697803694</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04550832839231643</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1119740018509276</v>
+        <v>0.06979141170143716</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04547060940385898</v>
+        <v>0.04559347655896206</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02813385075127257</v>
+        <v>0.1110159277946721</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04575506457813634</v>
+        <v>0.04543595816339774</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02791081897799717</v>
+        <v>0.0468213290485192</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03832819720571986</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02810410003366966</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0465305741472573</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07014914771499081</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.0462796559921862</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1112334512183765</v>
+        <v>0.06940977261890585</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04624129769883965</v>
+        <v>0.04636624734809702</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02791081897799717</v>
+        <v>0.1112237968192227</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0465305741472573</v>
+        <v>0.04620605914921803</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02798167716373545</v>
+        <v>0.04699554669652647</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03896700049248186</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02797142736458426</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04730608371637825</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07002302891941387</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04705098359205597</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1113801875853615</v>
+        <v>0.06960561263672732</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0470119859938203</v>
+        <v>0.04713901813723197</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02798167716373545</v>
+        <v>0.1113040025572039</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04730608371637825</v>
+        <v>0.04697616013503834</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02804661873365763</v>
+        <v>0.04716690801195991</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03960580377924385</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0278322065160099</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04808159328549921</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.06949075701893201</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04782231119192574</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1113142512592706</v>
+        <v>0.0691798927719218</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04778267428880096</v>
+        <v>0.04791178892636692</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02804661873365763</v>
+        <v>0.1109574280354028</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04808159328549921</v>
+        <v>0.04774626112085864</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0278058371129339</v>
+        <v>0.04733532398695444</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04024460706600586</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02798668536327197</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04885710285462017</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.06955234844117125</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04859363879179551</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1114356825474917</v>
+        <v>0.06923357404150951</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04855336258378162</v>
+        <v>0.04868455971550187</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0278058371129339</v>
+        <v>0.1113849562806071</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04885710285462017</v>
+        <v>0.04851636210667894</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02795952572673452</v>
+        <v>0.04750070561364506</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04088341035276785</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02773511178169581</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04963261242374112</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.06970781961375758</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04936496639166528</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1108445217574128</v>
+        <v>0.06946761746251071</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04932405087876229</v>
+        <v>0.04945733050463682</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02795952572673452</v>
+        <v>0.1113874703196039</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04963261242374112</v>
+        <v>0.04928646309249924</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0278078780002297</v>
+        <v>0.04766296388416669</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04152221363952985</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02777773364660685</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05040812199286208</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.06955718696431692</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05013629399153505</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.111740809196422</v>
+        <v>0.06918298405194565</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05009473917374294</v>
+        <v>0.05023010129377177</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0278078780002297</v>
+        <v>0.1107658531791809</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05040812199286208</v>
+        <v>0.05005656407831954</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02785108735858967</v>
+        <v>0.04782200979065433</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04216101692629184</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02771479883333043</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05118363156198303</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.06980046692047528</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05090762159140482</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1107245851719071</v>
+        <v>0.06858063482683452</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05086542746872361</v>
+        <v>0.05100287208290671</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02785108735858967</v>
+        <v>0.1100209878861251</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05118363156198303</v>
+        <v>0.05082666506413985</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02778934722698465</v>
+        <v>0.04797775432524293</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04279982021305384</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02764655521719195</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05195914113110398</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0692376759098586</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0516789491912746</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1113958899912561</v>
+        <v>0.06856153080419761</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05163611576370427</v>
+        <v>0.05177564287204167</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02778934722698465</v>
+        <v>0.1097537574672242</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05195914113110398</v>
+        <v>0.05159676604996014</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02762285103058484</v>
+        <v>0.04813010848006746</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04343862349981584</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02747325067351676</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05273465070022494</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.06916883036009289</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05245027679114436</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1109547639618569</v>
+        <v>0.06832663300105515</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05240680405868493</v>
+        <v>0.05254841366117662</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02762285103058484</v>
+        <v>0.1100650449492654</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05273465070022494</v>
+        <v>0.05236686703578045</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02745179219456051</v>
+        <v>0.04827898324726284</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04407742678657783</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02739513307763027</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05351016026934589</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.06919394669880405</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05322160439101414</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1104012473910976</v>
+        <v>0.06827690243442733</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05317749235366559</v>
+        <v>0.05332118445031157</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02745179219456051</v>
+        <v>0.1094557333590362</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05351016026934589</v>
+        <v>0.05313696802160074</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02737636414408186</v>
+        <v>0.04842428961896406</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04471623007333984</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02751245030485783</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05428566983846685</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.06961304135361812</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.0539929319908839</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1106353805863661</v>
+        <v>0.06801330012133447</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05394818064864625</v>
+        <v>0.05409395523944652</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02737636414408186</v>
+        <v>0.1090267057233239</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05428566983846685</v>
+        <v>0.05390706900742105</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02729676030431909</v>
+        <v>0.04856593858730609</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04535503336010183</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02742545023052483</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05506117940758781</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.069226130752161</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05476425959075368</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1107572038550504</v>
+        <v>0.06733678707879676</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05471886894362691</v>
+        <v>0.05486672602858148</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02729676030431909</v>
+        <v>0.1090788450689159</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05506117940758781</v>
+        <v>0.05467716999324135</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02721317410044245</v>
+        <v>0.04870384114442387</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04599383664686383</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02713438072995664</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05583668897670876</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.06923323132205869</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05553558719062344</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1100667575045385</v>
+        <v>0.06704832432383442</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05548955723860757</v>
+        <v>0.05563949681771643</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02721317410044245</v>
+        <v>0.1084130344225996</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05583668897670876</v>
+        <v>0.05544727097906164</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02732579895762217</v>
+        <v>0.04883790828245237</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04663263993362583</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02713948967847866</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05661219854582972</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.0690343594909372</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05630691479049321</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1102640818422181</v>
+        <v>0.06694887287346779</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05626024553358824</v>
+        <v>0.05641226760685137</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02732579895762217</v>
+        <v>0.1085301568111624</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05661219854582972</v>
+        <v>0.05621737196488195</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02703482830102845</v>
+        <v>0.04896805099352656</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04727144322038783</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02694102495141625</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05738770811495067</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06882953168642242</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05707824239036299</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1102492171754775</v>
+        <v>0.06673939374471699</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05703093382856889</v>
+        <v>0.05718503839598633</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02703482830102845</v>
+        <v>0.1082310952613916</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05738770811495067</v>
+        <v>0.05698747295070224</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02704045555583154</v>
+        <v>0.0490941802697814</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04791024650714983</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0270392344240948</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05816321768407162</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06911876433614036</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05784956999023275</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1091222038117045</v>
+        <v>0.06622084795460231</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05780162212354956</v>
+        <v>0.05795780918512127</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02704045555583154</v>
+        <v>0.1072167328000747</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05816321768407162</v>
+        <v>0.05775757393652255</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02684287414720163</v>
+        <v>0.04921620710335182</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04854904979391182</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02693436597183964</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05893872725319258</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.068302073867717</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05862089759010253</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1090830820582871</v>
+        <v>0.06629419652014404</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05857231041853021</v>
+        <v>0.05873057997425622</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02684287414720163</v>
+        <v>0.1065879524539989</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05893872725319258</v>
+        <v>0.05852767492234285</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02674227750030897</v>
+        <v>0.0493340424863728</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04918785308067382</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02682666746997621</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05971423682231353</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.06867947670877828</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05939222518997229</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1087318922226132</v>
+        <v>0.06586040045836233</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05934299871351087</v>
+        <v>0.05950335076339117</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02674227750030897</v>
+        <v>0.1064456372499518</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05971423682231353</v>
+        <v>0.05929777590816315</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02663885904032377</v>
+        <v>0.04944759741097935</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04982665636743582</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02671638679382986</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06048974639143449</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06855098928695019</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06016355278984207</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1081686746120709</v>
+        <v>0.06502042078627748</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06011368700849153</v>
+        <v>0.06027612155252612</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02663885904032377</v>
+        <v>0.1063906702147207</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06048974639143449</v>
+        <v>0.06006787689398345</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02673281219241626</v>
+        <v>0.04955678286930634</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05046545965419782</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02650377181872597</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06126525596055545</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06861662802985868</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06093488038971183</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1079934695340479</v>
+        <v>0.06477521852090967</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06088437530347219</v>
+        <v>0.06104889234166107</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02673281219241626</v>
+        <v>0.1056239343750928</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06126525596055545</v>
+        <v>0.06083797787980375</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02662433038175667</v>
+        <v>0.04966150985348879</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05110426294095981</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02648907041998992</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.0620407655296764</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06787640936512979</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.0617062079895816</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1086063172959325</v>
+        <v>0.06472575467927921</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06165506359845286</v>
+        <v>0.06182166313079603</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02662433038175667</v>
+        <v>0.1051463127578557</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0620407655296764</v>
+        <v>0.06160807886562406</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0264136070335152</v>
+        <v>0.04976168935566164</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05174306622772181</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02637253047294709</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06281627509879735</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06793034972038933</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06247753558945137</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1078072582051124</v>
+        <v>0.06397299027840633</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06242575189343352</v>
+        <v>0.06259443391993097</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0264136070335152</v>
+        <v>0.1044586883897969</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06281627509879735</v>
+        <v>0.06237817985144436</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0264008355728621</v>
+        <v>0.04985723236795988</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05238186951448381</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02605439985292285</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06359178466791832</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06747846552326342</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06324886318932114</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1070963325689758</v>
+        <v>0.06371788633531122</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06319644018841418</v>
+        <v>0.06336720470906591</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0264008355728621</v>
+        <v>0.1037619442977035</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06359178466791832</v>
+        <v>0.06314828083726465</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02618620942496756</v>
+        <v>0.04994804988251842</v>
       </c>
       <c r="G148" t="n">
+        <v>0.0530206728012458</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02593492643524258</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06436729423703927</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06802077320137798</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06402019078919091</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1072735806949105</v>
+        <v>0.06316140386701416</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06396712848339484</v>
+        <v>0.06413997549820087</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02618620942496756</v>
+        <v>0.103156963508363</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06436729423703927</v>
+        <v>0.06391838182308496</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02596992201500184</v>
+        <v>0.05003405289147227</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05365947608800781</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02581435809523164</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06514280380616022</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.06765728918235892</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06479151838906068</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1064390428903044</v>
+        <v>0.06330450389053541</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06473781677837549</v>
+        <v>0.06491274628733583</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02596992201500184</v>
+        <v>0.1025446290485627</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06514280380616022</v>
+        <v>0.06468848280890525</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02585216676813513</v>
+        <v>0.05011515238695637</v>
       </c>
       <c r="G150" t="n">
+        <v>0.0542982793747698</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02589294270821545</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06591831337528117</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06758802989383231</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06556284598893046</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1059927594625457</v>
+        <v>0.06294814742289517</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06550850507335616</v>
+        <v>0.06568551707647079</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02585216676813513</v>
+        <v>0.1026258239450901</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06591831337528117</v>
+        <v>0.06545858379472556</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0257331371095377</v>
+        <v>0.05019125936110568</v>
       </c>
       <c r="G151" t="n">
+        <v>0.0549370826615318</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02557092814951935</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06669382294440213</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06691301176342404</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06633417358880023</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1056347707190222</v>
+        <v>0.06219329548111369</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06627919336833682</v>
+        <v>0.06645828786560573</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0257331371095377</v>
+        <v>0.1017014312247326</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06669382294440213</v>
+        <v>0.06622868478054586</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02571302646437974</v>
+        <v>0.05026228480605516</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05557588594829379</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02564856229446873</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06746933251352309</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06673225121876011</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06710550118866998</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1063651169671218</v>
+        <v>0.06184090908221118</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06704988166331749</v>
+        <v>0.06723105865474067</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02571302646437974</v>
+        <v>0.1015723339142774</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06746933251352309</v>
+        <v>0.06699878576636616</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02549202825783146</v>
+        <v>0.05032813971393978</v>
       </c>
       <c r="G153" t="n">
+        <v>0.0562146892350558</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02542609301838898</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06824484208264404</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06644576468746646</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06787682878853976</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1056838385142326</v>
+        <v>0.06189194924320793</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06782056995829815</v>
+        <v>0.06800382944387563</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02549202825783146</v>
+        <v>0.1009394150405121</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06824484208264404</v>
+        <v>0.06776888675218645</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02537033591506312</v>
+        <v>0.0503887350768945</v>
       </c>
       <c r="G154" t="n">
+        <v>0.0568534925218178</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02520376819660546</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.069020351651765</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.06665356859716912</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06864815638840953</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1048909756677425</v>
+        <v>0.06124737698112415</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0685912582532788</v>
+        <v>0.06877660023301058</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02537033591506312</v>
+        <v>0.100903557630224</v>
       </c>
       <c r="O154" t="n">
-        <v>0.069020351651765</v>
+        <v>0.06853898773800675</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02534814286124491</v>
+        <v>0.05044398188705426</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05749229580857979</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02528183570444356</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06979586122088595</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.066555679375494</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06941948398827931</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1042865687350396</v>
+        <v>0.0607081533129801</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06936194654825946</v>
+        <v>0.06954937102214552</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02534814286124491</v>
+        <v>0.1002656447102004</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06979586122088595</v>
+        <v>0.06930908872382706</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02512564252154709</v>
+        <v>0.05049379113655402</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05813109909534178</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02496054341722864</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.0705713707900069</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06615211345006708</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07019081158814906</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1046706580235116</v>
+        <v>0.06077523925579603</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07013263484324012</v>
+        <v>0.07032214181128048</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02512564252154709</v>
+        <v>0.09972655930722885</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0705713707900069</v>
+        <v>0.07007918970964737</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02520302832113984</v>
+        <v>0.05053807381752878</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05876990238210379</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02494013921028609</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07134688035912785</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06634288724851437</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07096213918801884</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1037432838405467</v>
+        <v>0.06014959582659216</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07090332313822079</v>
+        <v>0.07109491260041542</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02520302832113984</v>
+        <v>0.09888718444809652</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07134688035912785</v>
+        <v>0.07084929069546766</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02498049368519339</v>
+        <v>0.05057674092211348</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05940870566886578</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02481716932210305</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07212238992824882</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06562801719846179</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07173346678788861</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1038044864935327</v>
+        <v>0.05992495097770265</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07167401143320144</v>
+        <v>0.07186768338955037</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02498049368519339</v>
+        <v>0.09821997741603722</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07212238992824882</v>
+        <v>0.07161939168128796</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02485823203887801</v>
+        <v>0.05060970344244307</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06004750895562778</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02468555305433731</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07289789949736977</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.0652075197275353</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07250479438775838</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1029543062898576</v>
+        <v>0.05948951504294664</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07244469972818211</v>
+        <v>0.07264045417868532</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02485823203887801</v>
+        <v>0.09768129117267949</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07289789949736977</v>
+        <v>0.07238949266710826</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02463272958316573</v>
+        <v>0.05063687237065252</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06068631224238977</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0245456075494561</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07367340906649072</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.0652814112633609</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07327612198762816</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1027927835369095</v>
+        <v>0.05904362944447469</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07321538802316277</v>
+        <v>0.07341322496782028</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02463272958316573</v>
+        <v>0.09627452378485474</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07367340906649072</v>
+        <v>0.07315959365292857</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02459550397667433</v>
+        <v>0.05065815869887679</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06132511552915177</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02439776629657822</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07444891863561169</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06484970823356456</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07404744958749791</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1018199585420763</v>
+        <v>0.05918785604500079</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07398607631814343</v>
+        <v>0.07418599575695523</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02459550397667433</v>
+        <v>0.09620374039289575</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07444891863561169</v>
+        <v>0.07392969463874886</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02454680616044048</v>
+        <v>0.05067347341925085</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06196391881591377</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02414246278482249</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07522442820473263</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06491242706577222</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07481877718736769</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1010358716127458</v>
+        <v>0.05862275670723893</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07475676461312408</v>
+        <v>0.07495876654609018</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02454680616044048</v>
+        <v>0.095473006137136</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07522442820473263</v>
+        <v>0.07469979562456916</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02438728173521615</v>
+        <v>0.05068272752390964</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06260272210267577</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02398013050330769</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07599993777385358</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.0646695841876099</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07559010478723746</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1007405630563062</v>
+        <v>0.05794889329390307</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07552745290810474</v>
+        <v>0.07573153733522513</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02438728173521615</v>
+        <v>0.09478638615790846</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07599993777385358</v>
+        <v>0.07546989661038946</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02401757630175325</v>
+        <v>0.05068583200498814</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06324152538943777</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02391120294115263</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07677544734297455</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06442119602670349</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07636143238710724</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1001340731801453</v>
+        <v>0.05796682766770714</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07629814120308541</v>
+        <v>0.07650430812436008</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02401757630175325</v>
+        <v>0.09364794559554629</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07677544734297455</v>
+        <v>0.07623999759620977</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02383833546080373</v>
+        <v>0.05068583200498814</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06324152538943777</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02383611358747614</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.0775509569120955</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06386727901067904</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.077132759986977</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.09981644229165115</v>
+        <v>0.05737712169136513</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07706882949806607</v>
+        <v>0.07727707891349503</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02383833546080373</v>
+        <v>0.09186174959038274</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0775509569120955</v>
+        <v>0.07701009858203008</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02365020481311952</v>
+        <v>0.04982198240451249</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06324125686097375</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.023455295931397</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07832646648121647</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.06380784956716246</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07790408758684676</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.0991877106982117</v>
+        <v>0.05738033722759106</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07783951779304674</v>
+        <v>0.07804984970262997</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02365020481311952</v>
+        <v>0.09163186328275086</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07832646648121647</v>
+        <v>0.07778019956785037</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02345382995945258</v>
+        <v>0.04896786111561128</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06324098833250974</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02326918346203402</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07910197605033742</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06364292412377973</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07867541518671654</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.09904791870721485</v>
+        <v>0.05657703613909881</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07861020608802739</v>
+        <v>0.07882262049176493</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02345382995945258</v>
+        <v>0.08986235181298385</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07910197605033742</v>
+        <v>0.07855030055367067</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02324985650055482</v>
+        <v>0.04812393742584855</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06324071980404571</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02317820966850599</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07987748561945836</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06327251910815682</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07944674278658631</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.09869710662604869</v>
+        <v>0.05596778028860239</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07938089438300805</v>
+        <v>0.07959539128089987</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02324985650055482</v>
+        <v>0.08935728032141482</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07987748561945836</v>
+        <v>0.07932040153949096</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02313893003717819</v>
+        <v>0.04729068062289832</v>
       </c>
       <c r="G169" t="n">
+        <v>0.0632404512755817</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02288280803993174</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08065299518857932</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06289665094791971</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08021807038645608</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.09723531476210107</v>
+        <v>0.05615313153881579</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08015158267798872</v>
+        <v>0.08036816207003483</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02313893003717819</v>
+        <v>0.08792071394837697</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08065299518857932</v>
+        <v>0.08009050252531126</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02302169617007466</v>
+        <v>0.04646855999432416</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06324018274711768</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02268341206543006</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08142850475770028</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.06261533607069439</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08098939798632585</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.09716258342275996</v>
+        <v>0.05533365175245292</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08092227097296938</v>
+        <v>0.08114093285916979</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02302169617007466</v>
+        <v>0.08715671783420337</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08142850475770028</v>
+        <v>0.08086060351113157</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02279880049999611</v>
+        <v>0.04565804482772661</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06323991421865367</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02268045523411977</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08220401432682123</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06272859090410682</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08176072558619563</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.09687895291541337</v>
+        <v>0.05490990279222774</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08169295926795003</v>
+        <v>0.08191370364830473</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02279880049999611</v>
+        <v>0.08536935711922727</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08220401432682123</v>
+        <v>0.08163070449695187</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02237088862769451</v>
+        <v>0.04485960441067175</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06323964569018964</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02237437103511965</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08297952389594219</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.06183643187578286</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08253205318606539</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.09628446354744924</v>
+        <v>0.05438244652085431</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08246364756293069</v>
+        <v>0.08268647443743968</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02237088862769451</v>
+        <v>0.08406269694378182</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08297952389594219</v>
+        <v>0.08240080548277218</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0221386061539218</v>
+        <v>0.0440737080308296</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06323937716172563</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02216559295754851</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08375503346506315</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.06153887541334865</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08330338078593516</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.09567915562625562</v>
+        <v>0.05445184480104653</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08323433585791136</v>
+        <v>0.08345924522657464</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0221386061539218</v>
+        <v>0.08364080244820016</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08375503346506315</v>
+        <v>0.08317090646859247</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02190259867942991</v>
+        <v>0.0433008249757657</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06323910863326161</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02205455449052519</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.0845305430341841</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.06160308317021618</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08407470838580493</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.09496306945922034</v>
+        <v>0.05341865949551836</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08400502415289202</v>
+        <v>0.08423201601570958</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02190259867942991</v>
+        <v>0.08180773877281522</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0845305430341841</v>
+        <v>0.08394100745441277</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02166351180497077</v>
+        <v>0.04254142453308058</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06323884010479759</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02174168912316843</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08530605260330505</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.0608909798308632</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08484603598567469</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.09389289222223873</v>
+        <v>0.0534834524669838</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08477571244787267</v>
+        <v>0.08500478680484454</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02166351180497077</v>
+        <v>0.0803675710579605</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08530605260330505</v>
+        <v>0.08471110844023307</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02152199113129634</v>
+        <v>0.04179597599034266</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06323857157633357</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02162743034459709</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.086081562172426</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.06070703018692142</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08561736358554448</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.09309109146853151</v>
+        <v>0.05284678557815681</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08554640074285334</v>
+        <v>0.08577755759397948</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02152199113129634</v>
+        <v>0.07902436444396893</v>
       </c>
       <c r="O176" t="n">
-        <v>0.086081562172426</v>
+        <v>0.08548120942605338</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02117868225915852</v>
+        <v>0.04106494863521735</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06323830304786955</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02121221164392993</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08685707174154696</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05977424883357099</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08638869118541424</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.09120154036296219</v>
+        <v>0.05270922069175138</v>
       </c>
       <c r="M177" t="n">
-        <v>0.086317089037834</v>
+        <v>0.08655032838311442</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02117868225915852</v>
+        <v>0.0788821840711737</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08685707174154696</v>
+        <v>0.08625131041187367</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02093423078930931</v>
+        <v>0.04034881175527247</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06323803451940554</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02099646651028579</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08763258131066792</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.05821565036599205</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08716001878528401</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.0896697578563026</v>
+        <v>0.05167131967048139</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08708777733281466</v>
+        <v>0.08732309917224938</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02093423078930931</v>
+        <v>0.07724509507990801</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08763258131066792</v>
+        <v>0.08702141139769397</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0208892823225006</v>
+        <v>0.03964803463810853</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06323776599094152</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02078062843278347</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08840809087978888</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05735424937936481</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08793134638515378</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.08804126289932473</v>
+        <v>0.05153364437706087</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08785846562779531</v>
+        <v>0.08809586996138434</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0208892823225006</v>
+        <v>0.07551716261050501</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08840809087978888</v>
+        <v>0.08779151238351428</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02064448245948433</v>
+        <v>0.03896308657129665</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0632374974624775</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02066513090054176</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08918360044890983</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.05671306046886943</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08870267398502354</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.08576157444280014</v>
+        <v>0.05119675667420381</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08862915392277598</v>
+        <v>0.08886864075051928</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02064448245948433</v>
+        <v>0.07520245180329777</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08918360044890983</v>
+        <v>0.08856161336933457</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02030047680101246</v>
+        <v>0.03829443684249696</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06323722893401348</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02045040740267946</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08995911001803078</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.055315098229686</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08947400158489333</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.08357621143750099</v>
+        <v>0.0503612184246241</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08939984221775664</v>
+        <v>0.08964141153965424</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02030047680101246</v>
+        <v>0.07350502779861945</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08995911001803078</v>
+        <v>0.08933171435515488</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02015791094783692</v>
+        <v>0.03764255473927986</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06323696040554948</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02033689142831542</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09073461958715173</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0542833772569947</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09024532918476309</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.08173069283419898</v>
+        <v>0.05042759149103579</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0901705305127373</v>
+        <v>0.09041418232878919</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02015791094783692</v>
+        <v>0.07232895573680331</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09073461958715173</v>
+        <v>0.09010181534097518</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01981743050070964</v>
+        <v>0.03700790954924588</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06323669187708546</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02002501646656837</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09151012915627268</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05274091214597573</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09101665678463286</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.080070537583666</v>
+        <v>0.05009643773615285</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09094121880771797</v>
+        <v>0.09118695311792413</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01981743050070964</v>
+        <v>0.07057830075818239</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09151012915627268</v>
+        <v>0.09087191632679548</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01967968106038256</v>
+        <v>0.03639097055996911</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06323642334862144</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01991521600655718</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09228563872539365</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05121071749180925</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09178798438450263</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07804126463667393</v>
+        <v>0.04926831902268913</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09171190710269862</v>
+        <v>0.09195972390705909</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01967968106038256</v>
+        <v>0.0694571280030899</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09228563872539365</v>
+        <v>0.09164201731261577</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01924530822760762</v>
+        <v>0.0357922070591038</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06323615482015742</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01960792353740062</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.0930611482945146</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05061580788967535</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09255931198437241</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.07598839294399462</v>
+        <v>0.04914379721335871</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09248259539767929</v>
+        <v>0.09273249469619403</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01924530822760762</v>
+        <v>0.06876950261185893</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0930611482945146</v>
+        <v>0.09241211829843607</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01921495760313678</v>
+        <v>0.03521208833422326</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06323588629169341</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01950357254821751</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09383665786363556</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04927919793475427</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09333063958424218</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.07345744145639999</v>
+        <v>0.04882343417087556</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09325328369265995</v>
+        <v>0.09350526548532898</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01921495760313678</v>
+        <v>0.06781948972482271</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09383665786363556</v>
+        <v>0.09318221928425638</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01888927478772193</v>
+        <v>0.034651083672928</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06323561776322939</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01920259652812663</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09461216743275651</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04832390222222616</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09410196718411194</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07219392912466188</v>
+        <v>0.04820779175795353</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09402397198764061</v>
+        <v>0.09427803627446393</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01888927478772193</v>
+        <v>0.06701115448231432</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09461216743275651</v>
+        <v>0.09395232027007668</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01876890538211505</v>
+        <v>0.03410966236279545</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06323534923476537</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01910542896624681</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09538767700187746</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04747293534727112</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09487329478398171</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.070343374899552</v>
+        <v>0.04789743183730671</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09479466028262126</v>
+        <v>0.09505080706359888</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01876890538211505</v>
+        <v>0.06554856202466691</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09538767700187746</v>
+        <v>0.09472242125589699</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01855449498706806</v>
+        <v>0.03358829369147327</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06323508070630135</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01881250335169683</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09616318657099843</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04604931190506936</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09564462238385148</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.06943551170160678</v>
+        <v>0.04709291627164905</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09556534857760192</v>
+        <v>0.09582357785273383</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01855449498706806</v>
+        <v>0.06533577749221375</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09616318657099843</v>
+        <v>0.09549252224171728</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01814668920333289</v>
+        <v>0.03308553068883598</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06323481217783733</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01862425317359553</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09693869614011938</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04577604649080094</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09641594998372126</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.06769588114731317</v>
+        <v>0.04659480692369447</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09633603687258259</v>
+        <v>0.09659634864186879</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01814668920333289</v>
+        <v>0.06417686602528788</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09693869614011938</v>
+        <v>0.09626262322753758</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01804613363166151</v>
+        <v>0.03259034509627081</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06323454364937332</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01854111192106171</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09771420570924033</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04497563934307811</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09718727758359103</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.06696504105719686</v>
+        <v>0.04680366565615696</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09710672516756325</v>
+        <v>0.09736911943100374</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01804613363166151</v>
+        <v>0.06277589276422241</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09771420570924033</v>
+        <v>0.09703272421335789</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01785347387280584</v>
+        <v>0.03210128994365471</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06323427512090929</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01826351308321413</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.0984897152783613</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.04497021590560643</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09795860518346079</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.06514423528307767</v>
+        <v>0.04622005433175047</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09787741346254392</v>
+        <v>0.09814189022013869</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01785347387280584</v>
+        <v>0.06213692284935057</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0984897152783613</v>
+        <v>0.09780282519917818</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01756935552751779</v>
+        <v>0.03161883451863088</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06323400659244528</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01808918570977569</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09926522484748224</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04429021379859857</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09872993278333056</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.06433470767677518</v>
+        <v>0.04564247775335792</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09864810175752457</v>
+        <v>0.09891466100927364</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01756935552751779</v>
+        <v>0.06243803003091525</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09926522484748224</v>
+        <v>0.09857292618499848</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01748917576666549</v>
+        <v>0.03114344810877839</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06323373806398126</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01801503510042136</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1000407344166032</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.04413392035298636</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09950126038320033</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.06313770209010922</v>
+        <v>0.04566848214778527</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09941879005250523</v>
+        <v>0.09968743179840858</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01748917576666549</v>
+        <v>0.06174928607163777</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1000407344166032</v>
+        <v>0.09934302717081878</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01720351356679914</v>
+        <v>0.0306756000016978</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06323346953551726</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01764110424661043</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1008162439857242</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0432996228997016</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1002725879830701</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.06185446237489955</v>
+        <v>0.04479786680271552</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1001894783474859</v>
+        <v>0.1004602025875435</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01720351356679914</v>
+        <v>0.06057054885355434</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1008162439857242</v>
+        <v>0.1001131281566391</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01701282033472327</v>
+        <v>0.03021575948496982</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06323320100705322</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0175674435782197</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1015917535548451</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04318560876967611</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1010439155829399</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06068623238296589</v>
+        <v>0.04443043747974501</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1009601666424665</v>
+        <v>0.1012329733766785</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01701282033472327</v>
+        <v>0.06040174232891327</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1015917535548451</v>
+        <v>0.1008832291424594</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01701779959144693</v>
+        <v>0.029764395846235</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06323293247858922</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01729410352512598</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1023672631239661</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.0431901652938417</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1018152431828096</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.05913425596612792</v>
+        <v>0.04466599994046999</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1017308549374472</v>
+        <v>0.1020057441658134</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01701779959144693</v>
+        <v>0.05944279044996326</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1023672631239661</v>
+        <v>0.1016533301282797</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01681915485797923</v>
+        <v>0.02932197837307372</v>
       </c>
       <c r="G198" t="n">
+        <v>0.0632326639501252</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0173211345172061</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.103142772693087</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04301157980313028</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1025865707826794</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.05789977697620535</v>
+        <v>0.0440043599464868</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1025015432324279</v>
+        <v>0.1027785149549484</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01681915485797923</v>
+        <v>0.05859361716895284</v>
       </c>
       <c r="O198" t="n">
-        <v>0.103142772693087</v>
+        <v>0.1024234311141</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01651758965532926</v>
+        <v>0.02888897635308652</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06323239542166119</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01704858698433684</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.103918282262208</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.0428481396284735</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1033578983825492</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.05718403926501792</v>
+        <v>0.04374532325939173</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1032722315274085</v>
+        <v>0.1035512857440833</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01651758965532926</v>
+        <v>0.05775414643813054</v>
       </c>
       <c r="O199" t="n">
-        <v>0.103918282262208</v>
+        <v>0.1031935320999203</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0162138075045061</v>
+        <v>0.02846585907385573</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06323212689319715</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01697651135639505</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1046937918313289</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04189813210080329</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.104129225982419</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.0557882866843854</v>
+        <v>0.04328869564078103</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1040429198223892</v>
+        <v>0.1043240565332183</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0162138075045061</v>
+        <v>0.05692430220974481</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1046937918313289</v>
+        <v>0.1039636330857406</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01610851192651885</v>
+        <v>0.02805309582301873</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06323185836473315</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01680495806325755</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1054693014004499</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04165984455105146</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1049005535822887</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.05511376308612759</v>
+        <v>0.04283428285225108</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1048136081173699</v>
+        <v>0.1050968273223532</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01610851192651885</v>
+        <v>0.05700400843604431</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1054693014004499</v>
+        <v>0.1047337340715609</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0158024064423766</v>
+        <v>0.02765115588815745</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06323158983626913</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01643397753480112</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1062448109695708</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04203156431014979</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1056718811821585</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05396171232206404</v>
+        <v>0.04258189065539808</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1055842964123505</v>
+        <v>0.1058695981114882</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0158024064423766</v>
+        <v>0.05619318906927745</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1062448109695708</v>
+        <v>0.1055038350573812</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01559619457308843</v>
+        <v>0.02726050855687243</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06323132130780511</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01646362020090264</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1070203205386918</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04191157870903015</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1064432087820283</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05253337824401472</v>
+        <v>0.04193132481181844</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1063549847073312</v>
+        <v>0.1066423689006231</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01559619457308843</v>
+        <v>0.05539176806169283</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1070203205386918</v>
+        <v>0.1062739360432015</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01539057983966344</v>
+        <v>0.02688162311674796</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06323105277934109</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01629393649143886</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1077958301078127</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.04159817507862432</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.107214536381898</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.05213000470379908</v>
+        <v>0.04188239108310832</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1071256730023118</v>
+        <v>0.1074151396897581</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01539057983966344</v>
+        <v>0.05539966936553897</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1077958301078127</v>
+        <v>0.1070440370290218</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01528626576311071</v>
+        <v>0.02651496885541759</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06323078425087707</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01612497683628662</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1085713396769337</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04098964074986408</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1079858639817678</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.05115283555323702</v>
+        <v>0.04133489523086412</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1078963612972925</v>
+        <v>0.108187910478893</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01528626576311071</v>
+        <v>0.05371681693306452</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1085713396769337</v>
+        <v>0.1078141380148421</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01508395586443934</v>
+        <v>0.02616101506046509</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06323051572241306</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01595679166532277</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1093468492460547</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04108426305368132</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1087571915816376</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04960311464414824</v>
+        <v>0.04108864301668208</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1086670495922732</v>
+        <v>0.108960681268028</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01508395586443934</v>
+        <v>0.05344313471651779</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1093468492460547</v>
+        <v>0.1085842390006624</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01488435366465841</v>
+        <v>0.02582023101949104</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06323024719394904</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01568943140842406</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1101223588151756</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.04098032932100781</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1095285191815074</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04928208582835247</v>
+        <v>0.0407434402021585</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1094377378872538</v>
+        <v>0.109733452057163</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01488435366465841</v>
+        <v>0.05287854666814745</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1101223588151756</v>
+        <v>0.1093543399864827</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01468816268477705</v>
+        <v>0.02549308602008201</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06322997866548502</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01562294649546735</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1108978683842966</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04027612688277543</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1102998467813771</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.0485909929576695</v>
+        <v>0.04059909254888974</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1102084261822345</v>
+        <v>0.1105062228462979</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01468816268477705</v>
+        <v>0.05232297674020209</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1108978683842966</v>
+        <v>0.110124440972303</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01459608644580428</v>
+        <v>0.02518004934986704</v>
       </c>
       <c r="G209" t="n">
+        <v>0.063229710137021</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01525738735632945</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1116733779534175</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03996994306991591</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1110711743812469</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.04753107988391891</v>
+        <v>0.04005540581847206</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1109791144772151</v>
+        <v>0.1112789936354329</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01459608644580428</v>
+        <v>0.05197634888493019</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1116733779534175</v>
+        <v>0.1108945419581233</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01430882846874922</v>
+        <v>0.02488159029643213</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06322944160855699</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01519280442088718</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1124488875225385</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03996006521336115</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1118425019811167</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04640359045892062</v>
+        <v>0.03951218577250173</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1117498027721958</v>
+        <v>0.1120517644245678</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01430882846874922</v>
+        <v>0.05163858705458019</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1124488875225385</v>
+        <v>0.1116646429439436</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01402709227462098</v>
+        <v>0.02459817814737784</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06322917308009297</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01492924811901734</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1132243970916594</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.0395447806440429</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1126138295809864</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.0453097685344942</v>
+        <v>0.03916923817257506</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1125204910671765</v>
+        <v>0.1128245352137027</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01402709227462098</v>
+        <v>0.05120961520140083</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1132243970916594</v>
+        <v>0.1124347439297639</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01405158138442865</v>
+        <v>0.02433028219029335</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06322890455162895</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01486676888059675</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1139999066607804</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03982237669289304</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1133851571808562</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04515085796245943</v>
+        <v>0.03902636878028834</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1132911793621571</v>
+        <v>0.1135973060028377</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01405158138442865</v>
+        <v>0.05008935727764047</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1139999066607804</v>
+        <v>0.1132048449155842</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01388299931918129</v>
+        <v>0.02407837171280259</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06322863602316493</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01480541713550226</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1147754162299013</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03919114069084337</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.114156484780726</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.04412810259463606</v>
+        <v>0.03838338335723787</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1140618676571378</v>
+        <v>0.1143700767919727</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01388299931918129</v>
+        <v>0.05027773723554774</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1147754162299013</v>
+        <v>0.1139749459014045</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01372204959988803</v>
+        <v>0.02384291600249406</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06322836749470091</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01464524331361064</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1155509257990223</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.03934935996882563</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1149278123805957</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.04314274628284387</v>
+        <v>0.03834008766501995</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1148325559521184</v>
+        <v>0.1151428475811076</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01372204959988803</v>
+        <v>0.04997467902737113</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1155509257990223</v>
+        <v>0.1147450468872248</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01356943574755791</v>
+        <v>0.02384291600249406</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06322836749470091</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01448629784479873</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1163264353681432</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03869532185777178</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1156991399804655</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.04249603287890241</v>
+        <v>0.03829628746523092</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1156032442470991</v>
+        <v>0.1159156183702425</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01356943574755791</v>
+        <v>0.04938010660535919</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1163264353681432</v>
+        <v>0.1155151478730451</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01342586128320006</v>
+        <v>0.02323418598094783</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06316260183560063</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01412863115894332</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1171019449372642</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03892731368861349</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1164704675803353</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.04268920623463163</v>
+        <v>0.03785178851946697</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1163739325420798</v>
+        <v>0.1166883891593775</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01342586128320006</v>
+        <v>0.04829394392176045</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1171019449372642</v>
+        <v>0.1162852488588654</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01329202972782355</v>
+        <v>0.02263233140917582</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06309683617650035</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01397229368592126</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1178774545063852</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03844941067178312</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1172417951802051</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.04112351020185118</v>
+        <v>0.0370063965893245</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1171446208370604</v>
+        <v>0.1174611599485124</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01329202972782355</v>
+        <v>0.04821611492882344</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1178774545063852</v>
+        <v>0.1170553498446857</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01316864460243748</v>
+        <v>0.02203768863916736</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06303107051740005</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01391733585560936</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1186529640755061</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03777033361862717</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1180131227800748</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.04080018863238072</v>
+        <v>0.03735991743639977</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1179153091320411</v>
+        <v>0.1182339307376474</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01316864460243748</v>
+        <v>0.04754654357879673</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1186529640755061</v>
+        <v>0.117825450830506</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01305640942805093</v>
+        <v>0.02145059402291181</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06296530485829976</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01366380809788439</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1194284736446271</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.0376902037074949</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1187844503799446</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.04052048537804009</v>
+        <v>0.03651215682228906</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1186859974270217</v>
+        <v>0.1190067015267823</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01305640942805093</v>
+        <v>0.04648515382392893</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1194284736446271</v>
+        <v>0.1185955518163263</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01275602772567301</v>
+        <v>0.0208713839123985</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06289953919919947</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01371176084262327</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.120203983213748</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03750901325459188</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1195557779798144</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03988564429064889</v>
+        <v>0.03626292050858868</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1194566857220024</v>
+        <v>0.1197794723159173</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01275602772567301</v>
+        <v>0.04613186961646837</v>
       </c>
       <c r="O220" t="n">
-        <v>0.120203983213748</v>
+        <v>0.1193656528021466</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01276820301631279</v>
+        <v>0.02030039465961677</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06283377354009918</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01356124451970271</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.120979492782869</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03732675457612375</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1203271055796841</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.03929690922202694</v>
+        <v>0.03571201425689494</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1202273740169831</v>
+        <v>0.1205522431050522</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01276820301631279</v>
+        <v>0.04568661490866371</v>
       </c>
       <c r="O221" t="n">
-        <v>0.120979492782869</v>
+        <v>0.1201357537879669</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01259363882097936</v>
+        <v>0.01973796261655597</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06276800788099889</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01331230955899955</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.12175500235199</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03704341998829611</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1210984331795539</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03973809678351065</v>
+        <v>0.03595924382880411</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1209980623119637</v>
+        <v>0.1213250138941872</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01259363882097936</v>
+        <v>0.04564931365276353</v>
       </c>
       <c r="O222" t="n">
-        <v>0.12175500235199</v>
+        <v>0.1209058547737872</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01253303866068183</v>
+        <v>0.01918442413520544</v>
       </c>
       <c r="G223" t="n">
+        <v>0.0627022422218986</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01306500639039065</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1225305119211109</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03635900180731463</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1218697607794237</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0387830949176311</v>
+        <v>0.0353044149859125</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1217687506069444</v>
+        <v>0.1220977846833221</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01253303866068183</v>
+        <v>0.04511988980101628</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1225305119211109</v>
+        <v>0.1216759557596075</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01248710605642927</v>
+        <v>0.0186401155675545</v>
       </c>
       <c r="G224" t="n">
+        <v>0.0626364765627983</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.0129193854437528</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1233060214902318</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03657349234938492</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1226410883792934</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.03923184973522442</v>
+        <v>0.03494733348981641</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1225394389019251</v>
+        <v>0.1228705554724571</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01248710605642927</v>
+        <v>0.04459826730567046</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1233060214902318</v>
+        <v>0.1224460567454278</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01255654452923079</v>
+        <v>0.01810537326559253</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06257071090369802</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01277549714896281</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1240815310593528</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03578688393071264</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1234124159791632</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.03868459816548747</v>
+        <v>0.03488780510211212</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1233101271969057</v>
+        <v>0.1236433262615921</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01255654452923079</v>
+        <v>0.04438437011897478</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1240815310593528</v>
+        <v>0.1232161577312481</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01264205760009544</v>
+        <v>0.01758053358130884</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06250494524459772</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01273339193589751</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1248570406284737</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03619916886750335</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.124183743579033</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.03864157713761718</v>
+        <v>0.0339256355843959</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1240808154918864</v>
+        <v>0.124416097050727</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01264205760009544</v>
+        <v>0.04407812219317764</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1248570406284737</v>
+        <v>0.1239862587170684</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01264091317292941</v>
+        <v>0.01706593286669278</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06243917958549744</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01259312023443369</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1256325501975947</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03551033947596272</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1249550711789027</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.03750302358081037</v>
+        <v>0.03416063069826414</v>
       </c>
       <c r="M227" t="n">
-        <v>0.124851503786867</v>
+        <v>0.1251888678398619</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01264091317292941</v>
+        <v>0.04327944748052759</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1256325501975947</v>
+        <v>0.1247563597028887</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01244092639234873</v>
+        <v>0.01656190747373379</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06237341392639716</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.0123547324744482</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1264080597667157</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03492038807229639</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1257263987787725</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.03706917442426388</v>
+        <v>0.03329259620531308</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1256221920818477</v>
+        <v>0.1259616386289969</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01244092639234873</v>
+        <v>0.0429882699332732</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1264080597667157</v>
+        <v>0.125526460688709</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01254097121446456</v>
+        <v>0.01606879375442102</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06230764826729687</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01221827908581783</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1271835693358366</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03532930697271</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1264977263786423</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03724026659717455</v>
+        <v>0.03332133786713901</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1263928803768284</v>
+        <v>0.1267344094181318</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01254097121446456</v>
+        <v>0.043204513503663</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1271835693358366</v>
+        <v>0.1262965616745293</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01264106699889669</v>
+        <v>0.01558692806074391</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06224188260819657</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01218380503820302</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1279590789049576</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03483708849340911</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.127269053978512</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03631653702873916</v>
+        <v>0.03264667513233058</v>
       </c>
       <c r="M230" t="n">
-        <v>0.127163568671809</v>
+        <v>0.1275071802072668</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01264106699889669</v>
+        <v>0.04302807315529322</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1279590789049576</v>
+        <v>0.1270666626603496</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0124412331052649</v>
+        <v>0.01511664674469181</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06217611694909628</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01205069300806973</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1287345884740785</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03424372495059938</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1280403815783818</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.03599822264815467</v>
+        <v>0.03266971628328577</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1279342569667897</v>
+        <v>0.1282799509964017</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0124412331052649</v>
+        <v>0.04245638500101118</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1287345884740785</v>
+        <v>0.1278367636461699</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01254148889318898</v>
+        <v>0.01465828615825403</v>
       </c>
       <c r="G232" t="n">
+        <v>0.062110351289996</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01201850692329948</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1295100980431995</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03434920866048646</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1288117091782516</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.0361855603846179</v>
+        <v>0.03209126751957952</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1287049452617703</v>
+        <v>0.1290527217855367</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01254148889318898</v>
+        <v>0.04148793933969508</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1295100980431995</v>
+        <v>0.1286068646319902</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01254185372228873</v>
+        <v>0.01421218265341995</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06204458563089571</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01168726146819955</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1302856076123204</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.033653531939276</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1295830367781214</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0361787871673257</v>
+        <v>0.03121133979423549</v>
       </c>
       <c r="M233" t="n">
-        <v>0.129475633556751</v>
+        <v>0.1298254925746717</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01254185372228873</v>
+        <v>0.04112289282371262</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1302856076123204</v>
+        <v>0.1293769656178105</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01264234695218394</v>
+        <v>0.01377867258217888</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06197881997179542</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01175697132707722</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1310611171814414</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03365668710317354</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1303543643779911</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.03597813992547488</v>
+        <v>0.03152994406027701</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1302463218517317</v>
+        <v>0.1305982633638066</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01264234695218394</v>
+        <v>0.04066140210543123</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1310611171814414</v>
+        <v>0.1301470666036308</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0126429879424944</v>
+        <v>0.01335809229652018</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06191305431269513</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01152765118423979</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1318366267505623</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03305866646838479</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1311256919778609</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.03578385558826241</v>
+        <v>0.03054709127072766</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1310170101467123</v>
+        <v>0.1313710341529416</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0126429879424944</v>
+        <v>0.04020362383721843</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1318366267505623</v>
+        <v>0.1309171675894511</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01244379605283989</v>
+        <v>0.0129507781484332</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06184728865359484</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01149931572399455</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1326121363196833</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.03255946235111537</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1318970195777307</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.03519617108488499</v>
+        <v>0.03016279237861094</v>
       </c>
       <c r="M236" t="n">
-        <v>0.131787698441693</v>
+        <v>0.1321438049420765</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01244379605283989</v>
+        <v>0.04034971467144161</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1326121363196833</v>
+        <v>0.1316872685752714</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01244479064284019</v>
+        <v>0.01255706648990725</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06178152299449455</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01117197963064877</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1333876458888043</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.03245906706757087</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1326683471776005</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.0351153233445396</v>
+        <v>0.03027705833695038</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1325583867366736</v>
+        <v>0.1329165757312115</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01244479064284019</v>
+        <v>0.03969983126046828</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1333876458888043</v>
+        <v>0.1324573695610917</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01264599107211511</v>
+        <v>0.01217729367293169</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06171575733539426</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01114565758850974</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1341631554579252</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.03205747293395694</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1334396747774702</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.03484154929642297</v>
+        <v>0.02948990009876937</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1333290750316543</v>
+        <v>0.1336893465203464</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01264599107211511</v>
+        <v>0.03975413025666613</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1341631554579252</v>
+        <v>0.133227470546912</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01254741670028443</v>
+        <v>0.01181179604949588</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06164999167629397</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01112036428188474</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1349386650270462</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0321546722664792</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.13421100237734</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.03397508586973202</v>
+        <v>0.02940132861709155</v>
       </c>
       <c r="M239" t="n">
-        <v>0.134099763326635</v>
+        <v>0.1344621173094813</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01254741670028443</v>
+        <v>0.0391127683124024</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1349386650270462</v>
+        <v>0.1339975715327323</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01254908688696796</v>
+        <v>0.01145953653429931</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06158422601719368</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01099611439508108</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1357141745961671</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.03165065738134329</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1349823299772097</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.03361616999366362</v>
+        <v>0.02851135484494036</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1348704516216156</v>
+        <v>0.1352348880986163</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01254908688696796</v>
+        <v>0.03897590208004459</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1357141745961671</v>
+        <v>0.1347676725185526</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01245102099178546</v>
+        <v>0.01111261085559249</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06151846035809339</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01077292261240603</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1364896841652881</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.03154542059475479</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1357536575770795</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0341650385974146</v>
+        <v>0.02811998973533927</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1356411399165963</v>
+        <v>0.1360076588877513</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01245102099178546</v>
+        <v>0.0381436882119604</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1364896841652881</v>
+        <v>0.1355377735043729</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01245323837435672</v>
+        <v>0.01076998192807493</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06145269469899309</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01055080361816688</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.137265193734409</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.03103895422291941</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1365249851769493</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.03282192861018185</v>
+        <v>0.02812724424131186</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1364118282115769</v>
+        <v>0.1367804296768862</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01245323837435672</v>
+        <v>0.03851628336051721</v>
       </c>
       <c r="O242" t="n">
-        <v>0.137265193734409</v>
+        <v>0.1363078744901932</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01265575839430157</v>
+        <v>0.01043198610373598</v>
       </c>
       <c r="G243" t="n">
+        <v>0.0613869290398928</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01052977209667089</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.13804070330353</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.03103125058204279</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1372963127768191</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.03268707696116213</v>
+        <v>0.02753312931588156</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1371825165065576</v>
+        <v>0.1375532004660212</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01265575839430157</v>
+        <v>0.03849384417808244</v>
       </c>
       <c r="O243" t="n">
-        <v>0.13804070330353</v>
+        <v>0.1370779754760135</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01265860041123976</v>
+        <v>0.01009895973456498</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06132116338079251</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.0105098427322254</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1388162128726509</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.03022230198833042</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1380676403766888</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.0328607205795523</v>
+        <v>0.02733765591207188</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1379532048015383</v>
+        <v>0.1383259712551561</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01265860041123976</v>
+        <v>0.03747652731702378</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1388162128726509</v>
+        <v>0.1378480764618338</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01256178378479107</v>
+        <v>0.009771239172551266</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06125539772169222</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01039103020913765</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1395917224417719</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.03051210075798802</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1388389679765586</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.03304309639454928</v>
+        <v>0.02684083498290635</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1387238930965189</v>
+        <v>0.139098742044291</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01256178378479107</v>
+        <v>0.03746448942970843</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1395917224417719</v>
+        <v>0.1386181774476541</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01256532787457534</v>
+        <v>0.009449160769684176</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06118963206259193</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01007334921171495</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1403672320108929</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02970063920722124</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1396102955764284</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.03253444133534988</v>
+        <v>0.02654267748140848</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1394945813914996</v>
+        <v>0.139871512833426</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01256532787457534</v>
+        <v>0.03655788716850411</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1403672320108929</v>
+        <v>0.1393882784334744</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01256925204021232</v>
+        <v>0.00913306087795307</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06112386640349164</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.009956814424264569</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1411427415800138</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02968790965223569</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1403816231762981</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.03213499233115102</v>
+        <v>0.02624319436060174</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1402652696864802</v>
+        <v>0.140644283622561</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01256925204021232</v>
+        <v>0.03695687718577817</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1411427415800138</v>
+        <v>0.1401583794192947</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0125735756413218</v>
+        <v>0.008823275849347265</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06105810074439135</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.009841440531093808</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1419182511491348</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02927390440923694</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1411529507761679</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.0323449863111494</v>
+        <v>0.02584239657350965</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1410359579814609</v>
+        <v>0.1414170544116959</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0125735756413218</v>
+        <v>0.03666161613389829</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1419182511491348</v>
+        <v>0.140928480405115</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0125783180375236</v>
+        <v>0.008520142035856125</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06099233508529106</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.009727242216509946</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1426937607182557</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02895861579443074</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1419242783760377</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.03186466020454209</v>
+        <v>0.02504029507315567</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1418066462764416</v>
+        <v>0.1421898252008308</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0125783180375236</v>
+        <v>0.0358722606652318</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1426937607182557</v>
+        <v>0.1416985813909353</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01258349858843748</v>
+        <v>0.008223995789468981</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06092656942619077</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.009714234164820264</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1434692702873767</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02884203612402261</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1426956059759074</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.03129425094052574</v>
+        <v>0.02503690081256338</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1425773345714222</v>
+        <v>0.1429625959899658</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01258349858843748</v>
+        <v>0.03528896743214627</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1434692702873767</v>
+        <v>0.1424686823767556</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01258913665368325</v>
+        <v>0.007935173462175177</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06086080376709049</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.009502431060332064</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1442447798564976</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02842415771421816</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1434669335757772</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.03213399544829731</v>
+        <v>0.02463222474475621</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1433480228664029</v>
+        <v>0.1437353667791007</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01258913665368325</v>
+        <v>0.03561189308700907</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1442447798564976</v>
+        <v>0.1432387833625759</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01269525159288068</v>
+        <v>0.007654011405964098</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0607950381079902</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.009391847587352634</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1450202894256186</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02820497288122314</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.144238261175647</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.03088413065705359</v>
+        <v>0.0243262778227577</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1441187111613835</v>
+        <v>0.1445081375682357</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01269525159288068</v>
+        <v>0.03554119428218788</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1450202894256186</v>
+        <v>0.1440088843483962</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01260186276564956</v>
+        <v>0.007380845972824991</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06072927244888991</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.009282498430189232</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1457957989947395</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02778447394124312</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1450095887755168</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.03084489349599145</v>
+        <v>0.02361907099959132</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1448893994563642</v>
+        <v>0.1452809083573706</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01260186276564956</v>
+        <v>0.03557702767005017</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1457957989947395</v>
+        <v>0.1447789853342165</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0126089895316097</v>
+        <v>0.007116013514747256</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06066350678978962</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.00917439827314917</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1465713085638605</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02746265321048369</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1457809163753865</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.03071652089430782</v>
+        <v>0.02331061522828062</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1456600877513449</v>
+        <v>0.1460536791465056</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0126089895316097</v>
+        <v>0.03471954990296316</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1465713085638605</v>
+        <v>0.1455490863200368</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01251665125038087</v>
+        <v>0.006859850383720216</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06059774113068933</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.009267561800539718</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1473468181329814</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02723950300515049</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1465522439752563</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.03089924978119951</v>
+        <v>0.02310092146184908</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1464307760463255</v>
+        <v>0.1468264499356406</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01251665125038087</v>
+        <v>0.0341689176332946</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1473468181329814</v>
+        <v>0.1463191873058571</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01272486728158288</v>
+        <v>0.006612692931733236</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06053197547158904</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.009062003696668174</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1481223277021024</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02631501564144917</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1473235715751261</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.03149331708586323</v>
+        <v>0.02219000065332016</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1472014643413062</v>
+        <v>0.1475992207247755</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01272486728158288</v>
+        <v>0.03392528751341201</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1481223277021024</v>
+        <v>0.1470892882916774</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01273365698483551</v>
+        <v>0.006374877510775624</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06046620981248876</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.00905773864584182</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1488978372712234</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02648918343558535</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1480948991749958</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.03119895973749598</v>
+        <v>0.02167786375571742</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1479721526362869</v>
+        <v>0.1483719915139105</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01273365698483551</v>
+        <v>0.03398881619568278</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1488978372712234</v>
+        <v>0.1478593892774977</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01274303971975854</v>
+        <v>0.006146740472836761</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06040044415338847</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.008954781332367948</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1496733468403443</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02626199870376467</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1488662267748656</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.03021641466529457</v>
+        <v>0.02146452172206431</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1487428409312675</v>
+        <v>0.1491447623030454</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01274303971975854</v>
+        <v>0.03385966033247434</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1496733468403443</v>
+        <v>0.148629490263318</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01275303484597178</v>
+        <v>0.005928618169905954</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06033467849428818</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.008753146440553833</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1504488564094653</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02603345376219274</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1496375543747354</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.03084591879845588</v>
+        <v>0.02154998550538437</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1495135292262482</v>
+        <v>0.1499175330921804</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01275303484597178</v>
+        <v>0.03373797657615429</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1504488564094653</v>
+        <v>0.1493995912491383</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01276366172309498</v>
+        <v>0.005720846953972576</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06026891283518789</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.008752848654706769</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1512243659785862</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02550354092707521</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1504088819746051</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.03118770906617674</v>
+        <v>0.02113426605870111</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1502842175212288</v>
+        <v>0.1506903038813153</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01276366172309498</v>
+        <v>0.03392392157909008</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1512243659785862</v>
+        <v>0.1501696922349586</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01257493971074797</v>
+        <v>0.005523763177025943</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06020314717608759</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.008653902659134037</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1519998755477072</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02467225251461769</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1511802095744749</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.03104202239765402</v>
+        <v>0.02021737433503804</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1510549058162095</v>
+        <v>0.1514630746704503</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01257493971074797</v>
+        <v>0.03331765199364922</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1519998755477072</v>
+        <v>0.1509397932207789</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01268688816855054</v>
+        <v>0.005337703191055407</v>
       </c>
       <c r="G262" t="n">
+        <v>0.0601373815169873</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.008356323138142926</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1527753851168281</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02493958084102582</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1519515371743447</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.03110909572208448</v>
+        <v>0.02019932128741858</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1518255941111902</v>
+        <v>0.1522358454595852</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01268688816855054</v>
+        <v>0.03301932447219919</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1527753851168281</v>
+        <v>0.1517098942065992</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01279952645612245</v>
+        <v>0.00516300334805031</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06007161585788701</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.008260124776040725</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1535508946859491</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02460551822250523</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1527228647742145</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.0307891659686651</v>
+        <v>0.01958011786886629</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1525962824061708</v>
+        <v>0.1530086162487202</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01279952645612245</v>
+        <v>0.03262909566710753</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1535508946859491</v>
+        <v>0.1524799951924195</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01261287393308351</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06000585019878672</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.008165322257134719</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.15432640425507</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02377005697526152</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1534941923740842</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.03038247006659273</v>
+        <v>0.01925977503240467</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1533669707011515</v>
+        <v>0.1537813870378551</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01261287393308351</v>
+        <v>0.03314712223074162</v>
       </c>
       <c r="O264" t="n">
-        <v>0.15432640425507</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1532500961782398</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05999269230404988</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005643527241351851</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05999296083251389</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006283384528645811</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0599932293609779</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006919528467887653</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05999349788944193</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007551915665000179</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05999376641790594</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008180502725989365</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05999403494636996</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008805246256833377</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05999430347483398</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009426102863537338</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.059994572003298</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01004302915202539</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05999484053176202</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01065598172830283</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05999510906022603</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01126491719834784</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05999537758869004</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01186979216816483</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05999564611715407</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01247056324367934</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05999591464561808</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01306718703089597</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0599961831740821</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.0136596201357929</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05999645170254611</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01424781916437382</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05999672023101014</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01483174072256573</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05999698875947415</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01541134141637247</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05999725728793816</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01598657785177227</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05999752581640218</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01655740663476803</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05999779434486621</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01712378437128826</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05999806287333023</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01768566766733608</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05999833140179424</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01824301312888966</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05999859993025825</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01879577736195116</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05999886845872228</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01934391697245064</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05999913698718629</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01988756575864622</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05999940551565031</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02042774348005056</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05999967404411432</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02096458393492087</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05999994257257835</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02149804372918861</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06000021110104236</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02202807946885541</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06000047962950637</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02255464775989944</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06000074815797039</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02307770520832157</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06000101668643441</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02359720842005446</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06000128521489843</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02411311400109915</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06000155374336245</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.0246253785574338</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06000182227182646</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02513395869505868</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06000209080029049</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02563881101990766</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0600023593287545</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02613989213798117</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06000262785721851</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02663715865525739</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06000289638568253</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0271305671777359</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06000316491414655</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0276200743113519</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06000343344261057</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02810563666210519</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06000370197107458</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02858721083597392</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06000397049953859</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02906475343895695</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06000423902800262</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02953822107699094</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06000450755646664</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03000757035607491</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06000477608493066</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03047275788218707</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06000504461339467</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03093374026132555</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0600053131418587</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03139047409942845</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06000558167032271</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03184291600249407</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06000585019878672</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03184291600249407</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05999269230404988</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03233881630436553</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06005899502007819</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03283013001694953</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06012529773610652</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03331673389429952</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06019160045213484</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03379850469046935</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06025790316816317</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03427531915951245</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0603242058841915</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03474705405548267</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06039050860021983</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03521358613243351</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06045681131624814</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03567479214441879</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06052311403227648</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03613054884549195</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06058941674830479</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03658073298970677</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06065571946433311</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03702522133111696</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06072202218036144</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03746389062377601</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06078832489638977</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03789661762173775</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06085462761241809</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03832327907905565</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06092093032844641</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03874375174978351</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06098723304447475</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03915791238797484</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06105353576050306</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03956563774768348</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06111983847653139</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03996680458296287</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06118614119255971</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04036128964786687</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06125244390858804</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04074896969644893</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06131874662461636</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04112972148276279</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06138504934064468</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04150342176086218</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06145135205667301</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04186994728480061</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06151765477270133</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04222917480863187</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06158395748872966</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0425814843406904</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06165026020475798</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04292977216071554</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06171656292078631</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0432744182770417</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06178286563681463</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04361529944372269</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06184916835284296</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04395229241481204</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06191547106887128</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04428527394436344</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0619817737848996</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04461412078643059</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06204807650092793</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04493870969506706</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06211437921695625</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04525891742432662</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06218068193298458</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04557462072826276</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0622469846490129</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04588569636092931</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06231328736504123</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04619202107637973</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06237959008106955</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04649347162866784</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06244589279709788</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04678992477184717</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0625121955131262</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04708125725997147</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06257849822915452</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04736734584709431</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06264480094518285</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04764806728726934</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06271110366121117</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04792329833455033</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0627774063772395</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04819291574299076</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06284370909326782</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04845679626664443</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06291001180929615</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0487148166595649</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06297631452532447</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04896685367580588</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06304261724135279</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04921278406942094</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06310891995738112</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04945248459446385</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06317522267340944</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04968583200498813</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06324152538943777</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04279055466999208</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06324152538943777</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04979559499526113</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06497981667218233</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0498970170026725</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0667181079549269</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04999042763495765</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06845639923767148</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05007615649985212</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07019469052041603</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05015453320509134</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07193298180316061</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05022588735841078</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07367127308590518</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05029054856754591</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07540956436864975</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05034884644023218</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07714785565139431</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05040111058420507</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07888614693413888</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05044767060720006</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08062443821688345</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05048885611695262</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08236272949962802</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05052499672119821</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08410102078237258</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05055642202767228</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08583931206511716</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05058346164411028</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08757760334786173</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05060644517824773</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0893158946306063</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05062570223782008</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09105418591335086</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05064156243056279</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09279247719609543</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05065435536421132</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09453076847884</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05066441064650116</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09626905976158458</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05067205788516774</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09800735104432914</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05067762668794656</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0997456423270737</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05068144666257308</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1014839336098183</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05068384741678277</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1032222248925628</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05068515855831108</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1049605161753074</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05068570969489351</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.106698807458052</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05068583043426547</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1084370987407966</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05066247789437883</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1101753900235411</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05055028001716932</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1119136813062857</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05035199895523853</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1136519725890303</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05007504191651215</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1153902638717748</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04972681610891582</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1171285551545194</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04931472874037519</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.118866846437264</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04884618701881591</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1206051377200085</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04832859815216366</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1223434290027531</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04776936934834406</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1240817202854977</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04717590781528277</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1258200115682422</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04655562076090542</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1275583028509868</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04591591539313771</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1292965941337314</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04526419891990528</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1310348854164759</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04460787854913374</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1327731766992205</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04395436148874878</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1345114679819651</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04331105494667607</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1362497592647096</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04268536613084119</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1379880505474542</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04208470224916987</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1397263418301988</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04151647050958773</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1414646331129434</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.0409880781200204</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1432029243956879</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04050693228839356</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1449412156784325</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04008044022263287</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.146679506961177</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03971600913066396</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1484177982439217</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03942104622041247</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0391727792805552</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1518943808094108</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03893582851871389</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1536326720921553</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03870945151719774</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1553709633748999</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03849301597409618</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1571092546576445</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03828588958749857</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1588475459403891</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03808744005549434</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1605858372231336</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03789703507617285</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1623241285058782</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03771404234762355</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1640624197886227</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0375378295679358</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1658007110713673</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03736776443519901</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1675390023541119</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0372032146475026</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1692772936368565</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03704354790293594</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.171015584919601</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03688813189958843</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1727538762023456</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03673633433554949</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1744921674850902</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03658752290890851</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1762304587678347</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03644106531775489</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1779687500505793</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03629632926017803</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1797070413333239</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03615268243426732</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1814453326160684</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03600949253811216</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.183183623898813</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03586612726980196</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1849219151815576</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03572195432742612</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1866602064643021</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03557634140907404</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1883984977470467</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03542865621283509</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1901367890297913</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0352782664367987</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1918750803125358</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03512453977905427</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1936133715952804</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03496695480426507</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.195351662878025</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03480858567037249</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1970899541607695</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03465107306563617</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1988282454435141</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03449442148096212</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2005665367262587</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0343386354072562</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2023048280090033</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03418371933542438</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2040431192917478</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0340296777563726</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2057814105744924</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03387651516100677</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.207519701857237</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03372423604023284</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2092579931399815</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03357284488495676</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2109962844227261</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03342234618608442</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2127345757054707</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03327274443452178</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2144728669882152</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0331240441211748</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2162111582709598</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03297624973694937</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2179494495537044</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03282936577275142</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.219687740836449</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03268339671948692</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2214260321191935</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03253834706806181</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.223164323401938</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03239422130938197</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2249026146846826</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03225102393435338</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2266409059674272</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03210875943388198</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2283791972501718</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03196743229887366</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2301174885329163</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03182704702023439</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2318557798156609</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03168760808887009</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2335940710984055</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03154911999568669</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.23533236238115</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08379055466999208</v>
+        <v>0.06301504120174584</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03379055466999208</v>
+        <v>0.01301504120174584</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01327902538943776</v>
+        <v>0.008077813615431388</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0008581209728205294</v>
+        <v>0.004062231388839606</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006388032867619977</v>
+        <v>0.001622814181571266</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001774645492631607</v>
+        <v>0.00427024717436128</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000775509569120955</v>
+        <v>0.001631344121891361</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004999999999999977</v>
+        <v>0.01150556575814352</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007785959170952121</v>
+        <v>0.001636802118395622</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008902498016146676</v>
+        <v>0.02412723075298639</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007701009858203006</v>
+        <v>0.001959295841521468</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001820654450451563</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001277606573523995</v>
+        <v>0.002692604538477129</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00130336956521739</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008861642239812284</v>
+        <v>0.01789896392056028</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001545541578269901</v>
+        <v>0.002880119113948448</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01400000000000001</v>
+        <v>0.03155735337914056</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001204433921653036</v>
+        <v>0.003256261070329107</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002882107318813658</v>
+        <v>0.008538302984677476</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001916409860285993</v>
+        <v>0.004868442544713796</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004932480057182595</v>
+        <v>0.009657420687105796</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002326528707362865</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0126057732118918</v>
+        <v>0.02362887121641769</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002318312367404851</v>
+        <v>0.004910406355186865</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02444679679114425</v>
+        <v>0.04087398066081832</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002310302957460902</v>
+        <v>0.00488439160549366</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004036986463827358</v>
+        <v>0.01153751812041081</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002555213147047991</v>
+        <v>0.006491256726285062</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00616000391838032</v>
+        <v>0.01129871357146621</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00310203827648382</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01672941154888918</v>
+        <v>0.02732460436992318</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003091083156539801</v>
+        <v>0.006547208473582487</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03136267312419716</v>
+        <v>0.0471885340736734</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003080403943281203</v>
+        <v>0.006512522140658215</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01077041815390852</v>
+        <v>0.002692604538477129</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005279798771413213</v>
+        <v>0.01301504120174584</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003194016433809988</v>
+        <v>0.008077813615431388</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007635963918855966</v>
+        <v>0.01274009760631051</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003877547845604775</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02076119102318319</v>
+        <v>0.03035652152538831</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003863853945674752</v>
+        <v>0.008184010591978109</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03704600139589398</v>
+        <v>0.0524545058422356</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003850504929101503</v>
+        <v>0.008140652675822769</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006605051127491782</v>
+        <v>0.01225578244339681</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003832819720571986</v>
+        <v>0.009736885089427593</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008842757456064811</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004653057414725731</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02402974540715277</v>
+        <v>0.03297333213843984</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004636624734809702</v>
+        <v>0.00982081271037373</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04370479933577276</v>
+        <v>0.05610983896043342</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004620605914921804</v>
+        <v>0.009135767980495729</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008007250417983593</v>
+        <v>0.01339928870379909</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004471623007333983</v>
+        <v>0.01135969927099886</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01026278192746213</v>
+        <v>0.01507191215930184</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005428566983846685</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02746370847317675</v>
+        <v>0.03509600768737309</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005409395523944652</v>
+        <v>0.01086141304347826</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04844708467337161</v>
+        <v>0.06279984105194036</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005390706900742104</v>
+        <v>0.01139691374615188</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009480903528809211</v>
+        <v>0.01547290440477759</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005110426294095981</v>
+        <v>0.01298251345257012</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0111784347305032</v>
+        <v>0.01632155884461457</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00620407655296764</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03079171399363395</v>
+        <v>0.03816773029403364</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006182166313079602</v>
+        <v>0.01309441694716497</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05228087513822832</v>
+        <v>0.06670613987359553</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006160807886562405</v>
+        <v>0.01302504428131643</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01102051734588918</v>
+        <v>0.01647608821879778</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005749229580857979</v>
+        <v>0.01460532763414139</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01227211326264328</v>
+        <v>0.01733393863247423</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006979586122088595</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03314239574090319</v>
+        <v>0.04130514386301173</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006954937102214553</v>
+        <v>0.0147312190655606</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05610983896043342</v>
+        <v>0.0717140690425172</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006895978916575007</v>
+        <v>0.01465317481648098</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01262059875514406</v>
+        <v>0.01840829881832517</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006388032867619977</v>
+        <v>0.01622814181571266</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0132262149213377</v>
+        <v>0.0186025130517404</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00775509569120955</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03509600768737309</v>
+        <v>0.04369215228261958</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007807316654780284</v>
+        <v>0.01636802118395622</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05802196070087207</v>
+        <v>0.07530427067499462</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007701009858203007</v>
+        <v>0.01628130535164554</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01427565464249437</v>
+        <v>0.01726899487582526</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007026836154381975</v>
+        <v>0.01785095599728392</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.01942074363127264</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008740133404970225</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03587690346383385</v>
+        <v>0.04680438362767217</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008500478680484454</v>
+        <v>0.01800482330235184</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06058126178175388</v>
+        <v>0.07905738688731706</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008471110844023307</v>
+        <v>0.01790943588681009</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01598019189386068</v>
+        <v>0.02005763506376353</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007665639441143971</v>
+        <v>0.01947377017885519</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01449202337003425</v>
+        <v>0.02048209189993057</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009306114829451461</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03718023887813388</v>
+        <v>0.04901746597298445</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009273249469619403</v>
+        <v>0.01964162542074746</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06239337771400894</v>
+        <v>0.08315405979577373</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009241211829843608</v>
+        <v>0.01953756642197464</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01772871739516355</v>
+        <v>0.01977367805460548</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008304442727905969</v>
+        <v>0.02109658436042645</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01494632702924109</v>
+        <v>0.02138001938657376</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01008162439857242</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03885733634538935</v>
+        <v>0.0513070273933714</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01004602025875435</v>
+        <v>0.02127842753914308</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06505821646230336</v>
+        <v>0.08657493151665391</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01001131281566391</v>
+        <v>0.0211656969571392</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0195157380323235</v>
+        <v>0.02041658252081659</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008943246014667967</v>
+        <v>0.02271939854199772</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01539204682341899</v>
+        <v>0.02230798762006178</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01085713396769337</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04010795907885603</v>
+        <v>0.05334869596364797</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0108187910478893</v>
+        <v>0.0229152296575387</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06617568599130347</v>
+        <v>0.08920064416624685</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01078141380148421</v>
+        <v>0.02279382749230375</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02133576069126112</v>
+        <v>0.02198580713486239</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009582049301429965</v>
+        <v>0.02434221272356898</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01592898668655082</v>
+        <v>0.02305945812925422</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01163264353681433</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04143187029178969</v>
+        <v>0.05551809975862906</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01159156183702425</v>
+        <v>0.02455203177593433</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06824569426567545</v>
+        <v>0.09301183986084183</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01155151478730451</v>
+        <v>0.02442195802746831</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0231832922578969</v>
+        <v>0.02048081056920834</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01022085258819196</v>
+        <v>0.02596502690514025</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01645695055261959</v>
+        <v>0.0237278924430107</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01240815310593528</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04242883319744611</v>
+        <v>0.05789086685312969</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0123643326261592</v>
+        <v>0.02618883389432995</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07056814925008537</v>
+        <v>0.09448916071672792</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01232161577312481</v>
+        <v>0.02605008856263286</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.02290105149631997</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01077041815390852</v>
+        <v>0.02758784108671151</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0171757423556082</v>
+        <v>0.02430675209019079</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01318366267505624</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04379861100908103</v>
+        <v>0.05904262532196478</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01313710341529416</v>
+        <v>0.02782563601272557</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07264295890919958</v>
+        <v>0.0972132488501945</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01309171675894511</v>
+        <v>0.02767821909779741</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02750251866276988</v>
+        <v>0.02124612344694139</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01149845916171596</v>
+        <v>0.02921065526828278</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01748516602949962</v>
+        <v>0.02478949859965404</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01395917224417719</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04534096693995018</v>
+        <v>0.06084900323994927</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01390987420442911</v>
+        <v>0.02946243813112119</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07497003120768431</v>
+        <v>0.09926474637753074</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01386181774476541</v>
+        <v>0.02930634963296196</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03027533807271749</v>
+        <v>0.02155376849940185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01213726244847796</v>
+        <v>0.03083346944985405</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01808502550827677</v>
+        <v>0.02517027180691631</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01473468181329815</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04655566420330934</v>
+        <v>0.06198562868189811</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01468264499356405</v>
+        <v>0.03109924024951681</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07664927411020567</v>
+        <v>0.1007658887306068</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01463191873058571</v>
+        <v>0.03093448016812652</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03265942546998277</v>
+        <v>0.0218525444315636</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01277606573523995</v>
+        <v>0.03245628363142531</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0186751247259226</v>
+        <v>0.02530440259751793</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0155101913824191</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04754246601241427</v>
+        <v>0.06236669721925064</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01545541578269901</v>
+        <v>0.03273604236791244</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07788059558142985</v>
+        <v>0.1020817723844233</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01540201971640601</v>
+        <v>0.03256261070329108</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03379055466999208</v>
+        <v>0.02414046758867001</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01327902538943776</v>
+        <v>0.03407909781299658</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01905526761642005</v>
+        <v>0.02572870767462962</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01628570095154006</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04860113558052073</v>
+        <v>0.06319297140863891</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01622818657183396</v>
+        <v>0.03437284448630806</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07966390358602321</v>
+        <v>0.1026556087603469</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01617212070222631</v>
+        <v>0.03419074123845563</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03478216231389442</v>
+        <v>0.02341555431596446</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01405367230876395</v>
+        <v>0.03570191199456784</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01952525811375207</v>
+        <v>0.02604100671600648</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01706121052066101</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05023143612088449</v>
+        <v>0.06449238100232513</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01700095736096891</v>
+        <v>0.03600964660470368</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08229910608865171</v>
+        <v>0.1036787616951035</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01694222168804661</v>
+        <v>0.03581887177362018</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03554322754571864</v>
+        <v>0.0236758209586903</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01469247559552595</v>
+        <v>0.03732472617613911</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02008490015190161</v>
+        <v>0.02643911939940352</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01783672008978196</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05093313084676124</v>
+        <v>0.06495943741511576</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01777372815010386</v>
+        <v>0.0376464487230993</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08388611105398169</v>
+        <v>0.1054425950254191</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01771232267386692</v>
+        <v>0.03744700230878473</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03625549502089356</v>
+        <v>0.02291928386209092</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01533127888228794</v>
+        <v>0.03894754035771037</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02053399766485156</v>
+        <v>0.02652086540257587</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01861222965890292</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05210598297140684</v>
+        <v>0.06618865206181726</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01854649893923881</v>
+        <v>0.03928325084149492</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08542482644667948</v>
+        <v>0.1063384725880196</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01848242365968722</v>
+        <v>0.03907513284394928</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03692121488394522</v>
+        <v>0.02514395937140965</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01597008216904994</v>
+        <v>0.04057035453928164</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02077235458658494</v>
+        <v>0.02678406440327857</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01938773922802388</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05344975570807697</v>
+        <v>0.06657453635723604</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01931926972837376</v>
+        <v>0.04092005295989055</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08671516023141107</v>
+        <v>0.1075577582196311</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01925252464550752</v>
+        <v>0.04070326337911384</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03754263727939971</v>
+        <v>0.02334786383188988</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01660888545581194</v>
+        <v>0.0421931687208529</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02139977485108464</v>
+        <v>0.02722653607926674</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02016324879714483</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05456421227002745</v>
+        <v>0.06741160171617858</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02009204051750871</v>
+        <v>0.04255685507828617</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08835702037284276</v>
+        <v>0.1078918157569795</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02002262563132782</v>
+        <v>0.0423313939142784</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03812201235178312</v>
+        <v>0.02552901358877498</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01724768874257394</v>
+        <v>0.04381598290242417</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0217160623923336</v>
+        <v>0.0272461001082954</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02093875836626579</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05524911587051398</v>
+        <v>0.06739435955345133</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02086481130664366</v>
+        <v>0.04419365719668179</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08975031483564083</v>
+        <v>0.1090320090367908</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02079272661714812</v>
+        <v>0.04395952444944295</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03866159024562148</v>
+        <v>0.02368542498730832</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01788649202933593</v>
+        <v>0.04543879708399543</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02202102114431478</v>
+        <v>0.0276405761681197</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02171426793538674</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05610422972279236</v>
+        <v>0.06831732128386075</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02163758209577861</v>
+        <v>0.04583045931507741</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09119495158447138</v>
+        <v>0.109569701895791</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02156282760296842</v>
+        <v>0.0455876549846075</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03916362110544085</v>
+        <v>0.02381511437273327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01852529531609793</v>
+        <v>0.0470616112655667</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02261445504101116</v>
+        <v>0.02760778393649461</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0224897775045077</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05702931704011827</v>
+        <v>0.06877499832221329</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02241035288491356</v>
+        <v>0.04746726143347303</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09279083858400061</v>
+        <v>0.110896258170706</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02233292858878872</v>
+        <v>0.04721578551977205</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03963035507576734</v>
+        <v>0.02591609809029317</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01916409860285993</v>
+        <v>0.04868442544713797</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0227961680164056</v>
+        <v>0.0277455430911753</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02326528707362865</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05792414103574758</v>
+        <v>0.06946190208331537</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02318312367404851</v>
+        <v>0.04910406355186865</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09363788379889471</v>
+        <v>0.1110030416982618</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02310302957460902</v>
+        <v>0.04884391605493661</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04006404230112697</v>
+        <v>0.0249863924852314</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01980290188962193</v>
+        <v>0.05030723962870923</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0232659640044811</v>
+        <v>0.0279516733099168</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02404079664274961</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05908846492293601</v>
+        <v>0.06917254398197353</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02395589446318346</v>
+        <v>0.05074086567026428</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09513599519381993</v>
+        <v>0.1109814163151844</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02387313056042932</v>
+        <v>0.05047204659010116</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04046693292604584</v>
+        <v>0.02603008240349169</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02044170517638393</v>
+        <v>0.0519300538102805</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02372364693922056</v>
+        <v>0.0280239942704742</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02481630621187056</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05952205191493928</v>
+        <v>0.07000143543299409</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02472866525231841</v>
+        <v>0.0523776677886599</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09698508073344259</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02464323154624962</v>
+        <v>0.05210017712526572</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04084127709504998</v>
+        <v>0.02502858515843324</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02108050846314592</v>
+        <v>0.05355286799185176</v>
       </c>
       <c r="J98" t="n">
-        <v>0.024069020754607</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02559181578099151</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06042466522501314</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02550143604145336</v>
+        <v>0.05401446990705552</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09758504838242865</v>
+        <v>0.1120183941640338</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02541333253206992</v>
+        <v>0.05372830766043028</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04118932495266548</v>
+        <v>0.02501300788790143</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02171931174990792</v>
+        <v>0.05517568217342302</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02430188938462327</v>
+        <v>0.02796153755206554</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02636732535011247</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06139606806641343</v>
+        <v>0.06999201265134852</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02627420683058831</v>
+        <v>0.05565127202545114</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09923580610544452</v>
+        <v>0.1113912615779127</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02618343351789022</v>
+        <v>0.05535643819559483</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0415133266434184</v>
+        <v>0.02398135424468924</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02235811503666992</v>
+        <v>0.05679849635499429</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02472205676325236</v>
+        <v>0.02804216180816141</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02714283491923343</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06173602365239586</v>
+        <v>0.06956876456369479</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02704697761972326</v>
+        <v>0.05728807414384676</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1005372618671564</v>
+        <v>0.1109912627627592</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02695353450371053</v>
+        <v>0.05698456873075938</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0418155323118348</v>
+        <v>0.02593466967205884</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02299691832343191</v>
+        <v>0.05842131053656556</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02482932682447721</v>
+        <v>0.02810536592373841</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02791834448835438</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06274429519621619</v>
+        <v>0.07000022722805771</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02781974840885821</v>
+        <v>0.05892487626224238</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1015893236322303</v>
+        <v>0.111823600652308</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02772363548953082</v>
+        <v>0.05861269926592393</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04209819210244076</v>
+        <v>0.02487399961327241</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02363572161019391</v>
+        <v>0.06004412471813683</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02532350350228076</v>
+        <v>0.02805229899149665</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02869385405747533</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06312064591113017</v>
+        <v>0.06998929467530474</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02859251919799316</v>
+        <v>0.06056167838063801</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1019918993653326</v>
+        <v>0.1115928267536574</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02849373647535112</v>
+        <v>0.06024082980108849</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04236355615976233</v>
+        <v>0.02380038951159211</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02427452489695591</v>
+        <v>0.0616669388997081</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02560439073064595</v>
+        <v>0.02798411010413622</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02946936362659629</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06436483901039353</v>
+        <v>0.06973885954811493</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02936528998712811</v>
+        <v>0.06219848049903363</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1036448970311294</v>
+        <v>0.1111034925739062</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02926383746117142</v>
+        <v>0.06186896033625305</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0426138746283256</v>
+        <v>0.02371488481028015</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02491332818371791</v>
+        <v>0.06328975308127936</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02587179244355571</v>
+        <v>0.02770194835435716</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03024487319571724</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06447663770726206</v>
+        <v>0.06935181448916722</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03013806077626306</v>
+        <v>0.06383528261742925</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1036482245942871</v>
+        <v>0.110660149620153</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03003393844699172</v>
+        <v>0.0634970908714176</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0428513976526566</v>
+        <v>0.02361853095259866</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02555213147047991</v>
+        <v>0.06491256726285062</v>
       </c>
       <c r="J105" t="n">
-        <v>0.026025512574993</v>
+        <v>0.0278069628348596</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0310203827648382</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06555580521499152</v>
+        <v>0.06883105214114071</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03091083156539801</v>
+        <v>0.06547208473582487</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1050017900194717</v>
+        <v>0.1102673493994962</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03080403943281203</v>
+        <v>0.06512522140658215</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04307837537728141</v>
+        <v>0.02351237338180987</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0261909347572419</v>
+        <v>0.06653538144442188</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02626535505894076</v>
+        <v>0.02760030263834359</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03179589233395916</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06570210474683769</v>
+        <v>0.06867946514671439</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03168360235453296</v>
+        <v>0.06710888685422049</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1057055012713494</v>
+        <v>0.1096296434190345</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03157414041863232</v>
+        <v>0.0667533519417467</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04329705794672612</v>
+        <v>0.02439745754117594</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0268297380440039</v>
+        <v>0.06815819562599315</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02639112382938191</v>
+        <v>0.02748311685750923</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03257140190308011</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06631529951605625</v>
+        <v>0.06819994614856725</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03245637314366791</v>
+        <v>0.06874568897261611</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1069592663145865</v>
+        <v>0.1089515831858663</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03234424140445263</v>
+        <v>0.06838148247691125</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04350969550551678</v>
+        <v>0.02427482887395902</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0274685413307659</v>
+        <v>0.06978100980756442</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02670262282029942</v>
+        <v>0.02745655458505661</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03334691147220106</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06699515273590309</v>
+        <v>0.06859538778937838</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03322914393280287</v>
+        <v>0.07038249109101173</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1076629931138493</v>
+        <v>0.1081377202070903</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03311434239027293</v>
+        <v>0.07000961301207581</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04371853819817944</v>
+        <v>0.02414553282342131</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0281073446175279</v>
+        <v>0.07140382398913568</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02699965596567623</v>
+        <v>0.02732176491368581</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03412242104132202</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06744142761963384</v>
+        <v>0.06826868271182676</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03400191472193782</v>
+        <v>0.07201929320940736</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1082165896338038</v>
+        <v>0.1084926059898049</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03388444337609323</v>
+        <v>0.07163774354724035</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04392582976777484</v>
+        <v>0.02401061483282498</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02874614790428989</v>
+        <v>0.07302663817070694</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02718202719949528</v>
+        <v>0.02697989693609686</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03489793061044297</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06745388738050431</v>
+        <v>0.0678227235585914</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03477468551107276</v>
+        <v>0.07365609532780297</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1085199638391162</v>
+        <v>0.1070207920411088</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03465454436191353</v>
+        <v>0.07326587408240492</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04413221146058516</v>
+        <v>0.0228711203454322</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0293849511910519</v>
+        <v>0.07464945235227823</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02714954045573947</v>
+        <v>0.02683209974498993</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03567344017956393</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0677322952317703</v>
+        <v>0.06746040297235137</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03554745630020771</v>
+        <v>0.0752928974461986</v>
       </c>
       <c r="N111" t="n">
-        <v>0.108673023694453</v>
+        <v>0.1069268298681004</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03542464534773383</v>
+        <v>0.07489400461756947</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04433707193879721</v>
+        <v>0.02372809480450518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03002375447781389</v>
+        <v>0.07627226653384948</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02730199966839182</v>
+        <v>0.02677952243306503</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03644894974868489</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0682764143866875</v>
+        <v>0.06718461359578559</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03632022708934266</v>
+        <v>0.07692969956459422</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1088756771644801</v>
+        <v>0.1060152709778783</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03619474633355413</v>
+        <v>0.07652213515273402</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04454032219454595</v>
+        <v>0.02258258365330606</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03066255776457589</v>
+        <v>0.07789508071542074</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02753920877143522</v>
+        <v>0.02662331409302229</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03722445931780585</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06898600805851166</v>
+        <v>0.06619824807157321</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03709299787847761</v>
+        <v>0.07856650168298984</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1097278322138637</v>
+        <v>0.1054906668775412</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03696484731937443</v>
+        <v>0.07815026568789857</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04474187321996636</v>
+        <v>0.02243563233509704</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03130136105133789</v>
+        <v>0.07951789489699201</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02776097169885261</v>
+        <v>0.02646462381756176</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03799996888692679</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0692608394604986</v>
+        <v>0.06610419904239315</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03786576866761256</v>
+        <v>0.08020330380138546</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1101293968072703</v>
+        <v>0.1048575690741875</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03773494830519473</v>
+        <v>0.07977839622306312</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04494163600719337</v>
+        <v>0.02228828629314027</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03194016433809988</v>
+        <v>0.08114070907856327</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02766709238462695</v>
+        <v>0.02640460069938357</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03877547845604775</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06930067180590405</v>
+        <v>0.06600535915092445</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03863853945674751</v>
+        <v>0.08184010591978109</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1110802789093658</v>
+        <v>0.1040205290749158</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03850504929101504</v>
+        <v>0.08140652675822768</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04513952154836199</v>
+        <v>0.02414159097069796</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03257896762486188</v>
+        <v>0.08276352326013454</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0279573747627412</v>
+        <v>0.02604439383118773</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03955098802516871</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06950526830798376</v>
+        <v>0.0652046210398462</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03941131024588247</v>
+        <v>0.08347690803817671</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1108803864848165</v>
+        <v>0.1040840983868246</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03927515027683533</v>
+        <v>0.08303465729339224</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04533544083560715</v>
+        <v>0.02399658533904437</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03321777091162387</v>
+        <v>0.0843863374417058</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02793162276717824</v>
+        <v>0.0258851523056744</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04032649759428966</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06967439217999347</v>
+        <v>0.06490487735183736</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04018408103501742</v>
+        <v>0.08511371015657233</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1106296274982888</v>
+        <v>0.1026528285170126</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04004525126265563</v>
+        <v>0.0846627878285568</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0455293048610638</v>
+        <v>0.02384060268427075</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03385657419838588</v>
+        <v>0.08600915162327707</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02808964033192107</v>
+        <v>0.02572708287093051</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04110200716341061</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="L118" t="n">
-        <v>0.069707806635189</v>
+        <v>0.06440902072957697</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04095685182415237</v>
+        <v>0.08675051227496795</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1112279099144485</v>
+        <v>0.1026142806682117</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04081535224847593</v>
+        <v>0.08629091836372134</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04572102461686692</v>
+        <v>0.02366371459055878</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03449537748514787</v>
+        <v>0.08763196580484835</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02803123139095262</v>
+        <v>0.02565174371929134</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04187751673253157</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06950527488682606</v>
+        <v>0.06409865036486853</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04172962261328732</v>
+        <v>0.08838731439336357</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1117751416979622</v>
+        <v>0.1012904575599731</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04158545323429624</v>
+        <v>0.0879190488988859</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04591051109515148</v>
+        <v>0.02146932723702395</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03513418077190987</v>
+        <v>0.08925477998641961</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.02545443242205732</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04265302630165253</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0701920153747462</v>
+        <v>0.06363065622389413</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04250239340242227</v>
+        <v>0.09002411651175919</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.1013836760944216</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04235555422011653</v>
+        <v>0.08954717943405045</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04609767528805239</v>
+        <v>0.02226084680278171</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03577298405867187</v>
+        <v>0.09087759416799086</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0280643514086141</v>
+        <v>0.02513889286060238</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04342853587077348</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06999142563244781</v>
+        <v>0.06341240313670587</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04327516419155721</v>
+        <v>0.09166091863015481</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1117160852257158</v>
+        <v>0.09990876562574968</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04312565520593684</v>
+        <v>0.09117530996921501</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04628242818770469</v>
+        <v>0.02204167946694751</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03641178734543387</v>
+        <v>0.09250040834956214</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02796035021073831</v>
+        <v>0.02490886891630045</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04420404543989444</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06988328309947706</v>
+        <v>0.06235331567892466</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04404793498069217</v>
+        <v>0.09329772074855044</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1120136677787127</v>
+        <v>0.09958055550815015</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04389575619175714</v>
+        <v>0.09280344050437957</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04646468078624327</v>
+        <v>0.02181523140863684</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03705059063219587</v>
+        <v>0.09412322253113339</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02804880933207207</v>
+        <v>0.02476810447052544</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04497955500901539</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06974956886730094</v>
+        <v>0.0615628184261714</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04482070576982712</v>
+        <v>0.09493452286694606</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1111795124567646</v>
+        <v>0.09771387509581531</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04466585717757744</v>
+        <v>0.09443157103954411</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04664434407580312</v>
+        <v>0.02258490880696517</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03768939391895786</v>
+        <v>0.09574603671270467</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02802997664794073</v>
+        <v>0.02452034340465127</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04575506457813634</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06979141170143716</v>
+        <v>0.06125033595406709</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04559347655896206</v>
+        <v>0.09657132498534168</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1110159277946721</v>
+        <v>0.09712355374293763</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04543595816339774</v>
+        <v>0.09605970157470867</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0468213290485192</v>
+        <v>0.02135411784104795</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03832819720571986</v>
+        <v>0.09736885089427594</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02810410003366966</v>
+        <v>0.02426932960005188</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0465305741472573</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06940977261890585</v>
+        <v>0.06062529283823273</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04636624734809702</v>
+        <v>0.0982081271037373</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1112237968192227</v>
+        <v>0.09622442080370974</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04620605914921803</v>
+        <v>0.09768783210987322</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04699554669652647</v>
+        <v>0.02112626469000067</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03896700049248186</v>
+        <v>0.0989916650758472</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02797142736458426</v>
+        <v>0.02401880693810117</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04730608371637825</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06960561263672732</v>
+        <v>0.06009711365428913</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04713901813723197</v>
+        <v>0.09984492922213294</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1113040025572039</v>
+        <v>0.09503130563232409</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04697616013503834</v>
+        <v>0.09931596264503777</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04716690801195991</v>
+        <v>0.02090475553293878</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03960580377924385</v>
+        <v>0.1006144792574185</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0278322065160099</v>
+        <v>0.02367251930017308</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04808159328549921</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0691798927719218</v>
+        <v>0.05907522297785731</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04791178892636692</v>
+        <v>0.1014817313405286</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1109574280354028</v>
+        <v>0.09415903758297328</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04774626112085864</v>
+        <v>0.1009440931802023</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04733532398695444</v>
+        <v>0.02069299654897776</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04024460706600586</v>
+        <v>0.1022372934389897</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02798668536327197</v>
+        <v>0.02353421056764153</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04885710285462017</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06923357404150951</v>
+        <v>0.05916904538455819</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04868455971550187</v>
+        <v>0.1031185334589242</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1113849562806071</v>
+        <v>0.0930224460098496</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04851636210667894</v>
+        <v>0.1025722237153669</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04750070561364506</v>
+        <v>0.0214804449785256</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04088341035276785</v>
+        <v>0.103860107620561</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02773511178169581</v>
+        <v>0.02330714574605655</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04963261242374112</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06946761746251071</v>
+        <v>0.05858800545001275</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04945733050463682</v>
+        <v>0.1047553355773198</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1113874703196039</v>
+        <v>0.09262200074278881</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04928646309249924</v>
+        <v>0.1042003542505314</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04766296388416669</v>
+        <v>0.02024816057736702</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04152221363952985</v>
+        <v>0.1054829218021323</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02777773364660685</v>
+        <v>0.02306939738280561</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05040812199286208</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06918298405194565</v>
+        <v>0.05751616784058561</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05023010129377177</v>
+        <v>0.1063921376957154</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1107658531791809</v>
+        <v>0.0919530044462098</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05005656407831954</v>
+        <v>0.105828484785696</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04782200979065433</v>
+        <v>0.02100066031704102</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04216101692629184</v>
+        <v>0.1071057359837035</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02771479883333043</v>
+        <v>0.02291125697142404</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05118363156198303</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06858063482683452</v>
+        <v>0.05729179354417466</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05100287208290671</v>
+        <v>0.108028939814111</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1100209878861251</v>
+        <v>0.0905086912970548</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05082666506413985</v>
+        <v>0.1074566153208606</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04797775432524293</v>
+        <v>0.01974282014394919</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04279982021305384</v>
+        <v>0.1087285501652748</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02764655521719195</v>
+        <v>0.02253808387919536</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05195914113110398</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06856153080419761</v>
+        <v>0.05632371993685967</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05177564287204167</v>
+        <v>0.1096657419325067</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1097537574672242</v>
+        <v>0.08971028952019483</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05159676604996014</v>
+        <v>0.1090847458560251</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04813010848006746</v>
+        <v>0.02047951600449317</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04343862349981584</v>
+        <v>0.110351364346846</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02747325067351676</v>
+        <v>0.02225523747340312</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05273465070022494</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06832663300105515</v>
+        <v>0.05532543830140305</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05254841366117662</v>
+        <v>0.1113025440509023</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1100650449492654</v>
+        <v>0.08857902734050072</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05236686703578045</v>
+        <v>0.1107128763911897</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04827898324726284</v>
+        <v>0.02021562384507462</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04407742678657783</v>
+        <v>0.1119741785284173</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02739513307763027</v>
+        <v>0.02196807712133088</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05351016026934589</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06827690243442733</v>
+        <v>0.05491043992056704</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05332118445031157</v>
+        <v>0.1129393461692979</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1094557333590362</v>
+        <v>0.08693613298284325</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05313696802160074</v>
+        <v>0.1123410069263542</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04842428961896406</v>
+        <v>0.01995601961209517</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04471623007333984</v>
+        <v>0.1135969927099886</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02751245030485783</v>
+        <v>0.02178196219026218</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05428566983846685</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06801330012133447</v>
+        <v>0.05439221607711406</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05409395523944652</v>
+        <v>0.1145761482876935</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1090267057233239</v>
+        <v>0.08580283467209326</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05390706900742105</v>
+        <v>0.1139691374615188</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04856593858730609</v>
+        <v>0.01970557925195644</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04535503336010183</v>
+        <v>0.1152198068915599</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02742545023052483</v>
+        <v>0.02130225204748055</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05506117940758781</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06733678707879676</v>
+        <v>0.05348425805380636</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05486672602858148</v>
+        <v>0.1162129504060892</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1090788450689159</v>
+        <v>0.08540036063312162</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05467716999324135</v>
+        <v>0.1155972679966833</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04870384114442387</v>
+        <v>0.01746917871106008</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04599383664686383</v>
+        <v>0.1168426210731311</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02713438072995664</v>
+        <v>0.02123430606026958</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05583668897670876</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06704832432383442</v>
+        <v>0.05290005713340629</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05563949681771643</v>
+        <v>0.1178497525244848</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1084130344225996</v>
+        <v>0.08394993909079934</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05544727097906164</v>
+        <v>0.1172253985318479</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04883790828245237</v>
+        <v>0.01725169393580772</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04663263993362583</v>
+        <v>0.1184654352547024</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02713948967847866</v>
+        <v>0.02098348359591276</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05661219854582972</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06694887287346779</v>
+        <v>0.05215310459867609</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05641226760685137</v>
+        <v>0.1194865546428804</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1085301568111624</v>
+        <v>0.08307279826999703</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05621737196488195</v>
+        <v>0.1188535290670124</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04896805099352656</v>
+        <v>0.01905800087260101</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04727144322038783</v>
+        <v>0.1200882494362737</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02694102495141625</v>
+        <v>0.02075514402169366</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05738770811495067</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06673939374471699</v>
+        <v>0.0518568917323782</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05718503839598633</v>
+        <v>0.121123356761276</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1082310952613916</v>
+        <v>0.08189016639558572</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05698747295070224</v>
+        <v>0.120481659602177</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0490941802697814</v>
+        <v>0.01689297546784156</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04791024650714983</v>
+        <v>0.1217110636178449</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0270392344240948</v>
+        <v>0.02045464670489584</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05816321768407162</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06622084795460231</v>
+        <v>0.05072490981727482</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05795780918512127</v>
+        <v>0.1227601588796716</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1072167328000747</v>
+        <v>0.08122327169243626</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05775757393652255</v>
+        <v>0.1221097901373415</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04921620710335182</v>
+        <v>0.01776149366793102</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04854904979391182</v>
+        <v>0.1233338777994162</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02693436597183964</v>
+        <v>0.02038735101280283</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05893872725319258</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06629419652014404</v>
+        <v>0.05097065013612836</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05873057997425622</v>
+        <v>0.1243969609980673</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1065879524539989</v>
+        <v>0.08049334238541939</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05852767492234285</v>
+        <v>0.1237379206725061</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0493340424863728</v>
+        <v>0.01866843141927103</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04918785308067382</v>
+        <v>0.1249566919809875</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02682666746997621</v>
+        <v>0.02025861631269815</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05971423682231353</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06586040045836233</v>
+        <v>0.0504076039717011</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05950335076339117</v>
+        <v>0.1260337631164629</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1064456372499518</v>
+        <v>0.07972160669940603</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05929777590816315</v>
+        <v>0.1253660512076706</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04944759741097935</v>
+        <v>0.01661866466826322</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04982665636743582</v>
+        <v>0.1265795061625587</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02671638679382986</v>
+        <v>0.01997380197186539</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06048974639143449</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06502042078627748</v>
+        <v>0.05034926260675537</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06027612155252612</v>
+        <v>0.1276705652348585</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1063906702147207</v>
+        <v>0.07992929285926703</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06006787689398345</v>
+        <v>0.1269941817428352</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04955678286930634</v>
+        <v>0.01761230187542287</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05046545965419782</v>
+        <v>0.12820232034413</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02650377181872597</v>
+        <v>0.01993826735758809</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06126525596055545</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06477521852090967</v>
+        <v>0.04990911732405354</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06104889234166107</v>
+        <v>0.1293073673532541</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1056239343750928</v>
+        <v>0.07993715100167148</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06083797787980375</v>
+        <v>0.1286223122779997</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04966150985348879</v>
+        <v>0.01861926265047503</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05110426294095981</v>
+        <v>0.1298251345257012</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02648907041998992</v>
+        <v>0.02004029428910717</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0620407655296764</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06472575467927921</v>
+        <v>0.04968919976519454</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06182166313079603</v>
+        <v>0.1309441694716497</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1051463127578557</v>
+        <v>0.08005518547020157</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06160807886562406</v>
+        <v>0.1302504428131643</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04976168935566164</v>
+        <v>0.01863310377118546</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05174306622772181</v>
+        <v>0.1314479487072725</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02637253047294709</v>
+        <v>0.02015073329697629</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06281627509879735</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06397299027840633</v>
+        <v>0.05000771964393555</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06259443391993097</v>
+        <v>0.1325809715900454</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1044586883897969</v>
+        <v>0.07940368294113698</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06237817985144436</v>
+        <v>0.1318785733483288</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04985723236795988</v>
+        <v>0.01665346695478873</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05238186951448381</v>
+        <v>0.1330707628888438</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02605439985292285</v>
+        <v>0.02006854648347453</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06359178466791832</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06371788633531122</v>
+        <v>0.04974513091261834</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06336720470906591</v>
+        <v>0.134217773708441</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1037619442977035</v>
+        <v>0.07978108357224695</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06314828083726465</v>
+        <v>0.1335067038834934</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04994804988251842</v>
+        <v>0.0186799939185194</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0530206728012458</v>
+        <v>0.134693577070415</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02593492643524258</v>
+        <v>0.02009334004424615</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06436729423703927</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06316140386701416</v>
+        <v>0.05030044223669988</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06413997549820087</v>
+        <v>0.1358545758268366</v>
       </c>
       <c r="N148" t="n">
-        <v>0.103156963508363</v>
+        <v>0.08038582752130075</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06391838182308496</v>
+        <v>0.135134834418658</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05003405289147227</v>
+        <v>0.01871232637961201</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05365947608800781</v>
+        <v>0.1363163912519863</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02581435809523164</v>
+        <v>0.02012472017493538</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06514280380616022</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06330450389053541</v>
+        <v>0.05037266228163734</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06491274628733583</v>
+        <v>0.1374913779452322</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1025446290485627</v>
+        <v>0.08021635494606766</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06468848280890525</v>
+        <v>0.1367629649538225</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05011515238695637</v>
+        <v>0.01775010605530113</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0542982793747698</v>
+        <v>0.1379392054335576</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02589294270821545</v>
+        <v>0.02006229307118651</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06591831337528117</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06294814742289517</v>
+        <v>0.05016079971288773</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06568551707647079</v>
+        <v>0.1391281800636278</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1026258239450901</v>
+        <v>0.07997110600431689</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06545858379472556</v>
+        <v>0.1383910954889871</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05019125936110568</v>
+        <v>0.01779297466282132</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0549370826615318</v>
+        <v>0.1395620196151288</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02557092814951935</v>
+        <v>0.02030566492864376</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06669382294440213</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06219329548111369</v>
+        <v>0.04986386319590813</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06645828786560573</v>
+        <v>0.1407649821820235</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1017014312247326</v>
+        <v>0.08064852085381774</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06622868478054586</v>
+        <v>0.1400192260241516</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05026228480605516</v>
+        <v>0.01784057391940714</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05557588594829379</v>
+        <v>0.1411848337967001</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02564856229446873</v>
+        <v>0.0203544419429514</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06746933251352309</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06184090908221118</v>
+        <v>0.0501808613961556</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06723105865474067</v>
+        <v>0.1424017843004191</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1015723339142774</v>
+        <v>0.08034703965233947</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06699878576636616</v>
+        <v>0.1416473565593162</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05032813971393978</v>
+        <v>0.01889254554229315</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0562146892350558</v>
+        <v>0.1428076479782714</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02542609301838898</v>
+        <v>0.02020823030975365</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06824484208264404</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06189194924320793</v>
+        <v>0.05061080297908721</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06800382944387563</v>
+        <v>0.1440385864188147</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1009394150405121</v>
+        <v>0.08106510255765131</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06776888675218645</v>
+        <v>0.1432754870944807</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0503887350768945</v>
+        <v>0.01894853124871392</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0568534925218178</v>
+        <v>0.1444304621598426</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02520376819660546</v>
+        <v>0.0202666362246948</v>
       </c>
       <c r="K154" t="n">
-        <v>0.069020351651765</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06124737698112415</v>
+        <v>0.05025269661016002</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06877660023301058</v>
+        <v>0.1456753885372103</v>
       </c>
       <c r="N154" t="n">
-        <v>0.100903557630224</v>
+        <v>0.08150114972752254</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06853898773800675</v>
+        <v>0.1449036176296453</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05044398188705426</v>
+        <v>0.01700817275590399</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05749229580857979</v>
+        <v>0.1460532763414139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02528183570444356</v>
+        <v>0.02052926588341908</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06979586122088595</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0607081533129801</v>
+        <v>0.05090555095483115</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06954937102214552</v>
+        <v>0.1473121906556059</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1002656447102004</v>
+        <v>0.08105362131972232</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06930908872382706</v>
+        <v>0.1465317481648098</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05049379113655402</v>
+        <v>0.01807495637279039</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05813109909534178</v>
+        <v>0.1476760905229852</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02496054341722864</v>
+        <v>0.02039572548157075</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0705713707900069</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06077523925579603</v>
+        <v>0.0507683746785576</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07032214181128048</v>
+        <v>0.1489489927740016</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09972655930722885</v>
+        <v>0.08212095749202003</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07007918970964737</v>
+        <v>0.1481598786999744</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05053807381752878</v>
+        <v>0.01919133973081915</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05876990238210379</v>
+        <v>0.1492989047045565</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02494013921028609</v>
+        <v>0.02068626328324889</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07134688035912785</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06014959582659216</v>
+        <v>0.05145561314436919</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07109491260041542</v>
+        <v>0.1505857948923972</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09888718444809652</v>
+        <v>0.08253256228184624</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07084929069546766</v>
+        <v>0.1497880092351389</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05057674092211348</v>
+        <v>0.01936066160549758</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05940870566886578</v>
+        <v>0.1509217188861277</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02481716932210305</v>
+        <v>0.02083964263832343</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07212238992824882</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05992495097770265</v>
+        <v>0.05178504976881498</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07186768338955037</v>
+        <v>0.1522225970107928</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09821997741603722</v>
+        <v>0.08239033922184796</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07161939168128796</v>
+        <v>0.1514161397703035</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05060970344244307</v>
+        <v>0.0195721063048833</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06004750895562778</v>
+        <v>0.152544533067699</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02468555305433731</v>
+        <v>0.02104566789069127</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07289789949736977</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05948951504294664</v>
+        <v>0.0515571491497118</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07264045417868532</v>
+        <v>0.1538593991291884</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09768129117267949</v>
+        <v>0.08334720409942126</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07238949266710826</v>
+        <v>0.153044270305468</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05063687237065252</v>
+        <v>0.01981485813703397</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06068631224238977</v>
+        <v>0.1541673472492702</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0245456075494561</v>
+        <v>0.02129245103733311</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07367340906649072</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05904362944447469</v>
+        <v>0.05224198528987972</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07341322496782028</v>
+        <v>0.1554962012475841</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09627452378485474</v>
+        <v>0.08405606904243335</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07315959365292857</v>
+        <v>0.1546724008406326</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05065815869887679</v>
+        <v>0.01807810141000721</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06132511552915177</v>
+        <v>0.1557901614308415</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02439776629657822</v>
+        <v>0.02146810407522956</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07444891863561169</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05918785604500079</v>
+        <v>0.05330963219213891</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07418599575695523</v>
+        <v>0.1571330033659797</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09620374039289575</v>
+        <v>0.08546984617875159</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07392969463874886</v>
+        <v>0.1563005313757971</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05067347341925085</v>
+        <v>0.01835102043186066</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06196391881591377</v>
+        <v>0.1574129756124127</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02414246278482249</v>
+        <v>0.02186073900136129</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07522442820473263</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05862275670723893</v>
+        <v>0.05393016385930946</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07495876654609018</v>
+        <v>0.1587698054843753</v>
       </c>
       <c r="N162" t="n">
-        <v>0.095473006137136</v>
+        <v>0.08724144763624309</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07469979562456916</v>
+        <v>0.1579286619109617</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05068272752390964</v>
+        <v>0.01962279951065197</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06260272210267577</v>
+        <v>0.159035789793984</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02398013050330769</v>
+        <v>0.02195846781270894</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07599993777385358</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05794889329390307</v>
+        <v>0.05477365429421155</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07573153733522513</v>
+        <v>0.1604066076027709</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09478638615790846</v>
+        <v>0.08762378554277511</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07546989661038946</v>
+        <v>0.1595567924461262</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05068583200498814</v>
+        <v>0.02088262295443874</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06324152538943777</v>
+        <v>0.1606586039755553</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02391120294115263</v>
+        <v>0.02224940250625318</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07677544734297455</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05796682766770714</v>
+        <v>0.05511017749966526</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07650430812436008</v>
+        <v>0.1620434097211666</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09364794559554629</v>
+        <v>0.08956977202621497</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07623999759620977</v>
+        <v>0.1611849229812908</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05068583200498814</v>
+        <v>0.02111967507127863</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06324152538943777</v>
+        <v>0.1622814181571265</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02383611358747614</v>
+        <v>0.02262165507897468</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0775509569120955</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05737712169136513</v>
+        <v>0.05590980747849067</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07727707891349503</v>
+        <v>0.1636802118395622</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09186174959038274</v>
+        <v>0.09003231921442989</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07701009858203008</v>
+        <v>0.1628130535164554</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04982198240451249</v>
+        <v>0.01932439159116021</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06324125686097375</v>
+        <v>0.1639042323386978</v>
       </c>
       <c r="J166" t="n">
-        <v>0.023455295931397</v>
+        <v>0.02296333752785404</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07832646648121647</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05738033722759106</v>
+        <v>0.05654261823350804</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07804984970262997</v>
+        <v>0.1653170139579578</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09163186328275086</v>
+        <v>0.09056433923528701</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07778019956785037</v>
+        <v>0.1644411840516199</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04896786111561128</v>
+        <v>0.01951482882041428</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06324098833250974</v>
+        <v>0.1655270465202691</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02326918346203402</v>
+        <v>0.02307447756838141</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07910197605033742</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05657703613909881</v>
+        <v>0.05708784381843537</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07882262049176493</v>
+        <v>0.1669538160763534</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08986235181298385</v>
+        <v>0.09149507796152567</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07855030055367067</v>
+        <v>0.1660693145867845</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04812393742584855</v>
+        <v>0.02070061562850248</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06324071980404571</v>
+        <v>0.1671498607018403</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02317820966850599</v>
+        <v>0.02317907328464462</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07987748561945836</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05596778028860239</v>
+        <v>0.05780360585933583</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07959539128089987</v>
+        <v>0.168590618194749</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08935728032141482</v>
+        <v>0.09220485616227775</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07932040153949096</v>
+        <v>0.167697445121949</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04729068062289832</v>
+        <v>0.02088209512172608</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0632404512755817</v>
+        <v>0.1687726748834116</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02288280803993174</v>
+        <v>0.02357877009461476</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08065299518857932</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05615313153881579</v>
+        <v>0.05790677297032279</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08036816207003483</v>
+        <v>0.1702274203131447</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08792071394837697</v>
+        <v>0.09359547474935553</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08009050252531126</v>
+        <v>0.1693255756571136</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04646855999432416</v>
+        <v>0.02005961040638642</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06324018274711768</v>
+        <v>0.1703954890649829</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02268341206543006</v>
+        <v>0.02367394512152785</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08142850475770028</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05533365175245292</v>
+        <v>0.05889829449409756</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08114093285916979</v>
+        <v>0.1718642224315403</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08715671783420337</v>
+        <v>0.09486842749178748</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08086060351113157</v>
+        <v>0.1709537061922781</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04565804482772661</v>
+        <v>0.02223350458878478</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06323991421865367</v>
+        <v>0.1720183032465541</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02268045523411977</v>
+        <v>0.02396497548862002</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08220401432682123</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05490990279222774</v>
+        <v>0.05887911977336147</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08191370364830473</v>
+        <v>0.1735010245499359</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08536935711922727</v>
+        <v>0.094925208158602</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08163070449695187</v>
+        <v>0.1725818367274427</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04485960441067175</v>
+        <v>0.02040412077522247</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06323964569018964</v>
+        <v>0.1736411174281254</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02237437103511965</v>
+        <v>0.02415223831912736</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08297952389594219</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05438244652085431</v>
+        <v>0.05965019815081579</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08268647443743968</v>
+        <v>0.1751378266683315</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08406269694378182</v>
+        <v>0.0963673105188273</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08240080548277218</v>
+        <v>0.1742099672626073</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0440737080308296</v>
+        <v>0.02057180207200079</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06323937716172563</v>
+        <v>0.1752639316096967</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02216559295754851</v>
+        <v>0.02433611073628593</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08375503346506315</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05445184480104653</v>
+        <v>0.06041247896916196</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08345924522657464</v>
+        <v>0.1767746287867271</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08364080244820016</v>
+        <v>0.0960962283414919</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08317090646859247</v>
+        <v>0.1758380977977718</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0433008249757657</v>
+        <v>0.02273689158542106</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06323910863326161</v>
+        <v>0.176886745791268</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02205455449052519</v>
+        <v>0.02441696986333186</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0845305430341841</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05341865949551836</v>
+        <v>0.06096691157110118</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08423201601570958</v>
+        <v>0.1784114309051228</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08180773877281522</v>
+        <v>0.09691345539562407</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08394100745441277</v>
+        <v>0.1774662283329363</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04254142453308058</v>
+        <v>0.02289973242178456</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06323884010479759</v>
+        <v>0.1785095599728392</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02174168912316843</v>
+        <v>0.02469519282350123</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08530605260330505</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0534834524669838</v>
+        <v>0.06121444529933484</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08500478680484454</v>
+        <v>0.1800482330235184</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0803675710579605</v>
+        <v>0.09772048545025214</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08471110844023307</v>
+        <v>0.1790943588681009</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04179597599034266</v>
+        <v>0.02106066768739263</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06323857157633357</v>
+        <v>0.1801323741544105</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02162743034459709</v>
+        <v>0.02467115674003009</v>
       </c>
       <c r="K176" t="n">
-        <v>0.086081562172426</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05284678557815681</v>
+        <v>0.06165602949656424</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08577755759397948</v>
+        <v>0.181685035141914</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07902436444396893</v>
+        <v>0.09811881227440455</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08548120942605338</v>
+        <v>0.1807224894032655</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04106494863521735</v>
+        <v>0.02322004048854653</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06323830304786955</v>
+        <v>0.1817551883359817</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02121221164392993</v>
+        <v>0.02494523873615459</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08685707174154696</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05270922069175138</v>
+        <v>0.06189261350549072</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08655032838311442</v>
+        <v>0.1833218372603096</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0788821840711737</v>
+        <v>0.09960992963710952</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08625131041187367</v>
+        <v>0.18235061993843</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04034881175527247</v>
+        <v>0.02238361492385357</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06323803451940554</v>
+        <v>0.183378002517553</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02099646651028579</v>
+        <v>0.02521934408267007</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08763258131066792</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05167131967048139</v>
+        <v>0.06222561514645689</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08732309917224938</v>
+        <v>0.1849586393787053</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07724509507990801</v>
+        <v>0.09950675016994476</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08702141139769397</v>
+        <v>0.1839787504735946</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03964803463810853</v>
+        <v>0.02355611422790457</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06323776599094152</v>
+        <v>0.1850008166991243</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02078062843278347</v>
+        <v>0.02540335170208019</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08840809087978888</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05153364437706087</v>
+        <v>0.06317825364686758</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08809586996138434</v>
+        <v>0.1865954414971009</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07551716261050501</v>
+        <v>0.1002444988920432</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08779151238351428</v>
+        <v>0.1856068810087591</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03896308657129665</v>
+        <v>0.02373173463159935</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0632374974624775</v>
+        <v>0.1866236308806955</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02066513090054176</v>
+        <v>0.02539365118403343</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08918360044890983</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05119675667420381</v>
+        <v>0.06295130030541768</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08886864075051928</v>
+        <v>0.1882322436154965</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07520245180329777</v>
+        <v>0.1014029135180753</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08856161336933457</v>
+        <v>0.1872350115439237</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03829443684249696</v>
+        <v>0.02290458217382783</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06323722893401348</v>
+        <v>0.1882464450622668</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02045040740267946</v>
+        <v>0.02578376421647668</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08995911001803078</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0503612184246241</v>
+        <v>0.06352844708888103</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08964141153965424</v>
+        <v>0.1898690457338921</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07350502779861945</v>
+        <v>0.1021563337307365</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08933171435515488</v>
+        <v>0.1888631420790882</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03764255473927986</v>
+        <v>0.02406876289347986</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06323696040554948</v>
+        <v>0.1898692592438381</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02033689142831542</v>
+        <v>0.02586721248735684</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09073461958715173</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05042759149103579</v>
+        <v>0.06429338596403153</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09041418232878919</v>
+        <v>0.1915058478522877</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07232895573680331</v>
+        <v>0.1024790992127225</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09010181534097518</v>
+        <v>0.1904912726142528</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03700790954924588</v>
+        <v>0.02321838282944533</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06323669187708546</v>
+        <v>0.1914920734254093</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02002501646656837</v>
+        <v>0.02593751768462076</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09151012915627268</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05009643773615285</v>
+        <v>0.06482980889764306</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09118695311792413</v>
+        <v>0.1931426499706834</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07057830075818239</v>
+        <v>0.1038455496467285</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09087191632679548</v>
+        <v>0.1921194031494173</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03639097055996911</v>
+        <v>0.0243475480206141</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06323642334862144</v>
+        <v>0.1931148876069806</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01991521600655718</v>
+        <v>0.02608820149621535</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09228563872539365</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04926831902268913</v>
+        <v>0.06472140785648936</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09195972390705909</v>
+        <v>0.194779452089079</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0694571280030899</v>
+        <v>0.1043300247154502</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09164201731261577</v>
+        <v>0.1937475336845819</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0357922070591038</v>
+        <v>0.02345036450587609</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06323615482015742</v>
+        <v>0.1947377017885519</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01960792353740062</v>
+        <v>0.02621278561008747</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0930611482945146</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04914379721335871</v>
+        <v>0.06525187480734448</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09273249469619403</v>
+        <v>0.1964162542074746</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06876950261185893</v>
+        <v>0.105006864101583</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09241211829843607</v>
+        <v>0.1953756642197464</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03521208833422326</v>
+        <v>0.02452277563924273</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06323588629169341</v>
+        <v>0.1963605159701231</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01950357254821751</v>
+        <v>0.02640479171418403</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09383665786363556</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04882343417087556</v>
+        <v>0.0659049017169821</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09350526548532898</v>
+        <v>0.1980530563258702</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06781948972482271</v>
+        <v>0.1055507373743398</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09318221928425638</v>
+        <v>0.197003794754911</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.034651083672928</v>
+        <v>0.02458610796441555</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06323561776322939</v>
+        <v>0.1979833301516944</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01920259652812663</v>
+        <v>0.02637442730244688</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09461216743275651</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04820779175795353</v>
+        <v>0.06558529617149764</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09427803627446393</v>
+        <v>0.1996898584442659</v>
       </c>
       <c r="N187" t="n">
-        <v>0.06701115448231432</v>
+        <v>0.1052261652159929</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09395232027007668</v>
+        <v>0.1986319252900755</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03410966236279545</v>
+        <v>0.02264806254537004</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06323534923476537</v>
+        <v>0.1996061443332657</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01910542896624681</v>
+        <v>0.02654241943889167</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09538767700187746</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04789743183730671</v>
+        <v>0.0661562787215644</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09505080706359888</v>
+        <v>0.2013266605626615</v>
       </c>
       <c r="N188" t="n">
-        <v>0.06554856202466691</v>
+        <v>0.1050956381537508</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09472242125589699</v>
+        <v>0.2002600558252401</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03358829369147327</v>
+        <v>0.02270861769153177</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06323508070630135</v>
+        <v>0.2012289585148369</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01881250335169683</v>
+        <v>0.02670889091191009</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09616318657099843</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04709291627164905</v>
+        <v>0.06582346123795429</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09582357785273383</v>
+        <v>0.2029634626810571</v>
       </c>
       <c r="N189" t="n">
-        <v>0.06533577749221375</v>
+        <v>0.1058590617541738</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09549252224171728</v>
+        <v>0.2018881863604046</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03308553068883598</v>
+        <v>0.02476775171232631</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06323481217783733</v>
+        <v>0.2028517726964082</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01862425317359553</v>
+        <v>0.02657381788043714</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09693869614011938</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04659480692369447</v>
+        <v>0.06648678370489836</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09659634864186879</v>
+        <v>0.2046002647994527</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06417686602528788</v>
+        <v>0.1056163415838215</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09626262322753758</v>
+        <v>0.2035163168955692</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03259034509627081</v>
+        <v>0.02382544291717919</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06323454364937332</v>
+        <v>0.2044745868779795</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01854111192106171</v>
+        <v>0.02673717650340787</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09771420570924033</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04680366565615696</v>
+        <v>0.06614618610662748</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09736911943100374</v>
+        <v>0.2062370669178483</v>
       </c>
       <c r="N191" t="n">
-        <v>0.06277589276422241</v>
+        <v>0.1068673832092545</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09703272421335789</v>
+        <v>0.2051444474307338</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03210128994365471</v>
+        <v>0.02488166961551602</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06323427512090929</v>
+        <v>0.2060974010595507</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01826351308321413</v>
+        <v>0.0266989429397573</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0984897152783613</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04622005433175047</v>
+        <v>0.0663016084273727</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09814189022013869</v>
+        <v>0.207873869036244</v>
       </c>
       <c r="N192" t="n">
-        <v>0.06213692284935057</v>
+        <v>0.1070120921970324</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09780282519917818</v>
+        <v>0.2067725779658983</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03161883451863088</v>
+        <v>0.02293641011676229</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06323400659244528</v>
+        <v>0.207720215241122</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01808918570977569</v>
+        <v>0.02685909334842043</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09926522484748224</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04564247775335792</v>
+        <v>0.06675299065136495</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09891466100927364</v>
+        <v>0.2095106711546396</v>
       </c>
       <c r="N193" t="n">
-        <v>0.06243803003091525</v>
+        <v>0.1065503741137155</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09857292618499848</v>
+        <v>0.2084007085010629</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03114344810877839</v>
+        <v>0.02498964273034366</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06323373806398126</v>
+        <v>0.2093430294226933</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01801503510042136</v>
+        <v>0.02681760388833226</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1000407344166032</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04566848214778527</v>
+        <v>0.06690027276283522</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09968743179840858</v>
+        <v>0.2111474732730352</v>
       </c>
       <c r="N194" t="n">
-        <v>0.06174928607163777</v>
+        <v>0.1065821345258637</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09934302717081878</v>
+        <v>0.2100288390362274</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0306756000016978</v>
+        <v>0.0240413457656856</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06323346953551726</v>
+        <v>0.2109658436042645</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01764110424661043</v>
+        <v>0.02697445071842786</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1008162439857242</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04479786680271552</v>
+        <v>0.06714339474601452</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1004602025875435</v>
+        <v>0.2127842753914308</v>
       </c>
       <c r="N195" t="n">
-        <v>0.06057054885355434</v>
+        <v>0.1075072790000371</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1001131281566391</v>
+        <v>0.211656969571392</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03021575948496982</v>
+        <v>0.02509149753221373</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06323320100705322</v>
+        <v>0.2125886577858358</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0175674435782197</v>
+        <v>0.02692960999764221</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1015917535548451</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04443043747974501</v>
+        <v>0.0669822965851338</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1012329733766785</v>
+        <v>0.2144210775098265</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06040174232891327</v>
+        <v>0.1078257131027958</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1008832291424594</v>
+        <v>0.2132851001065565</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.029764395846235</v>
+        <v>0.02414007633935358</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06323293247858922</v>
+        <v>0.214211471967407</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01729410352512598</v>
+        <v>0.02708305788491035</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1023672631239661</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04466599994046999</v>
+        <v>0.06731691826442396</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1020057441658134</v>
+        <v>0.2160578796282221</v>
       </c>
       <c r="N197" t="n">
-        <v>0.05944279044996326</v>
+        <v>0.1077373424006998</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1016533301282797</v>
+        <v>0.2149132306417211</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02932197837307372</v>
+        <v>0.02418706049653074</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0632326639501252</v>
+        <v>0.2158342861489783</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0173211345172061</v>
+        <v>0.02703477053916728</v>
       </c>
       <c r="K198" t="n">
-        <v>0.103142772693087</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0440043599464868</v>
+        <v>0.0678471997681161</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1027785149549484</v>
+        <v>0.2176946817466177</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05859361716895284</v>
+        <v>0.1076420724603089</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1024234311141</v>
+        <v>0.2165413611768856</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02888897635308652</v>
+        <v>0.02323242831317072</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06323239542166119</v>
+        <v>0.2174571003305496</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01704858698433684</v>
+        <v>0.02718472411934802</v>
       </c>
       <c r="K199" t="n">
-        <v>0.103918282262208</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04374532325939173</v>
+        <v>0.06747308108044114</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1035512857440833</v>
+        <v>0.2193314838650133</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05775414643813054</v>
+        <v>0.1081398088481836</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1031935320999203</v>
+        <v>0.2181694917120502</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02846585907385573</v>
+        <v>0.02327615809869913</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06323212689319715</v>
+        <v>0.2190799145121209</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01697651135639505</v>
+        <v>0.02723289478438762</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1046937918313289</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04328869564078103</v>
+        <v>0.06779450218562999</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1043240565332183</v>
+        <v>0.2209682859834089</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05692430220974481</v>
+        <v>0.1081304571308835</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1039636330857406</v>
+        <v>0.2197976222472148</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02805309582301873</v>
+        <v>0.02531822816254153</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06323185836473315</v>
+        <v>0.2207027286936921</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01680495806325755</v>
+        <v>0.02737925869322107</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1054693014004499</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04283428285225108</v>
+        <v>0.06801140306791367</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1050968273223532</v>
+        <v>0.2226050881018045</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05700400843604431</v>
+        <v>0.1090139228749691</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1047337340715609</v>
+        <v>0.2214257527823793</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02765115588815745</v>
+        <v>0.02435861681412344</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06323158983626913</v>
+        <v>0.2223255428752634</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01643397753480112</v>
+        <v>0.02722379200478336</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1062448109695708</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04258189065539808</v>
+        <v>0.06812372371152317</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1058695981114882</v>
+        <v>0.2242418902202002</v>
       </c>
       <c r="N202" t="n">
-        <v>0.05619318906927745</v>
+        <v>0.109090111647</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1055038350573812</v>
+        <v>0.2230538833175439</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02726050855687243</v>
+        <v>0.02339730236287046</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06323132130780511</v>
+        <v>0.2239483570568347</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01646362020090264</v>
+        <v>0.02736647087800957</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1070203205386918</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04193132481181844</v>
+        <v>0.0680314041006895</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1066423689006231</v>
+        <v>0.2258786923385958</v>
       </c>
       <c r="N203" t="n">
-        <v>0.05539176806169283</v>
+        <v>0.1090589290135365</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1062739360432015</v>
+        <v>0.2246820138527084</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02688162311674796</v>
+        <v>0.02443426311820816</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06323105277934109</v>
+        <v>0.2255711712384059</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01629393649143886</v>
+        <v>0.02730727147183468</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1077958301078127</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04188239108310832</v>
+        <v>0.06783438421964352</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1074151396897581</v>
+        <v>0.2275154944569914</v>
       </c>
       <c r="N204" t="n">
-        <v>0.05539966936553897</v>
+        <v>0.1094202805411385</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1070440370290218</v>
+        <v>0.2263101443878729</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02651496885541759</v>
+        <v>0.02446947738956206</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06323078425087707</v>
+        <v>0.2271939854199772</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01612497683628662</v>
+        <v>0.02754616994519372</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1085713396769337</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04133489523086412</v>
+        <v>0.06803260405261632</v>
       </c>
       <c r="M205" t="n">
-        <v>0.108187910478893</v>
+        <v>0.229152296575387</v>
       </c>
       <c r="N205" t="n">
-        <v>0.05371681693306452</v>
+        <v>0.1094740717963661</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1078141380148421</v>
+        <v>0.2279382749230375</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02616101506046509</v>
+        <v>0.02450292348635776</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06323051572241306</v>
+        <v>0.2288167996015484</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01595679166532277</v>
+        <v>0.02758314245702173</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1093468492460547</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04108864301668208</v>
+        <v>0.06832600358383878</v>
       </c>
       <c r="M206" t="n">
-        <v>0.108960681268028</v>
+        <v>0.2307890986937827</v>
       </c>
       <c r="N206" t="n">
-        <v>0.05344313471651779</v>
+        <v>0.1098202083457795</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1085842390006624</v>
+        <v>0.2295664054582021</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02582023101949104</v>
+        <v>0.02553457971802079</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06323024719394904</v>
+        <v>0.2304396137831197</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01568943140842406</v>
+        <v>0.02751816516625367</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1101223588151756</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0407434402021585</v>
+        <v>0.06811452279754193</v>
       </c>
       <c r="M207" t="n">
-        <v>0.109733452057163</v>
+        <v>0.2324259008121783</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05287854666814745</v>
+        <v>0.1091585957559384</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1093543399864827</v>
+        <v>0.2311945359933666</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02549308602008201</v>
+        <v>0.02456442439397675</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06322997866548502</v>
+        <v>0.232062427964691</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01562294649546735</v>
+        <v>0.02755121423182461</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1108978683842966</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04059909254888974</v>
+        <v>0.06889810167795674</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1105062228462979</v>
+        <v>0.2340627029305739</v>
       </c>
       <c r="N208" t="n">
-        <v>0.05232297674020209</v>
+        <v>0.1097891395934031</v>
       </c>
       <c r="O208" t="n">
-        <v>0.110124440972303</v>
+        <v>0.2328226665285312</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02518004934986704</v>
+        <v>0.02359243582365115</v>
       </c>
       <c r="G209" t="n">
-        <v>0.063229710137021</v>
+        <v>0.2336852421462622</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01525738735632945</v>
+        <v>0.02768226581266957</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1116733779534175</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04005540581847206</v>
+        <v>0.06857668020931415</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1112789936354329</v>
+        <v>0.2356995050489695</v>
       </c>
       <c r="N209" t="n">
-        <v>0.05197634888493019</v>
+        <v>0.1103117454247337</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1108945419581233</v>
+        <v>0.2344507970636957</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02488159029643213</v>
+        <v>0.02561859231646959</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06322944160855699</v>
+        <v>0.2353080563278335</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01519280442088718</v>
+        <v>0.02761129606772351</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1124488875225385</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03951218577250173</v>
+        <v>0.06845019837584518</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1120517644245678</v>
+        <v>0.2373363071673652</v>
       </c>
       <c r="N210" t="n">
-        <v>0.05163858705458019</v>
+        <v>0.11012631881649</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1116646429439436</v>
+        <v>0.2360789275988603</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02459817814737784</v>
+        <v>0.02364287218185761</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06322917308009297</v>
+        <v>0.2369308705094048</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01492924811901734</v>
+        <v>0.02763828115592154</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1132243970916594</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03916923817257506</v>
+        <v>0.06911859616178079</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1128245352137027</v>
+        <v>0.2389731092857608</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05120961520140083</v>
+        <v>0.1104327653352322</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1124347439297639</v>
+        <v>0.2377070581340248</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02433028219029335</v>
+        <v>0.02366525372924081</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06322890455162895</v>
+        <v>0.238553684690976</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01486676888059675</v>
+        <v>0.02766319723619859</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1139999066607804</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03902636878028834</v>
+        <v>0.06878181355135188</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1135973060028377</v>
+        <v>0.2406099114041564</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05008935727764047</v>
+        <v>0.1098309905475202</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1132048449155842</v>
+        <v>0.2393351886691894</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02407837171280259</v>
+        <v>0.0236857152680447</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06322863602316493</v>
+        <v>0.2401764988725473</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01480541713550226</v>
+        <v>0.02768602046748975</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1147754162299013</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03838338335723787</v>
+        <v>0.06873979052878956</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1143700767919727</v>
+        <v>0.242246713522552</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05027773723554774</v>
+        <v>0.1097209000199143</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1139749459014045</v>
+        <v>0.240963319204354</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02384291600249406</v>
+        <v>0.02470423510769488</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06322836749470091</v>
+        <v>0.2417993130541186</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01464524331361064</v>
+        <v>0.02780672700872999</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1155509257990223</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03834008766501995</v>
+        <v>0.06889246707832469</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1151428475811076</v>
+        <v>0.2438835156409477</v>
       </c>
       <c r="N214" t="n">
-        <v>0.04997467902737113</v>
+        <v>0.1104023993189742</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1147450468872248</v>
+        <v>0.2425914497395185</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02384291600249406</v>
+        <v>0.02472079155761688</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06322836749470091</v>
+        <v>0.2434221272356898</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01448629784479873</v>
+        <v>0.02762529301885434</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1163264353681432</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03829628746523092</v>
+        <v>0.06933978318418829</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1159156183702425</v>
+        <v>0.2455203177593432</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04938010660535919</v>
+        <v>0.1097753940112604</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1155151478730451</v>
+        <v>0.244219580274683</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02323418598094783</v>
+        <v>0.0237353629272363</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06316260183560063</v>
+        <v>0.2450449414172611</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01412863115894332</v>
+        <v>0.02764169465679783</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1171019449372642</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03785178851946697</v>
+        <v>0.06908167883061131</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1166883891593775</v>
+        <v>0.2471571198777389</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04829394392176045</v>
+        <v>0.1101397896633324</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1162852488588654</v>
+        <v>0.2458477108098476</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02263233140917582</v>
+        <v>0.02574792752597867</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06309683617650035</v>
+        <v>0.2466677555988324</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01397229368592126</v>
+        <v>0.02765590808149547</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1178774545063852</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0370063965893245</v>
+        <v>0.06911809400182478</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1174611599485124</v>
+        <v>0.2487939219961345</v>
       </c>
       <c r="N217" t="n">
-        <v>0.04821611492882344</v>
+        <v>0.1102954918417506</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1170553498446857</v>
+        <v>0.2474758413450122</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02203768863916736</v>
+        <v>0.02475846366326955</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06303107051740005</v>
+        <v>0.2482905697804036</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01391733585560936</v>
+        <v>0.02786790945188228</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1186529640755061</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03735991743639977</v>
+        <v>0.06934896868205959</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1182339307376474</v>
+        <v>0.2504307241145302</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04754654357879673</v>
+        <v>0.110442406113075</v>
       </c>
       <c r="O218" t="n">
-        <v>0.117825450830506</v>
+        <v>0.2491039718801767</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02145059402291181</v>
+        <v>0.02476694964853452</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06296530485829976</v>
+        <v>0.2499133839619749</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01366380809788439</v>
+        <v>0.02787767492689329</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1194284736446271</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03651215682228906</v>
+        <v>0.06877424285554676</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1190067015267823</v>
+        <v>0.2520675262329258</v>
       </c>
       <c r="N219" t="n">
-        <v>0.04648515382392893</v>
+        <v>0.1108804380438655</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1185955518163263</v>
+        <v>0.2507321024153413</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0208713839123985</v>
+        <v>0.02577336379119913</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06289953919919947</v>
+        <v>0.2515361981435462</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01371176084262327</v>
+        <v>0.02768518066546351</v>
       </c>
       <c r="K220" t="n">
-        <v>0.120203983213748</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03626292050858868</v>
+        <v>0.06949385650651727</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1197794723159173</v>
+        <v>0.2537043283513213</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04613186961646837</v>
+        <v>0.1107094932006823</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1193656528021466</v>
+        <v>0.2523602329505059</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02030039465961677</v>
+        <v>0.02477768440068897</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06283377354009918</v>
+        <v>0.2531590123251174</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01356124451970271</v>
+        <v>0.02789040282652795</v>
       </c>
       <c r="K221" t="n">
-        <v>0.120979492782869</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03571201425689494</v>
+        <v>0.0694077496192021</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1205522431050522</v>
+        <v>0.255341130469717</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04568661490866371</v>
+        <v>0.1106294771500854</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1201357537879669</v>
+        <v>0.2539883634856704</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01973796261655597</v>
+        <v>0.02477988978642955</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06276800788099889</v>
+        <v>0.2547818265066887</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01331230955899955</v>
+        <v>0.02779331756902162</v>
       </c>
       <c r="K222" t="n">
-        <v>0.12175500235199</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03595924382880411</v>
+        <v>0.06951586217783218</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1213250138941872</v>
+        <v>0.2569779325881126</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04564931365276353</v>
+        <v>0.1107402954586348</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1209058547737872</v>
+        <v>0.2556164940208349</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01918442413520544</v>
+        <v>0.02477287288655868</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0627022422218986</v>
+        <v>0.25640464068826</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01306500639039065</v>
+        <v>0.02779165520655234</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1225305119211109</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0353044149859125</v>
+        <v>0.06881697894078814</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1220977846833221</v>
+        <v>0.2586147347065082</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04511988980101628</v>
+        <v>0.1104262601675135</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1216759557596075</v>
+        <v>0.2572446245559994</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0186401155675545</v>
+        <v>0.0257105290148647</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0626364765627983</v>
+        <v>0.2580274548698312</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0129193854437528</v>
+        <v>0.02773824188269151</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1233060214902318</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03494733348981641</v>
+        <v>0.06880688786567885</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1228705554724571</v>
+        <v>0.2602515368249039</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04459826730567046</v>
+        <v>0.1098921319482059</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1224460567454278</v>
+        <v>0.258872755091164</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01810537326559253</v>
+        <v>0.0255901221759119</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06257071090369802</v>
+        <v>0.2596502690514025</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01277549714896281</v>
+        <v>0.02761978822120752</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1240815310593528</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03488780510211212</v>
+        <v>0.06843111940495761</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1236433262615921</v>
+        <v>0.2618883389432995</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04438437011897478</v>
+        <v>0.1104021974937773</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1232161577312481</v>
+        <v>0.2605008856263286</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01758053358130884</v>
+        <v>0.02341841426274423</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06250494524459772</v>
+        <v>0.2612730832329738</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01273339193589751</v>
+        <v>0.02744372651634024</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1248570406284737</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0339256355843959</v>
+        <v>0.06800838307746468</v>
       </c>
       <c r="M226" t="n">
-        <v>0.124416097050727</v>
+        <v>0.2635251410616951</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04407812219317764</v>
+        <v>0.1086858958042223</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1239862587170684</v>
+        <v>0.2621290161614931</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01706593286669278</v>
+        <v>0.02520216716840574</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06243917958549744</v>
+        <v>0.262895897414545</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01259312023443369</v>
+        <v>0.02711748906232953</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1256325501975947</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03416063069826414</v>
+        <v>0.0675573884020402</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1251888678398619</v>
+        <v>0.2651619431800907</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04327944748052759</v>
+        <v>0.1082726658795351</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1247563597028887</v>
+        <v>0.2637571466966577</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01656190747373379</v>
+        <v>0.02294814278594037</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06237341392639716</v>
+        <v>0.2645187115961163</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0123547324744482</v>
+        <v>0.02684850815341526</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1264080597667157</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03329259620531308</v>
+        <v>0.0669968448975243</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1259616386289969</v>
+        <v>0.2667987452984864</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0429882699332732</v>
+        <v>0.1072919467197102</v>
       </c>
       <c r="O228" t="n">
-        <v>0.125526460688709</v>
+        <v>0.2653852772318223</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01606879375442102</v>
+        <v>0.02366310300839212</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06230764826729687</v>
+        <v>0.2661415257776875</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01221827908581783</v>
+        <v>0.02654421608383732</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1271835693358366</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03332133786713901</v>
+        <v>0.06614546208275723</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1267344094181318</v>
+        <v>0.268435547416882</v>
       </c>
       <c r="N229" t="n">
-        <v>0.043204513503663</v>
+        <v>0.1063731773247421</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1262965616745293</v>
+        <v>0.2670134077669868</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01558692806074391</v>
+        <v>0.02235380972880498</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06224188260819657</v>
+        <v>0.2677643399592588</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01218380503820302</v>
+        <v>0.02631204514783557</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1279590789049576</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03264667513233058</v>
+        <v>0.06552194947657902</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1275071802072668</v>
+        <v>0.2700723495352776</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04302807315529322</v>
+        <v>0.104045796694625</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1270666626603496</v>
+        <v>0.2686415383021514</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01511664674469181</v>
+        <v>0.02402702484022296</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06217611694909628</v>
+        <v>0.2693871541408301</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01205069300806973</v>
+        <v>0.02605942763964986</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1287345884740785</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03266971628328577</v>
+        <v>0.06504501659782999</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1282799509964017</v>
+        <v>0.2717091516536732</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04245638500101118</v>
+        <v>0.1033392438293534</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1278367636461699</v>
+        <v>0.2702696688373159</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01465828615825403</v>
+        <v>0.02268951023569</v>
       </c>
       <c r="G232" t="n">
-        <v>0.062110351289996</v>
+        <v>0.2710099683224014</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01201850692329948</v>
+        <v>0.02559379585352006</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1295100980431995</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03209126751957952</v>
+        <v>0.0641333729653501</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1290527217855367</v>
+        <v>0.2733459537720688</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04148793933969508</v>
+        <v>0.1011829577289218</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1286068646319902</v>
+        <v>0.2718977993724804</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01421218265341995</v>
+        <v>0.02234802780825015</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06204458563089571</v>
+        <v>0.2726327825039726</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01168726146819955</v>
+        <v>0.02512258208368608</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1302856076123204</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03121133979423549</v>
+        <v>0.0627057280979797</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1298254925746717</v>
+        <v>0.2749827558904644</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04112289282371262</v>
+        <v>0.1004063773933245</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1293769656178105</v>
+        <v>0.273525929907645</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01377867258217888</v>
+        <v>0.02300933945094736</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06197881997179542</v>
+        <v>0.2742555966855439</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01175697132707722</v>
+        <v>0.02485321862438776</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1310611171814414</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03152994406027701</v>
+        <v>0.06168079151455891</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1305982633638066</v>
+        <v>0.2766195580088601</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04066140210543123</v>
+        <v>0.09833894182255587</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1301470666036308</v>
+        <v>0.2751540604428096</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01335809229652018</v>
+        <v>0.02068020705682561</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06191305431269513</v>
+        <v>0.2758784108671152</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01152765118423979</v>
+        <v>0.02449313776986496</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1318366267505623</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03054709127072766</v>
+        <v>0.06137727273392773</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1313710341529416</v>
+        <v>0.2782563601272557</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04020362383721843</v>
+        <v>0.09721009001661041</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1309171675894511</v>
+        <v>0.2767821909779741</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0129507781484332</v>
+        <v>0.02136739251892893</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06184728865359484</v>
+        <v>0.2775012250486864</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01149931572399455</v>
+        <v>0.0241497718143576</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1326121363196833</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03016279237861094</v>
+        <v>0.06011388127492653</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1321438049420765</v>
+        <v>0.2798931622456513</v>
       </c>
       <c r="N236" t="n">
-        <v>0.04034971467144161</v>
+        <v>0.0954492609754824</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1316872685752714</v>
+        <v>0.2784103215131387</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01255706648990725</v>
+        <v>0.02007765773030128</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06178152299449455</v>
+        <v>0.2791240392302577</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01117197963064877</v>
+        <v>0.02383055305210548</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1333876458888043</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03027705833695038</v>
+        <v>0.05920932665639539</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1329165757312115</v>
+        <v>0.2815299643640469</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03969983126046828</v>
+        <v>0.09458589369916637</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1324573695610917</v>
+        <v>0.2800384520483032</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01217729367293169</v>
+        <v>0.02080871577428901</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06171575733539426</v>
+        <v>0.2807468534118289</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01114565758850974</v>
+        <v>0.02353651963561572</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1341631554579252</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02948990009876937</v>
+        <v>0.05877082716868873</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1336893465203464</v>
+        <v>0.2831667664824426</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03975413025666613</v>
+        <v>0.09381920205975208</v>
       </c>
       <c r="O238" t="n">
-        <v>0.133227470546912</v>
+        <v>0.2816665825834678</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01181179604949588</v>
+        <v>0.02153997532662518</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06164999167629397</v>
+        <v>0.2823696675934002</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01112036428188474</v>
+        <v>0.02334436303637374</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1349386650270462</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02940132861709155</v>
+        <v>0.05784050463559298</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1344621173094813</v>
+        <v>0.2848035686008382</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0391127683124024</v>
+        <v>0.09245718954918652</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1339975715327323</v>
+        <v>0.2832947131186324</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01145953653429931</v>
+        <v>0.02127021790807867</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06158422601719368</v>
+        <v>0.2839924817749714</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01099611439508108</v>
+        <v>0.02295109678602279</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1357141745961671</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02851135484494036</v>
+        <v>0.05750740175677593</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1352348880986163</v>
+        <v>0.2864403707192338</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03897590208004459</v>
+        <v>0.09149076964121738</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1347676725185526</v>
+        <v>0.2849228436537969</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01111261085559249</v>
+        <v>0.01999942749947409</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06151846035809339</v>
+        <v>0.2856152959565427</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01077292261240603</v>
+        <v>0.02265670327718219</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1364896841652881</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02811998973533927</v>
+        <v>0.05667147420869376</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1360076588877513</v>
+        <v>0.2880771728376295</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0381436882119604</v>
+        <v>0.09021987259376185</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1355377735043729</v>
+        <v>0.2865509741889614</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01076998192807493</v>
+        <v>0.02072758808163606</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06145269469899309</v>
+        <v>0.287238110138114</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01055080361816688</v>
+        <v>0.02246116490247131</v>
       </c>
       <c r="K242" t="n">
-        <v>0.137265193734409</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02812724424131186</v>
+        <v>0.05533267766780231</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1367804296768862</v>
+        <v>0.289713974956025</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03851628336051721</v>
+        <v>0.08894442866473734</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1363078744901932</v>
+        <v>0.288179104724126</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01043198610373598</v>
+        <v>0.01845468363538923</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0613869290398928</v>
+        <v>0.2888609243196852</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01052977209667089</v>
+        <v>0.02206446405450943</v>
       </c>
       <c r="K243" t="n">
-        <v>0.13804070330353</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02753312931588156</v>
+        <v>0.05489096781055774</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1375532004660212</v>
+        <v>0.2913507770744207</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03849384417808244</v>
+        <v>0.08726436811206112</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1370779754760135</v>
+        <v>0.2898072352592905</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01009895973456498</v>
+        <v>0.01818069814155819</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06132116338079251</v>
+        <v>0.2904837385012565</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0105098427322254</v>
+        <v>0.02176658312591594</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1388162128726509</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02733765591207188</v>
+        <v>0.05404630031341615</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1383259712551561</v>
+        <v>0.2929875791928163</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03747652731702378</v>
+        <v>0.08647962119365049</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1378480764618338</v>
+        <v>0.2914353657944551</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009771239172551266</v>
+        <v>0.01890561558096759</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06125539772169222</v>
+        <v>0.2921065526828278</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01039103020913765</v>
+        <v>0.02136750450931012</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1395917224417719</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02684083498290635</v>
+        <v>0.05369863085283355</v>
       </c>
       <c r="M245" t="n">
-        <v>0.139098742044291</v>
+        <v>0.2946243813112119</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03746448942970843</v>
+        <v>0.08569011816742278</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1386181774476541</v>
+        <v>0.2930634963296197</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009449160769684176</v>
+        <v>0.01862941993444205</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06118963206259193</v>
+        <v>0.293729366864399</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01007334921171495</v>
+        <v>0.02126721059731133</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1403672320108929</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02654267748140848</v>
+        <v>0.05274791510526594</v>
       </c>
       <c r="M246" t="n">
-        <v>0.139871512833426</v>
+        <v>0.2962611834296076</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03655788716850411</v>
+        <v>0.08369578929129523</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1393882784334744</v>
+        <v>0.2946916268647842</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.00913306087795307</v>
+        <v>0.01735209518280618</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06112386640349164</v>
+        <v>0.2953521810459703</v>
       </c>
       <c r="J247" t="n">
-        <v>0.009956814424264569</v>
+        <v>0.02076568378253889</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1411427415800138</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02624319436060174</v>
+        <v>0.05159410874716941</v>
       </c>
       <c r="M247" t="n">
-        <v>0.140644283622561</v>
+        <v>0.2978979855480032</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03695687718577817</v>
+        <v>0.08289656482318519</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1401583794192947</v>
+        <v>0.2963197573999488</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008823275849347265</v>
+        <v>0.01807362530688461</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06105810074439135</v>
+        <v>0.2969749952275416</v>
       </c>
       <c r="J248" t="n">
-        <v>0.009841440531093808</v>
+        <v>0.02046290645761213</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1419182511491348</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02584239657350965</v>
+        <v>0.05123716745500009</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1414170544116959</v>
+        <v>0.2995347876663987</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03666161613389829</v>
+        <v>0.08199237502100998</v>
       </c>
       <c r="O248" t="n">
-        <v>0.140928480405115</v>
+        <v>0.2979478879351133</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008520142035856125</v>
+        <v>0.01679399428750197</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06099233508529106</v>
+        <v>0.2985978094091129</v>
       </c>
       <c r="J249" t="n">
-        <v>0.009727242216509946</v>
+        <v>0.02025886101515036</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1426937607182557</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02504029507315567</v>
+        <v>0.05007704690521389</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1421898252008308</v>
+        <v>0.3011715897847944</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0358722606652318</v>
+        <v>0.08028315014268694</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1416985813909353</v>
+        <v>0.2995760184702779</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008223995789468981</v>
+        <v>0.01651318610548289</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06092656942619077</v>
+        <v>0.3002206235906841</v>
       </c>
       <c r="J250" t="n">
-        <v>0.009714234164820264</v>
+        <v>0.02005352984777296</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1434692702873767</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02503690081256338</v>
+        <v>0.049313702774267</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1429625959899658</v>
+        <v>0.30280839190319</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03528896743214627</v>
+        <v>0.07926882044613354</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1424686823767556</v>
+        <v>0.3012041490054425</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007935173462175177</v>
+        <v>0.01823118474165198</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06086080376709049</v>
+        <v>0.3018434377722554</v>
       </c>
       <c r="J251" t="n">
-        <v>0.009502431060332064</v>
+        <v>0.01974689534809922</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1442447798564976</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02463222474475621</v>
+        <v>0.04894709073861539</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1437353667791007</v>
+        <v>0.3044451940215857</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03561189308700907</v>
+        <v>0.07814931618926668</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1432387833625759</v>
+        <v>0.302832279540607</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007654011405964098</v>
+        <v>0.01594797417683388</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0607950381079902</v>
+        <v>0.3034662519538266</v>
       </c>
       <c r="J252" t="n">
-        <v>0.009391847587352634</v>
+        <v>0.01923893990874846</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1450202894256186</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0243262778227577</v>
+        <v>0.04777716647471514</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1445081375682357</v>
+        <v>0.3060819961399813</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03554119428218788</v>
+        <v>0.07672456763000413</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1440088843483962</v>
+        <v>0.3044604100757715</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007380845972824991</v>
+        <v>0.01566353839185319</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06072927244888991</v>
+        <v>0.3050890661353979</v>
       </c>
       <c r="J253" t="n">
-        <v>0.009282498430189232</v>
+        <v>0.01912964592234008</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1457957989947395</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02361907099959132</v>
+        <v>0.04730388565902233</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1452809083573706</v>
+        <v>0.3077187982583769</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03557702767005017</v>
+        <v>0.07559450502626286</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1447789853342165</v>
+        <v>0.3060885406109361</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007116013514747256</v>
+        <v>0.01637786136753456</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06066350678978962</v>
+        <v>0.3067118803169692</v>
       </c>
       <c r="J254" t="n">
-        <v>0.00917439827314917</v>
+        <v>0.01871899578149334</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1465713085638605</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02331061522828062</v>
+        <v>0.04672720396799293</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1460536791465056</v>
+        <v>0.3093556003767725</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03471954990296316</v>
+        <v>0.07425905863596027</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1455490863200368</v>
+        <v>0.3077166711461007</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006859850383720216</v>
+        <v>0.01709092708470259</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06059774113068933</v>
+        <v>0.3083346944985405</v>
       </c>
       <c r="J255" t="n">
-        <v>0.009267561800539718</v>
+        <v>0.01840697187882757</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1473468181329814</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02310092146184908</v>
+        <v>0.0456470770780831</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1468264499356406</v>
+        <v>0.3109924024951681</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0341689176332946</v>
+        <v>0.07351815871701378</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1463191873058571</v>
+        <v>0.3093448016812652</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006612692931733236</v>
+        <v>0.01480271952418193</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06053197547158904</v>
+        <v>0.3099575086801117</v>
       </c>
       <c r="J256" t="n">
-        <v>0.009062003696668174</v>
+        <v>0.01819355660696215</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1481223277021024</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02219000065332016</v>
+        <v>0.0449634606657488</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1475992207247755</v>
+        <v>0.3126292046135637</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03392528751341201</v>
+        <v>0.07157173552734059</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1470892882916774</v>
+        <v>0.3109729322164297</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006374877510775624</v>
+        <v>0.01651322266679719</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06046620981248876</v>
+        <v>0.311580322861683</v>
       </c>
       <c r="J257" t="n">
-        <v>0.00905773864584182</v>
+        <v>0.01767873235851639</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1488978372712234</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02167786375571742</v>
+        <v>0.04427631040744617</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1483719915139105</v>
+        <v>0.3142660067319594</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03398881619568278</v>
+        <v>0.07041971932485808</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1478593892774977</v>
+        <v>0.3126010627515943</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006146740472836761</v>
+        <v>0.01422242049337299</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06040044415338847</v>
+        <v>0.3132031370432543</v>
       </c>
       <c r="J258" t="n">
-        <v>0.008954781332367948</v>
+        <v>0.0174624815261096</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1496733468403443</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02146452172206431</v>
+        <v>0.0437855819796312</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1491447623030454</v>
+        <v>0.315902808850355</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03385966033247434</v>
+        <v>0.06906204036748359</v>
       </c>
       <c r="O258" t="n">
-        <v>0.148629490263318</v>
+        <v>0.3142291932867589</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005928618169905954</v>
+        <v>0.01493029698473396</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06033467849428818</v>
+        <v>0.3148259512248255</v>
       </c>
       <c r="J259" t="n">
-        <v>0.008753146440553833</v>
+        <v>0.01704478650236113</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1504488564094653</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02154998550538437</v>
+        <v>0.04239123105875997</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1499175330921804</v>
+        <v>0.3175396109687506</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03373797657615429</v>
+        <v>0.0684986289131343</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1493995912491383</v>
+        <v>0.3158573238219234</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005720846953972576</v>
+        <v>0.01363683612170473</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06026891283518789</v>
+        <v>0.3164487654063968</v>
       </c>
       <c r="J260" t="n">
-        <v>0.008752848654706769</v>
+        <v>0.01692562967989029</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1512243659785862</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02113426605870111</v>
+        <v>0.04149321332128847</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1506903038813153</v>
+        <v>0.3191764130871462</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03392392157909008</v>
+        <v>0.06692941521972767</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1501696922349586</v>
+        <v>0.317485454357088</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005523763177025943</v>
+        <v>0.01434202188510992</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06020314717608759</v>
+        <v>0.3180715795879681</v>
       </c>
       <c r="J261" t="n">
-        <v>0.008653902659134037</v>
+        <v>0.01650499345131645</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1519998755477072</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02021737433503804</v>
+        <v>0.04109148444367289</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1514630746704503</v>
+        <v>0.3208132152055418</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03331765199364922</v>
+        <v>0.06565432954518091</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1509397932207789</v>
+        <v>0.3191135848922525</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005337703191055407</v>
+        <v>0.01504583825577415</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0601373815169873</v>
+        <v>0.3196943937695393</v>
       </c>
       <c r="J262" t="n">
-        <v>0.008356323138142926</v>
+        <v>0.01608286020925889</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1527753851168281</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02019932128741858</v>
+        <v>0.04018600010236914</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1522358454595852</v>
+        <v>0.3224500173239375</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03301932447219919</v>
+        <v>0.06477330214741134</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1517098942065992</v>
+        <v>0.3207417154274171</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00516300334805031</v>
+        <v>0.01274826921452205</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06007161585788701</v>
+        <v>0.3213172079511106</v>
       </c>
       <c r="J263" t="n">
-        <v>0.008260124776040725</v>
+        <v>0.01575921234633698</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1535508946859491</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01958011786886629</v>
+        <v>0.0394767159738334</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1530086162487202</v>
+        <v>0.3240868194423331</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03262909566710753</v>
+        <v>0.06298626328433637</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1524799951924195</v>
+        <v>0.3223698459625816</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01244929874217823</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06000585019878672</v>
+        <v>0.3229400221326819</v>
       </c>
       <c r="J264" t="n">
-        <v>0.008165322257134719</v>
+        <v>0.01553403225517005</v>
       </c>
       <c r="K264" t="n">
-        <v>0.15432640425507</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01925977503240467</v>
+        <v>0.03826358773452163</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1537813870378551</v>
+        <v>0.3257236215607287</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03314712223074162</v>
+        <v>0.06149314321387322</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1532500961782398</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05999269230404988</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005643527241351851</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05999296083251389</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006283384528645811</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.0599932293609779</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006919528467887653</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05999349788944193</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007551915665000179</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05999376641790594</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008180502725989365</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05999403494636996</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008805246256833377</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05999430347483398</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009426102863537338</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.059994572003298</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01004302915202539</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05999484053176202</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01065598172830283</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05999510906022603</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01126491719834784</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05999537758869004</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01186979216816483</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05999564611715407</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01247056324367934</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05999591464561808</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01306718703089597</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0599961831740821</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.0136596201357929</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05999645170254611</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01424781916437382</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05999672023101014</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01483174072256573</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05999698875947415</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01541134141637247</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05999725728793816</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01598657785177227</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05999752581640218</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01655740663476803</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05999779434486621</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01712378437128826</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05999806287333023</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01768566766733608</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05999833140179424</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01824301312888966</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05999859993025825</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01879577736195116</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05999886845872228</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01934391697245064</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05999913698718629</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01988756575864622</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05999940551565031</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02042774348005056</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05999967404411432</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02096458393492087</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05999994257257835</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02149804372918861</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06000021110104236</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02202807946885541</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06000047962950637</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02255464775989944</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06000074815797039</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02307770520832157</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06000101668643441</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02359720842005446</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06000128521489843</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02411311400109915</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06000155374336245</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.0246253785574338</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06000182227182646</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02513395869505868</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06000209080029049</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02563881101990766</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.0600023593287545</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02613989213798117</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06000262785721851</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02663715865525739</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06000289638568253</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.0271305671777359</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06000316491414655</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.0276200743113519</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06000343344261057</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02810563666210519</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06000370197107458</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02858721083597392</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06000397049953859</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02906475343895695</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06000423902800262</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02953822107699094</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06000450755646664</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03000757035607491</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06000477608493066</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03047275788218707</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06000504461339467</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03093374026132555</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0600053131418587</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03139047409942845</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06000558167032271</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03184291600249407</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06000585019878672</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03184291600249407</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05999269230404988</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03233881630436553</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06005899502007819</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03283013001694953</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06012529773610652</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03331673389429952</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06019160045213484</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03379850469046935</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06025790316816317</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03427531915951245</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.0603242058841915</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03474705405548267</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06039050860021983</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03521358613243351</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06045681131624814</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03567479214441879</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06052311403227648</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03613054884549195</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06058941674830479</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03658073298970677</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06065571946433311</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03702522133111696</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06072202218036144</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03746389062377601</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06078832489638977</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03789661762173775</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06085462761241809</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03832327907905565</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06092093032844641</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03874375174978351</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06098723304447475</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03915791238797484</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06105353576050306</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03956563774768348</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06111983847653139</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03996680458296287</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06118614119255971</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04036128964786687</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06125244390858804</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04074896969644893</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06131874662461636</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04112972148276279</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06138504934064468</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04150342176086218</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06145135205667301</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04186994728480061</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06151765477270133</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04222917480863187</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06158395748872966</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.0425814843406904</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06165026020475798</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04292977216071554</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06171656292078631</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.0432744182770417</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06178286563681463</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04361529944372269</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06184916835284296</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04395229241481204</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06191547106887128</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04428527394436344</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0619817737848996</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04461412078643059</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06204807650092793</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04493870969506706</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06211437921695625</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04525891742432662</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06218068193298458</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04557462072826276</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.0622469846490129</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04588569636092931</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06231328736504123</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04619202107637973</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06237959008106955</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04649347162866784</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06244589279709788</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04678992477184717</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0625121955131262</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04708125725997147</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06257849822915452</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04736734584709431</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06264480094518285</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04764806728726934</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06271110366121117</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04792329833455033</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.0627774063772395</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04819291574299076</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06284370909326782</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04845679626664443</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06291001180929615</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.0487148166595649</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06297631452532447</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04896685367580588</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06304261724135279</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04921278406942094</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06310891995738112</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04945248459446385</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06317522267340944</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04968583200498813</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06324152538943777</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04279055466999208</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06324152538943777</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04979559499526113</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06497981667218233</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.0498970170026725</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0667181079549269</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04999042763495765</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06845639923767148</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05007615649985212</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07019469052041603</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05015453320509134</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07193298180316061</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05022588735841078</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07367127308590518</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05029054856754591</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07540956436864975</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05034884644023218</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07714785565139431</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05040111058420507</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07888614693413888</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05044767060720006</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08062443821688345</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05048885611695262</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08236272949962802</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05052499672119821</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08410102078237258</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05055642202767228</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08583931206511716</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05058346164411028</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08757760334786173</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05060644517824773</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.0893158946306063</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05062570223782008</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09105418591335086</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05064156243056279</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09279247719609543</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05065435536421132</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09453076847884</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05066441064650116</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09626905976158458</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05067205788516774</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09800735104432914</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05067762668794656</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0997456423270737</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05068144666257308</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1014839336098183</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05068384741678277</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1032222248925628</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05068515855831108</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1049605161753074</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05068570969489351</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.106698807458052</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05068583043426547</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1084370987407966</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05066247789437883</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1101753900235411</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05055028001716932</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1119136813062857</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05035199895523853</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1136519725890303</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05007504191651215</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1153902638717748</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04972681610891582</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1171285551545194</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04931472874037519</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.118866846437264</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04884618701881591</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1206051377200085</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04832859815216366</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1223434290027531</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04776936934834406</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1240817202854977</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04717590781528277</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1258200115682422</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04655562076090542</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1275583028509868</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04591591539313771</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1292965941337314</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04526419891990528</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1310348854164759</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04460787854913374</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1327731766992205</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04395436148874878</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1345114679819651</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04331105494667607</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1362497592647096</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04268536613084119</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1379880505474542</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04208470224916987</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1397263418301988</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04151647050958773</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1414646331129434</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.0409880781200204</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1432029243956879</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04050693228839356</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1449412156784325</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04008044022263287</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.146679506961177</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03971600913066396</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1484177982439217</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03942104622041247</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.0391727792805552</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1518943808094108</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03893582851871389</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1536326720921553</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03870945151719774</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1553709633748999</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03849301597409618</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1571092546576445</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03828588958749857</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1588475459403891</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03808744005549434</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1605858372231336</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03789703507617285</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1623241285058782</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03771404234762355</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1640624197886227</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.0375378295679358</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1658007110713673</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03736776443519901</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1675390023541119</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.0372032146475026</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1692772936368565</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03704354790293594</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.171015584919601</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03688813189958843</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1727538762023456</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03673633433554949</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1744921674850902</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03658752290890851</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1762304587678347</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03644106531775489</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1779687500505793</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03629632926017803</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1797070413333239</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03615268243426732</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1814453326160684</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03600949253811216</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.183183623898813</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03586612726980196</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1849219151815576</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03572195432742612</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1866602064643021</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03557634140907404</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1883984977470467</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03542865621283509</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1901367890297913</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.0352782664367987</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1918750803125358</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03512453977905427</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1936133715952804</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03496695480426507</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.195351662878025</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03480858567037249</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1970899541607695</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03465107306563617</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1988282454435141</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03449442148096212</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2005665367262587</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.0343386354072562</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2023048280090033</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03418371933542438</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2040431192917478</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0340296777563726</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2057814105744924</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03387651516100677</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.207519701857237</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03372423604023284</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2092579931399815</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03357284488495676</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2109962844227261</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03342234618608442</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2127345757054707</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03327274443452178</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2144728669882152</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.0331240441211748</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2162111582709598</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03297624973694937</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2179494495537044</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03282936577275142</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.219687740836449</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03268339671948692</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2214260321191935</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03253834706806181</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.223164323401938</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03239422130938197</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2249026146846826</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03225102393435338</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2266409059674272</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03210875943388198</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2283791972501718</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03196743229887366</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2301174885329163</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03182704702023439</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2318557798156609</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03168760808887009</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2335940710984055</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03154911999568669</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.23533236238115</v>
-      </c>
-    </row>
+        <v>0.3239979764977462</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1260.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004062231388839606</v>
+        <v>0.001273719228405669</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001622814181571266</v>
+        <v>0.0004853314506609231</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00427024717436128</v>
+        <v>0.002109742525154237</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001631344121891361</v>
+        <v>0.0008311167790326264</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01150556575814352</v>
+        <v>0.006181431131812937</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001636802118395622</v>
+        <v>0.0008236829653842616</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02412723075298639</v>
+        <v>0.01129200838628946</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001959295841521468</v>
+        <v>0.0008190144124738029</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.002508609770680924</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002692604538477129</v>
+        <v>0.0009706629013218462</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004072323625613453</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003258423913043476</v>
+        <v>0.001662233558065253</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01789896392056028</v>
+        <v>0.01153375784289978</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002880119113948448</v>
+        <v>0.001647365930768523</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03155735337914056</v>
+        <v>0.02356613236338201</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003256261070329107</v>
+        <v>0.001861538163170709</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008538302984677476</v>
+        <v>0.003679266470075798</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004868442544713796</v>
+        <v>0.001455994351982769</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009657420687105796</v>
+        <v>0.005900193976964931</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.002493350337097879</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02362887121641769</v>
+        <v>0.0147403232286967</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004910406355186865</v>
+        <v>0.002134676519750026</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04087398066081832</v>
+        <v>0.02834158255466396</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00488439160549366</v>
+        <v>0.002457043237421409</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01153751812041081</v>
+        <v>0.00476028416984034</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006491256726285062</v>
+        <v>0.001941325802643692</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01129871357146621</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02732460436992318</v>
+        <v>0.0201118743307433</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006547208473582487</v>
+        <v>0.003294731861537047</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0471885340736734</v>
+        <v>0.03569708172048391</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006512522140658215</v>
+        <v>0.003276057649895212</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01301504120174584</v>
+        <v>0.005726257713224589</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008077813615431388</v>
+        <v>0.002426657253304616</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01274009760631051</v>
+        <v>0.008876945521166441</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.004155583895163132</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03035652152538831</v>
+        <v>0.02362438499715042</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008184010591978109</v>
+        <v>0.004118414826921308</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0524545058422356</v>
+        <v>0.04196585458962149</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008140652675822769</v>
+        <v>0.004095072062369014</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01225578244339681</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009736885089427593</v>
+        <v>0.002692604538477129</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.01002456006973853</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.004986700674195758</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03297333213843984</v>
+        <v>0.02689580554762649</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00982081271037373</v>
+        <v>0.00494209779230557</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05610983896043342</v>
+        <v>0.04764541340377226</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009135767980495729</v>
+        <v>0.004914086474842818</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01339928870379909</v>
+        <v>0.007387109988798761</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01135969927099886</v>
+        <v>0.003397320154626461</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01507191215930184</v>
+        <v>0.01096438493629763</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.005817817453228385</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03509600768737309</v>
+        <v>0.030407695390293</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01086141304347826</v>
+        <v>0.005765780757689832</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06279984105194036</v>
+        <v>0.05303327040463207</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01139691374615188</v>
+        <v>0.00573310088731662</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01547290440477759</v>
+        <v>0.008194745596075421</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01298251345257012</v>
+        <v>0.003882651605287385</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01632155884461457</v>
+        <v>0.01181131480503289</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.006648934232261011</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03816773029403364</v>
+        <v>0.03284161393327148</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01309441694716497</v>
+        <v>0.006589463723074093</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06670613987359553</v>
+        <v>0.05610983896043342</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01302504428131643</v>
+        <v>0.006331762459764326</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01647608821879778</v>
+        <v>0.008979766665467508</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01460532763414139</v>
+        <v>0.004367983055948308</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01733393863247423</v>
+        <v>0.01288024436013348</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.007480051011293638</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04130514386301173</v>
+        <v>0.03509600768737309</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0147312190655606</v>
+        <v>0.007260804488945664</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0717140690425172</v>
+        <v>0.06018235675618183</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01465317481648098</v>
+        <v>0.007371129712264226</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01840829881832517</v>
+        <v>0.009730702020617862</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01622814181571266</v>
+        <v>0.004853314506609231</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0186025130517404</v>
+        <v>0.01348606828578854</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.008311167790326264</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04369215228261958</v>
+        <v>0.03718874070737896</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01636802118395622</v>
+        <v>0.008236829653842617</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07530427067499462</v>
+        <v>0.06324767688124522</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01628130535164554</v>
+        <v>0.008190144124738029</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01726899487582526</v>
+        <v>0.01043608048516933</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01785095599728392</v>
+        <v>0.005338645957270153</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01942074363127264</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.008740133404970225</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04680438362767217</v>
+        <v>0.03957683334502712</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01800482330235184</v>
+        <v>0.00906051261922688</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07905738688731706</v>
+        <v>0.06635293624479766</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01790943588681009</v>
+        <v>0.009009158537211832</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02005763506376353</v>
+        <v>0.01108443088276477</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01947377017885519</v>
+        <v>0.005823977407931077</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02048209189993057</v>
+        <v>0.01501622508909693</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.009973401348391517</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04901746597298445</v>
+        <v>0.04124445298792884</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01964162542074746</v>
+        <v>0.009884195584611139</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08315405979577373</v>
+        <v>0.07059073640050723</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01953756642197464</v>
+        <v>0.009828172949685635</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01977367805460548</v>
+        <v>0.01166428203704704</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02109658436042645</v>
+        <v>0.006309308858592</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02138001938657376</v>
+        <v>0.01579029843941476</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.01080451812742414</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0513070273933714</v>
+        <v>0.04378573467029187</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02127842753914308</v>
+        <v>0.0107078785499954</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08657493151665391</v>
+        <v>0.07335367890204247</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0211656969571392</v>
+        <v>0.01064718736215944</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02041658252081659</v>
+        <v>0.01216416277165897</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02271939854199772</v>
+        <v>0.006794640309252922</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02230798762006178</v>
+        <v>0.01666841016749462</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.01163563490645677</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05334869596364797</v>
+        <v>0.04579481342632383</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0229152296575387</v>
+        <v>0.01153156151537966</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08920064416624685</v>
+        <v>0.07613436530307172</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02279382749230375</v>
+        <v>0.01146620177463324</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02198580713486239</v>
+        <v>0.01257260191024342</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02434221272356898</v>
+        <v>0.007279971759913846</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02305945812925422</v>
+        <v>0.01734722765968492</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.0124667516854894</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05551809975862906</v>
+        <v>0.04776582429023246</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02455203177593433</v>
+        <v>0.01235524448076392</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09301183986084183</v>
+        <v>0.07972539715726318</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02442195802746831</v>
+        <v>0.01228521618710704</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02048081056920834</v>
+        <v>0.01287812827644326</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02596502690514025</v>
+        <v>0.00776530321057477</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0237278924430107</v>
+        <v>0.01832341830233412</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.01329786846452202</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05789086685312969</v>
+        <v>0.04939290229622539</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02618883389432995</v>
+        <v>0.01317892744614819</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09448916071672792</v>
+        <v>0.08221937601828538</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02605008856263286</v>
+        <v>0.01310423059958085</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02290105149631997</v>
+        <v>0.01301504120174584</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02758784108671151</v>
+        <v>0.008077813615431388</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02430675209019079</v>
+        <v>0.01889364948179059</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.01412898524355465</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05904262532196478</v>
+        <v>0.05117018247851027</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02782563601272557</v>
+        <v>0.01400261041153245</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0972132488501945</v>
+        <v>0.08610890343980659</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02767821909779741</v>
+        <v>0.01392324501205465</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02124612344694139</v>
+        <v>0.01324881113962884</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02921065526828278</v>
+        <v>0.008735966111896616</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02478949859965404</v>
+        <v>0.01975458858440282</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.01496010202258728</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06084900323994927</v>
+        <v>0.0532917998712949</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02946243813112119</v>
+        <v>0.01482629337691671</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09926474637753074</v>
+        <v>0.08878658097549508</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02930634963296196</v>
+        <v>0.01474225942452845</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02155376849940185</v>
+        <v>0.01341803103342993</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03083346944985405</v>
+        <v>0.009221297562557539</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02517027180691631</v>
+        <v>0.02040290299651919</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.0157912188016199</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06198562868189811</v>
+        <v>0.05485188950878686</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03109924024951681</v>
+        <v>0.01564997634230097</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1007658887306068</v>
+        <v>0.09124501017901926</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03093448016812652</v>
+        <v>0.01556127383700225</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0218525444315636</v>
+        <v>0.01358457982693121</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03245628363142531</v>
+        <v>0.009706629013218462</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02530440259751793</v>
+        <v>0.02133526010448812</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.01662233558065253</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06236669721925064</v>
+        <v>0.05644458642519382</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03273604236791244</v>
+        <v>0.01647365930768523</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1020817723844233</v>
+        <v>0.09377679260404748</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03256261070329108</v>
+        <v>0.01638028824947606</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02414046758867001</v>
+        <v>0.01374847183452833</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03407909781299658</v>
+        <v>0.01019196046387938</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02572870767462962</v>
+        <v>0.02204832729465807</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.01745345235968515</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06319297140863891</v>
+        <v>0.05776402565472355</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03437284448630806</v>
+        <v>0.01729734227306949</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1026556087603469</v>
+        <v>0.09657452980424808</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03419074123845563</v>
+        <v>0.01719930266194986</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02341555431596446</v>
+        <v>0.01390972137061691</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03570191199456784</v>
+        <v>0.01067729191454031</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02604100671600648</v>
+        <v>0.02273877195337742</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.01828456913871778</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06449238100232513</v>
+        <v>0.05930434223158362</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03600964660470368</v>
+        <v>0.01812102523845376</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1036787616951035</v>
+        <v>0.09803082333328939</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03581887177362018</v>
+        <v>0.01801831707442366</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0236758209586903</v>
+        <v>0.01406834274959262</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03732472617613911</v>
+        <v>0.01116262336520123</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02643911939940352</v>
+        <v>0.02340326146699463</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.01911568591775041</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06495943741511576</v>
+        <v>0.06085967118998184</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0376464487230993</v>
+        <v>0.01894470820383802</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1054425950254191</v>
+        <v>0.1009382747448398</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03744700230878473</v>
+        <v>0.01883733148689747</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02291928386209092</v>
+        <v>0.01422435028585111</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03894754035771037</v>
+        <v>0.01164795481586215</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02652086540257587</v>
+        <v>0.02383846322185811</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.01994680269678303</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06618865206181726</v>
+        <v>0.06242414756412573</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03928325084149492</v>
+        <v>0.01976839116922228</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1063384725880196</v>
+        <v>0.1022894855925676</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03907513284394928</v>
+        <v>0.01965634589937127</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02514395937140965</v>
+        <v>0.014377758293788</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04057035453928164</v>
+        <v>0.01213328626652308</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02678406440327857</v>
+        <v>0.02444104460431627</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.02077791947581566</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06657453635723604</v>
+        <v>0.06399190638822314</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04092005295989055</v>
+        <v>0.02059207413460654</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1075577582196311</v>
+        <v>0.1036770574301411</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04070326337911384</v>
+        <v>0.02047536031184507</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02334786383188988</v>
+        <v>0.01452858108779896</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0421931687208529</v>
+        <v>0.012618617717184</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02722653607926674</v>
+        <v>0.02500767300071759</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.02160903625484829</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06741160171617858</v>
+        <v>0.06465708269648163</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04255685507828617</v>
+        <v>0.0214157570999908</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1078918157569795</v>
+        <v>0.1054935918112287</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0423313939142784</v>
+        <v>0.02129437472431888</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02552901358877498</v>
+        <v>0.01467683298227962</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04381598290242417</v>
+        <v>0.01310394916784492</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0272461001082954</v>
+        <v>0.02563501579741043</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.02244015303388091</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06739435955345133</v>
+        <v>0.06561381152310886</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04419365719668179</v>
+        <v>0.02223944006537507</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1090320090367908</v>
+        <v>0.1077316902894988</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04395952444944295</v>
+        <v>0.02211338913679268</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02368542498730832</v>
+        <v>0.01482252829162563</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04543879708399543</v>
+        <v>0.01358928061850584</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0276405761681197</v>
+        <v>0.02611974038074324</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.02327126981291354</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06831732128386075</v>
+        <v>0.06695622790231265</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04583045931507741</v>
+        <v>0.02306312303075933</v>
       </c>
       <c r="N93" t="n">
-        <v>0.109569701895791</v>
+        <v>0.1078839544186197</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0455876549846075</v>
+        <v>0.02293240354926648</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02381511437273327</v>
+        <v>0.01496568133023264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0470616112655667</v>
+        <v>0.01407461206916677</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02760778393649461</v>
+        <v>0.02665851413706442</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.02410238659194617</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06877499832221329</v>
+        <v>0.06767846686830054</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04746726143347303</v>
+        <v>0.02388680599614359</v>
       </c>
       <c r="N94" t="n">
-        <v>0.110896258170706</v>
+        <v>0.1094429857522596</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04721578551977205</v>
+        <v>0.02375141796174028</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02591609809029317</v>
+        <v>0.01510630641249629</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04868442544713797</v>
+        <v>0.01455994351982769</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0277455430911753</v>
+        <v>0.02704800445272244</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.02493350337097879</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06946190208331537</v>
+        <v>0.06867466345528031</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04910406355186865</v>
+        <v>0.02471048896152785</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1110030416982618</v>
+        <v>0.1108013858440871</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04884391605493661</v>
+        <v>0.02457043237421409</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0249863924852314</v>
+        <v>0.01524441785281225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05030723962870923</v>
+        <v>0.01504527497048862</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0279516733099168</v>
+        <v>0.0271848787140657</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.02576462015001142</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06917254398197353</v>
+        <v>0.06873895269745958</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05074086567026428</v>
+        <v>0.02553417192691211</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1109814163151844</v>
+        <v>0.1115517562477704</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05047204659010116</v>
+        <v>0.02538944678668789</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02603008240349169</v>
+        <v>0.01538002996557612</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0519300538102805</v>
+        <v>0.01553060642114954</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0280239942704742</v>
+        <v>0.02766580430744264</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.02659573692904404</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07000143543299409</v>
+        <v>0.069565469629046</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0523776677886599</v>
+        <v>0.02635785489229637</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.1116866985169778</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05210017712526572</v>
+        <v>0.02620846119916169</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02502858515843324</v>
+        <v>0.01551315706518358</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05355286799185176</v>
+        <v>0.01601593787181046</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.02778744861920165</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.02742685370807667</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0701920153747462</v>
+        <v>0.06984834928424732</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05401446990705552</v>
+        <v>0.02718153785768063</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1120183941640338</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05372830766043028</v>
+        <v>0.0270274756116355</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02501300788790143</v>
+        <v>0.01564381346603027</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05517568217342302</v>
+        <v>0.01650126932247139</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02796153755206554</v>
+        <v>0.0280464790356912</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.02825797048710929</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06999201265134852</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05565127202545114</v>
+        <v>0.0280052208230649</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1113912615779127</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05535643819559483</v>
+        <v>0.0278464900241093</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02398135424468924</v>
+        <v>0.01577201348251183</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05679849635499429</v>
+        <v>0.01698660077313231</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02804216180816141</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.02908908726614192</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06956876456369479</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05728807414384676</v>
+        <v>0.02882890378844916</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1109912627627592</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05698456873075938</v>
+        <v>0.0286655044365831</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02593466967205884</v>
+        <v>0.01589777142902391</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05842131053656556</v>
+        <v>0.01747193222379323</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02810536592373841</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.02992020404517455</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07000022722805771</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05892487626224238</v>
+        <v>0.02965258675383342</v>
       </c>
       <c r="N101" t="n">
-        <v>0.111823600652308</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05861269926592393</v>
+        <v>0.0294845188490569</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02487399961327241</v>
+        <v>0.01602110161996215</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06004412471813683</v>
+        <v>0.01795726367445415</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02805229899149665</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.03075132082420718</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06998929467530474</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06056167838063801</v>
+        <v>0.03047626971921768</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1115928267536574</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06024082980108849</v>
+        <v>0.03030353326153071</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02380038951159211</v>
+        <v>0.01614201836972221</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0616669388997081</v>
+        <v>0.01844259512511508</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02798411010413622</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.0315824376032398</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06973885954811493</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06219848049903363</v>
+        <v>0.03129995268460194</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1111034925739062</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06186896033625305</v>
+        <v>0.03112254767400451</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02371488481028015</v>
+        <v>0.01626053599269971</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06328975308127936</v>
+        <v>0.018927926575776</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02770194835435716</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.03241355438227243</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06935181448916722</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06383528261742925</v>
+        <v>0.0321236356499862</v>
       </c>
       <c r="N104" t="n">
-        <v>0.110660149620153</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0634970908714176</v>
+        <v>0.03194156208647831</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02361853095259866</v>
+        <v>0.01637666880329032</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06491256726285062</v>
+        <v>0.01941325802643692</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0278069628348596</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.03324467116130506</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06883105214114071</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06547208473582487</v>
+        <v>0.03294731861537047</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1102673493994962</v>
+        <v>0.1120196779208669</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06512522140658215</v>
+        <v>0.03276057649895212</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02351237338180987</v>
+        <v>0.01649043111588968</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06653538144442188</v>
+        <v>0.01989858947709785</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02760030263834359</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.03407578794033768</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06867946514671439</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06710888685422049</v>
+        <v>0.03377100158075472</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1096296434190345</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0667533519417467</v>
+        <v>0.03357959091142591</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02439745754117594</v>
+        <v>0.01660183724489343</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06815819562599315</v>
+        <v>0.02038392092775877</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02748311685750923</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.03490690471937031</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06819994614856725</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06874568897261611</v>
+        <v>0.03459468454613899</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1089515831858663</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06838148247691125</v>
+        <v>0.03439860532389973</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02427482887395902</v>
+        <v>0.01671090150469721</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06978100980756442</v>
+        <v>0.02086925237841969</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02745655458505661</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.03573802149840294</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06859538778937838</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07038249109101173</v>
+        <v>0.03541836751152325</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1081377202070903</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07000961301207581</v>
+        <v>0.03521761973637352</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02414553282342131</v>
+        <v>0.0168176382096967</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07140382398913568</v>
+        <v>0.02135458382908061</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02732176491368581</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.03656913827743556</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06826868271182676</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07201929320940736</v>
+        <v>0.03624205047690752</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1084926059898049</v>
+        <v>0.1120196779208669</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07163774354724035</v>
+        <v>0.03603663414884733</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02401061483282498</v>
+        <v>0.0169220616742875</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07302663817070694</v>
+        <v>0.02183991527974154</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02697989693609686</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.03740025505646818</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0678227235585914</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07365609532780297</v>
+        <v>0.03706573344229178</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1070207920411088</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07326587408240492</v>
+        <v>0.03685564856132113</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0228711203454322</v>
+        <v>0.01702418621286528</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07464945235227823</v>
+        <v>0.02232524673040246</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02683209974498993</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.03823137183550081</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06746040297235137</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0752928974461986</v>
+        <v>0.03788941640767604</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1069268298681004</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07489400461756947</v>
+        <v>0.03767466297379493</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02372809480450518</v>
+        <v>0.01712402613982569</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07627226653384948</v>
+        <v>0.02281057818106338</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02677952243306503</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.03906248861453344</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06718461359578559</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07692969956459422</v>
+        <v>0.0387130993730603</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1060152709778783</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07652213515273402</v>
+        <v>0.03849367738626874</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02258258365330606</v>
+        <v>0.01722159576956436</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07789508071542074</v>
+        <v>0.02329590963172431</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02662331409302229</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.03989360539356607</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06619824807157321</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07856650168298984</v>
+        <v>0.03953678233844456</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1054906668775412</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07815026568789857</v>
+        <v>0.03931269179874254</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02243563233509704</v>
+        <v>0.01731690941647694</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07951789489699201</v>
+        <v>0.02378124108238523</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02646462381756176</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.04072472217259869</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06610419904239315</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08020330380138546</v>
+        <v>0.04036046530382882</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1048575690741875</v>
+        <v>0.1115196779208669</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07977839622306312</v>
+        <v>0.04013170621121634</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02228828629314027</v>
+        <v>0.01740998139495909</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08114070907856327</v>
+        <v>0.02426657253304616</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02640460069938357</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.04155583895163132</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06600535915092445</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08184010591978109</v>
+        <v>0.04118414826921308</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1040205290749158</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08140652675822768</v>
+        <v>0.04095072062369014</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02414159097069796</v>
+        <v>0.01750082601940645</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08276352326013454</v>
+        <v>0.02475190398370708</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02604439383118773</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.04238695573066395</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0652046210398462</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08347690803817671</v>
+        <v>0.04200783123459734</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1040840983868246</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08303465729339224</v>
+        <v>0.04176973503616394</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02399658533904437</v>
+        <v>0.01758945760421465</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0843863374417058</v>
+        <v>0.025237235434368</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0258851523056744</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.04321807250969657</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06490487735183736</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08511371015657233</v>
+        <v>0.0428315141999816</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1026528285170126</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0846627878285568</v>
+        <v>0.04258874944863775</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02384060268427075</v>
+        <v>0.01767589046377934</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08600915162327707</v>
+        <v>0.02572256688502892</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02572708287093051</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.0440491892887292</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06440902072957697</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08675051227496795</v>
+        <v>0.04365519716536587</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1026142806682117</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08629091836372134</v>
+        <v>0.04340776386111155</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02366371459055878</v>
+        <v>0.01776013891249618</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08763196580484835</v>
+        <v>0.02620789833568984</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02565174371929134</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.04488030606776183</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06409865036486853</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08838731439336357</v>
+        <v>0.04447888013075013</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1012904575599731</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0879190488988859</v>
+        <v>0.04422677827358536</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02146932723702395</v>
+        <v>0.01784221726476082</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08925477998641961</v>
+        <v>0.02669322978635077</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02545443242205732</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.04571142284679446</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06363065622389413</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09002411651175919</v>
+        <v>0.0453025630961344</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1013836760944216</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08954717943405045</v>
+        <v>0.04504579268605916</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02226084680278171</v>
+        <v>0.01792213983496888</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09087759416799086</v>
+        <v>0.02717856123701169</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02513889286060238</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.04654253962582708</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06341240313670587</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09166091863015481</v>
+        <v>0.04612624606151865</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09990876562574968</v>
+        <v>0.1118196779208668</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09117530996921501</v>
+        <v>0.04586480709853296</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02204167946694751</v>
+        <v>0.01799992093751603</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09250040834956214</v>
+        <v>0.02766389268767262</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02490886891630045</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.04737365640485971</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06235331567892466</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09329772074855044</v>
+        <v>0.04694992902690292</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09958055550815015</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09280344050437957</v>
+        <v>0.04668382151100677</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02181523140863684</v>
+        <v>0.0180755748867979</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09412322253113339</v>
+        <v>0.02814922413833354</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02476810447052544</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.04820477318389233</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0615628184261714</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09493452286694606</v>
+        <v>0.04777361199228718</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09771387509581531</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09443157103954411</v>
+        <v>0.04750283592348057</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02258490880696517</v>
+        <v>0.01814911599721015</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09574603671270467</v>
+        <v>0.02863455558899446</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02452034340465127</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.04903588996292495</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06125033595406709</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09657132498534168</v>
+        <v>0.04859729495767144</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09712355374293763</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09605970157470867</v>
+        <v>0.04832185033595437</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02135411784104795</v>
+        <v>0.01822055858314841</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09736885089427594</v>
+        <v>0.02911988703965538</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02426932960005188</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.04986700674195758</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06062529283823273</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0982081271037373</v>
+        <v>0.0494209779230557</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09622442080370974</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09768783210987322</v>
+        <v>0.04914086474842817</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02112626469000067</v>
+        <v>0.01828991695900833</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0989916650758472</v>
+        <v>0.0296052184903163</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02401880693810117</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.05069812352099021</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06009711365428913</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09984492922213294</v>
+        <v>0.05024466088843996</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09503130563232409</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09931596264503777</v>
+        <v>0.04995987916090197</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02090475553293878</v>
+        <v>0.01835720543918557</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1006144792574185</v>
+        <v>0.03009054994097723</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02367251930017308</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.05152924030002284</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05907522297785731</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1014817313405286</v>
+        <v>0.05106834385382422</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09415903758297328</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1009440931802023</v>
+        <v>0.05077889357337578</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02069299654897776</v>
+        <v>0.01842243833807575</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1022372934389897</v>
+        <v>0.03057588139163816</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02353421056764153</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.05236035707905546</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05916904538455819</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1031185334589242</v>
+        <v>0.05189202681920849</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0930224460098496</v>
+        <v>0.1120196779208669</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1025722237153669</v>
+        <v>0.05159790798584958</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0214804449785256</v>
+        <v>0.01848562997007455</v>
       </c>
       <c r="G129" t="n">
-        <v>0.103860107620561</v>
+        <v>0.03106121284229908</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02330714574605655</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.05319147385808809</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05858800545001275</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1047553355773198</v>
+        <v>0.05271570978459274</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09262200074278881</v>
+        <v>0.1116196779208669</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1042003542505314</v>
+        <v>0.05241692239832339</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02024816057736702</v>
+        <v>0.01854679464957758</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1054829218021323</v>
+        <v>0.03154654429296</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02306939738280561</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.05402259063712071</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05751616784058561</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1063921376957154</v>
+        <v>0.05353939274997701</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0919530044462098</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O130" t="n">
-        <v>0.105828484785696</v>
+        <v>0.05323593681079718</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02100066031704102</v>
+        <v>0.01860594669098053</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1071057359837035</v>
+        <v>0.03203187574362092</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02291125697142404</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.05485370741615334</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05729179354417466</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M131" t="n">
-        <v>0.108028939814111</v>
+        <v>0.05436307571536127</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0905086912970548</v>
+        <v>0.1113196779208668</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1074566153208606</v>
+        <v>0.054054951223271</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01974282014394919</v>
+        <v>0.01866310040867899</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1087285501652748</v>
+        <v>0.03251720719428185</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02253808387919536</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.05568482419518597</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05632371993685967</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1096657419325067</v>
+        <v>0.05518675868074553</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08971028952019483</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1090847458560251</v>
+        <v>0.05487396563574479</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02047951600449317</v>
+        <v>0.01871827011706864</v>
       </c>
       <c r="G133" t="n">
-        <v>0.110351364346846</v>
+        <v>0.03300253864494277</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02225523747340312</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.05651594097421859</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05532543830140305</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1113025440509023</v>
+        <v>0.0560104416461298</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08857902734050072</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1107128763911897</v>
+        <v>0.0556929800482186</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02021562384507462</v>
+        <v>0.01877147013054512</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1119741785284173</v>
+        <v>0.03348787009560369</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02196807712133088</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.05734705775325123</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05491043992056704</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1129393461692979</v>
+        <v>0.05683412461151406</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08693613298284325</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1123410069263542</v>
+        <v>0.0565119944606924</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01995601961209517</v>
+        <v>0.01882271476350408</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1135969927099886</v>
+        <v>0.03397320154626462</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02178196219026218</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.05817817453228385</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05439221607711406</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1145761482876935</v>
+        <v>0.05765780757689831</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08580283467209326</v>
+        <v>0.1113196779208668</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1139691374615188</v>
+        <v>0.0573310088731662</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01970557925195644</v>
+        <v>0.01887201833034117</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1152198068915599</v>
+        <v>0.03445853299692554</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02130225204748055</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.05900929131131648</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05348425805380636</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1162129504060892</v>
+        <v>0.05848149054228258</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08540036063312162</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1155972679966833</v>
+        <v>0.05815002328564001</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01746917871106008</v>
+        <v>0.01891939514545201</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1168426210731311</v>
+        <v>0.03494386444758647</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02123430606026958</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.0598404080903491</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05290005713340629</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1178497525244848</v>
+        <v>0.05930517350766684</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08394993909079934</v>
+        <v>0.1120196779208669</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1172253985318479</v>
+        <v>0.0589690376981138</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01725169393580772</v>
+        <v>0.01896485952323227</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1184654352547024</v>
+        <v>0.03542919589824739</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02098348359591276</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.06067152486938172</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05215310459867609</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1194865546428804</v>
+        <v>0.06012885647305111</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08307279826999703</v>
+        <v>0.1113196779208668</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1188535290670124</v>
+        <v>0.05978805211058761</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01905800087260101</v>
+        <v>0.0190084257780776</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1200882494362737</v>
+        <v>0.03591452734890831</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02075514402169366</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.06150264164841436</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0518568917323782</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M139" t="n">
-        <v>0.121123356761276</v>
+        <v>0.06095253943843536</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08189016639558572</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O139" t="n">
-        <v>0.120481659602177</v>
+        <v>0.06060706652306141</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01689297546784156</v>
+        <v>0.01905010822438361</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1217110636178449</v>
+        <v>0.03639985879956923</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02045464670489584</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.06233375842744698</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05072490981727482</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1227601588796716</v>
+        <v>0.06177622240381962</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08122327169243626</v>
+        <v>0.1116196779208669</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1221097901373415</v>
+        <v>0.06142608093553521</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01776149366793102</v>
+        <v>0.019089921176546</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1233338777994162</v>
+        <v>0.03688519025023015</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02038735101280283</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.06316487520647961</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05097065013612836</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1243969609980673</v>
+        <v>0.06259990536920389</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08049334238541939</v>
+        <v>0.1120196779208669</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1237379206725061</v>
+        <v>0.06224509534800902</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01866843141927103</v>
+        <v>0.01912787894896037</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1249566919809875</v>
+        <v>0.03737052170089108</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02025861631269815</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.06399599198551224</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0504076039717011</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1260337631164629</v>
+        <v>0.06342358833458815</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07972160669940603</v>
+        <v>0.1118196779208668</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1253660512076706</v>
+        <v>0.06306410976048282</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01661866466826322</v>
+        <v>0.01916399585602238</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1265795061625587</v>
+        <v>0.037855853151552</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01997380197186539</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.06482710876454485</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05034926260675537</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1276705652348585</v>
+        <v>0.0642472712999724</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07992929285926703</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1269941817428352</v>
+        <v>0.06388312417295662</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01761230187542287</v>
+        <v>0.01919828621212769</v>
       </c>
       <c r="G144" t="n">
-        <v>0.12820232034413</v>
+        <v>0.03834118460221293</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01993826735758809</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.06565822554357748</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04990911732405354</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1293073673532541</v>
+        <v>0.06507095426535667</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07993715100167148</v>
+        <v>0.1116196779208669</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1286223122779997</v>
+        <v>0.06470213858543043</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01861926265047503</v>
+        <v>0.01923076433167192</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1298251345257012</v>
+        <v>0.03882651605287385</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02004029428910717</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.06648934232261011</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04968919976519454</v>
+        <v>0.07019187278142192</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1309441694716497</v>
+        <v>0.06589463723074093</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08005518547020157</v>
+        <v>0.1119166893319197</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1302504428131643</v>
+        <v>0.06552115299790423</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01863310377118546</v>
+        <v>0.01926144452905074</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1314479487072725</v>
+        <v>0.03931184750353477</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02015073329697629</v>
+        <v>0.02806432094952467</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.06732045910164274</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05000771964393555</v>
+        <v>0.06958862280464992</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1325809715900454</v>
+        <v>0.06671832019612518</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07940368294113698</v>
+        <v>0.1117070444230853</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1318785733483288</v>
+        <v>0.06634016741037803</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01665346695478873</v>
+        <v>0.01929034111865978</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1330707628888438</v>
+        <v>0.03979717895419569</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02006854648347453</v>
+        <v>0.02816310926539414</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.06815157588067536</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04974513091261834</v>
+        <v>0.06988120470538631</v>
       </c>
       <c r="M147" t="n">
-        <v>0.134217773708441</v>
+        <v>0.06754200316150945</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07978108357224695</v>
+        <v>0.1118909798099358</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1335067038834934</v>
+        <v>0.06715918182285183</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0186799939185194</v>
+        <v>0.01931746841489469</v>
       </c>
       <c r="G148" t="n">
-        <v>0.134693577070415</v>
+        <v>0.04028251040485662</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02009334004424615</v>
+        <v>0.02796019116146632</v>
       </c>
       <c r="K148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.06898269265970799</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05030044223669988</v>
+        <v>0.06976977812323212</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1358545758268366</v>
+        <v>0.06836568612689371</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08038582752130075</v>
+        <v>0.1113687464015172</v>
       </c>
       <c r="O148" t="n">
-        <v>0.135134834418658</v>
+        <v>0.06797819623532564</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01871232637961201</v>
+        <v>0.01934284073215113</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1363163912519863</v>
+        <v>0.04076784185551754</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02012472017493538</v>
+        <v>0.02795563244269596</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.06981380943874062</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05037266228163734</v>
+        <v>0.0696545026977882</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1374913779452322</v>
+        <v>0.06918936909227798</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08021635494606766</v>
+        <v>0.111240595106875</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1367629649538225</v>
+        <v>0.06879721064779945</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01775010605530113</v>
+        <v>0.01936647238482471</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1379392054335576</v>
+        <v>0.04125317330617846</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02006229307118651</v>
+        <v>0.0280494989140378</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.07064492621777325</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05016079971288773</v>
+        <v>0.06963553806865547</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1391281800636278</v>
+        <v>0.07001305205766224</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07997110600431689</v>
+        <v>0.1121067768350549</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1383910954889871</v>
+        <v>0.06961622506027325</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01779297466282132</v>
+        <v>0.01938837768731112</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1395620196151288</v>
+        <v>0.04173850475683939</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02030566492864376</v>
+        <v>0.02814185638044657</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.07147604299680588</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04986386319590813</v>
+        <v>0.06941304387543484</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1407649821820235</v>
+        <v>0.07083673502304651</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08064852085381774</v>
+        <v>0.1113675424951026</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1400192260241516</v>
+        <v>0.07043523947274705</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01784057391940714</v>
+        <v>0.01940857095400598</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1411848337967001</v>
+        <v>0.04222383620750031</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0203544419429514</v>
+        <v>0.02803277064687701</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.0723071597758385</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0501808613961556</v>
+        <v>0.06998717975772725</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1424017843004191</v>
+        <v>0.07166041798843077</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08034703965233947</v>
+        <v>0.1109231429960637</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1416473565593162</v>
+        <v>0.07125425388522084</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01889254554229315</v>
+        <v>0.01942706649930492</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1428076479782714</v>
+        <v>0.04270916765816123</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02020823030975365</v>
+        <v>0.0279223075182839</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.07313827655487112</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05061080297908721</v>
+        <v>0.07005810535513352</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1440385864188147</v>
+        <v>0.07248410095381504</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08106510255765131</v>
+        <v>0.111773829246984</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1432754870944807</v>
+        <v>0.07207326829769466</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01894853124871392</v>
+        <v>0.01944387863760363</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1444304621598426</v>
+        <v>0.04319449910882216</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0202666362246948</v>
+        <v>0.02801053279962194</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.07396939333390375</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05025269661016002</v>
+        <v>0.06992598030725464</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1456753885372103</v>
+        <v>0.07330778391919929</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08150114972752254</v>
+        <v>0.1114198521569091</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1449036176296453</v>
+        <v>0.07289228271016845</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01700817275590399</v>
+        <v>0.01945902168329771</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1460532763414139</v>
+        <v>0.04367983055948308</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02052926588341908</v>
+        <v>0.02789751229584587</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.07480051011293637</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05090555095483115</v>
+        <v>0.06949096425369147</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1473121906556059</v>
+        <v>0.07413146688458355</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08105362131972232</v>
+        <v>0.1111614626348849</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1465317481648098</v>
+        <v>0.07371129712264225</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01807495637279039</v>
+        <v>0.01947250995078285</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1476760905229852</v>
+        <v>0.044165162010144</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02039572548157075</v>
+        <v>0.02808331181191047</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.07563162689196901</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0507683746785576</v>
+        <v>0.06965321683404496</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1489489927740016</v>
+        <v>0.07495514984996782</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08212095749202003</v>
+        <v>0.1107989115899568</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1481598786999744</v>
+        <v>0.07453031153511606</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01919133973081915</v>
+        <v>0.01948435775445467</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1492989047045565</v>
+        <v>0.04465049346080492</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02068626328324889</v>
+        <v>0.02786799715277044</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.07646274367100163</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05145561314436919</v>
+        <v>0.06921289768791597</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1505857948923972</v>
+        <v>0.07577883281535208</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08253256228184624</v>
+        <v>0.1107324499311705</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1497880092351389</v>
+        <v>0.07534932594758986</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01936066160549758</v>
+        <v>0.01949457940870881</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1509217188861277</v>
+        <v>0.04513582491146585</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02083964263832343</v>
+        <v>0.02795163412338053</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.07729386045003425</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05178504976881498</v>
+        <v>0.06947016645490545</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1522225970107928</v>
+        <v>0.07660251578073633</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08239033922184796</v>
+        <v>0.1110623285675719</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1514161397703035</v>
+        <v>0.07616834036006366</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0195721063048833</v>
+        <v>0.01950318922794094</v>
       </c>
       <c r="G159" t="n">
-        <v>0.152544533067699</v>
+        <v>0.04562115636212677</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02104566789069127</v>
+        <v>0.02793428852869549</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.07812497722906689</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0515571491497118</v>
+        <v>0.06912518277461427</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1538593991291884</v>
+        <v>0.0774261987461206</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08334720409942126</v>
+        <v>0.1107887984082065</v>
       </c>
       <c r="O159" t="n">
-        <v>0.153044270305468</v>
+        <v>0.07698735477253747</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01981485813703397</v>
+        <v>0.01951020152654667</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1541673472492702</v>
+        <v>0.04610648781278769</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02129245103733311</v>
+        <v>0.02791602617367007</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.07895609400809951</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05224198528987972</v>
+        <v>0.06977810628664338</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1554962012475841</v>
+        <v>0.07824988171150486</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08405606904243335</v>
+        <v>0.1107121103621201</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1546724008406326</v>
+        <v>0.07780636918501127</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01807810141000721</v>
+        <v>0.01951563061892168</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1557901614308415</v>
+        <v>0.04659181926344862</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02146810407522956</v>
+        <v>0.02779691286325899</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.07978721078713213</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05330963219213891</v>
+        <v>0.06932909663059367</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1571330033659797</v>
+        <v>0.07907356467688911</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08546984617875159</v>
+        <v>0.1103325153383584</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1563005313757971</v>
+        <v>0.07862538359748508</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01835102043186066</v>
+        <v>0.01951949081946161</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1574129756124127</v>
+        <v>0.04707715071410954</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02186073900136129</v>
+        <v>0.02777701440241699</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.08061832756616476</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05393016385930946</v>
+        <v>0.06957831344606605</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1587698054843753</v>
+        <v>0.07989724764227338</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08724144763624309</v>
+        <v>0.111150264245967</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1579286619109617</v>
+        <v>0.07944439800995888</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01962279951065197</v>
+        <v>0.01952179644256208</v>
       </c>
       <c r="G163" t="n">
-        <v>0.159035789793984</v>
+        <v>0.04756248216477046</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02195846781270894</v>
+        <v>0.02795639659609885</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.08144944434519738</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05477365429421155</v>
+        <v>0.06962591637266138</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1604066076027709</v>
+        <v>0.08072093060765764</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08762378554277511</v>
+        <v>0.1106656079939916</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1595567924461262</v>
+        <v>0.08026341242243268</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02088262295443874</v>
+        <v>0.01952256180261877</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1606586039755553</v>
+        <v>0.04804781361543139</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02224940250625318</v>
+        <v>0.02793512524925927</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.08228056112423002</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05511017749966526</v>
+        <v>0.06937206504998067</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1620434097211666</v>
+        <v>0.08154461357304191</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08956977202621497</v>
+        <v>0.1100787974914778</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1611849229812908</v>
+        <v>0.08108242683490649</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02111967507127863</v>
+        <v>0.01952256180261876</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1622814181571265</v>
+        <v>0.04804781361543139</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02262165507897468</v>
+        <v>0.02771326616685298</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.08311167790326264</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05590980747849067</v>
+        <v>0.06901691911762473</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1636802118395622</v>
+        <v>0.08236829653842616</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09003231921442989</v>
+        <v>0.1101900836474715</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1628130535164554</v>
+        <v>0.08190144124738029</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01932439159116021</v>
+        <v>0.01906983105390182</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1639042323386978</v>
+        <v>0.04804754508696737</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02296333752785404</v>
+        <v>0.02769088515383476</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.08394279468229526</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05654261823350804</v>
+        <v>0.06926063821519451</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1653170139579578</v>
+        <v>0.08319197950381042</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09056433923528701</v>
+        <v>0.1099997173710182</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1644411840516199</v>
+        <v>0.08272045565985409</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01951482882041428</v>
+        <v>0.01862234092890586</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1655270465202691</v>
+        <v>0.04804727655850335</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02307447756838141</v>
+        <v>0.02786804801515935</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.0847739114613279</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05708784381843537</v>
+        <v>0.06910338198229093</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1669538160763534</v>
+        <v>0.08401566246919469</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09149507796152567</v>
+        <v>0.1104079495711637</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1660693145867845</v>
+        <v>0.08353947007232788</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02070061562850248</v>
+        <v>0.0181806435852248</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1671498607018403</v>
+        <v>0.04804700803003934</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02317907328464462</v>
+        <v>0.02764482055578145</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.08560502824036052</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05780360585933583</v>
+        <v>0.06914531005851487</v>
       </c>
       <c r="M168" t="n">
-        <v>0.168590618194749</v>
+        <v>0.08483934543457895</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09220485616227775</v>
+        <v>0.1097150311569536</v>
       </c>
       <c r="O168" t="n">
-        <v>0.167697445121949</v>
+        <v>0.0843584844848017</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02088209512172608</v>
+        <v>0.01774529118041387</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1687726748834116</v>
+        <v>0.04804673950157532</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02357877009461476</v>
+        <v>0.02762126858065585</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.08643614501939315</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05790677297032279</v>
+        <v>0.06858658208346724</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1702274203131447</v>
+        <v>0.0856630283999632</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09359547474935553</v>
+        <v>0.1101212130374337</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1693255756571136</v>
+        <v>0.08517749889727551</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02005961040638642</v>
+        <v>0.01731683587206649</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1703954890649829</v>
+        <v>0.0480464709731113</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02367394512152785</v>
+        <v>0.02769745789473725</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.08726726179842577</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05889829449409756</v>
+        <v>0.06902735769674898</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1718642224315403</v>
+        <v>0.08648671136534747</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09486842749178748</v>
+        <v>0.1097267461216496</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1709537061922781</v>
+        <v>0.08599651330974929</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02223350458878478</v>
+        <v>0.01689582981773845</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1720183032465541</v>
+        <v>0.04804620244464728</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02396497548862002</v>
+        <v>0.02767345430298042</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.08809837857745839</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05887911977336147</v>
+        <v>0.06846779653796095</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1735010245499359</v>
+        <v>0.08731039433073173</v>
       </c>
       <c r="N171" t="n">
-        <v>0.094925208158602</v>
+        <v>0.1104318527244028</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1725818367274427</v>
+        <v>0.0868155277222231</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02040412077522247</v>
+        <v>0.01648282517502254</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1736411174281254</v>
+        <v>0.04804593391618327</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02415223831912736</v>
+        <v>0.02774932361034008</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.08892949535649101</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05965019815081579</v>
+        <v>0.06870591256539021</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1751378266683315</v>
+        <v>0.088134077296116</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0963673105188273</v>
+        <v>0.1102233361819339</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1742099672626073</v>
+        <v>0.0876345421346969</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02057180207200079</v>
+        <v>0.01607837410147524</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1752639316096967</v>
+        <v>0.04804566538771925</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02433611073628593</v>
+        <v>0.02762358596157984</v>
       </c>
       <c r="K173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.08976061213552365</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06041247896916196</v>
+        <v>0.06893054745369445</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1767746287867271</v>
+        <v>0.08895776026150026</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0960962283414919</v>
+        <v>0.109991898203694</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1758380977977718</v>
+        <v>0.08845355654717071</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02273689158542106</v>
+        <v>0.0156830287546886</v>
       </c>
       <c r="G174" t="n">
-        <v>0.176886745791268</v>
+        <v>0.04804539685925523</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02441696986333186</v>
+        <v>0.02759200641256498</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.09059172891455627</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06096691157110118</v>
+        <v>0.06854147600939312</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1784114309051228</v>
+        <v>0.08978144322688453</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09691345539562407</v>
+        <v>0.1101401486923234</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1774662283329363</v>
+        <v>0.08927257095964451</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02289973242178456</v>
+        <v>0.01529734129221987</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1785095599728392</v>
+        <v>0.04804512833079121</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02469519282350123</v>
+        <v>0.02745495487592475</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.09142284569358891</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06121444529933484</v>
+        <v>0.06814035876973271</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1800482330235184</v>
+        <v>0.09060512619226879</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09772048545025214</v>
+        <v>0.1097706975504616</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1790943588681009</v>
+        <v>0.09009158537211831</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02106066768739263</v>
+        <v>0.01492186387166031</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1801323741544105</v>
+        <v>0.0480448598023272</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02467115674003009</v>
+        <v>0.02741311584083178</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.09225396247262153</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06165602949656424</v>
+        <v>0.06852885627195968</v>
       </c>
       <c r="M176" t="n">
-        <v>0.181685035141914</v>
+        <v>0.09142880915765306</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09811881227440455</v>
+        <v>0.1096861546807487</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1807224894032655</v>
+        <v>0.09091059978459212</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02322004048854653</v>
+        <v>0.01455714865056801</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1817551883359817</v>
+        <v>0.04804459127386318</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02494523873615459</v>
+        <v>0.02756717379645873</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.09308507925165416</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06189261350549072</v>
+        <v>0.0680086290533205</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1833218372603096</v>
+        <v>0.09225249212303731</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09960992963710952</v>
+        <v>0.1089891299858242</v>
       </c>
       <c r="O177" t="n">
-        <v>0.18235061993843</v>
+        <v>0.09172961419706592</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02238361492385357</v>
+        <v>0.0142037477865333</v>
       </c>
       <c r="G178" t="n">
-        <v>0.183378002517553</v>
+        <v>0.04804432274539917</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02521934408267007</v>
+        <v>0.02741781323197826</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.09391619603068679</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06222561514645689</v>
+        <v>0.0680813376510615</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1849586393787053</v>
+        <v>0.09307617508842157</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09950675016994476</v>
+        <v>0.1089822333683281</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1839787504735946</v>
+        <v>0.09254862860953972</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02355611422790457</v>
+        <v>0.01386221343711529</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1850008166991243</v>
+        <v>0.04804405421693515</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02540335170208019</v>
+        <v>0.02736571863656304</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.09474731280971942</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06317825364686758</v>
+        <v>0.06834864260242929</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1865954414971009</v>
+        <v>0.09389985805380584</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1002444988920432</v>
+        <v>0.1082680747309003</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1856068810087591</v>
+        <v>0.09336764302201353</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02373173463159935</v>
+        <v>0.01353309775990325</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1866236308806955</v>
+        <v>0.04804378568847113</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02539365118403343</v>
+        <v>0.02741157449938568</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.09557842958875203</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06295130030541768</v>
+        <v>0.06811220444467023</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1882322436154965</v>
+        <v>0.09472354101919009</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1014029135180753</v>
+        <v>0.1085492639761806</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1872350115439237</v>
+        <v>0.09418665743448733</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02290458217382783</v>
+        <v>0.01321695291245736</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1882464450622668</v>
+        <v>0.04804351716000711</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02578376421647668</v>
+        <v>0.02725606530961884</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.09640954636778466</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06352844708888103</v>
+        <v>0.06797368371503071</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1898690457338921</v>
+        <v>0.09554722398457435</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1021563337307365</v>
+        <v>0.1087284110068088</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1888631420790882</v>
+        <v>0.09500567184696114</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02406876289347986</v>
+        <v>0.0129143310523658</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1898692592438381</v>
+        <v>0.0480432486315431</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02586721248735684</v>
+        <v>0.02719987555643522</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.09724066314681729</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06429338596403153</v>
+        <v>0.06763474095075722</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1915058478522877</v>
+        <v>0.09637090694995862</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1024790992127225</v>
+        <v>0.1083081257254247</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1904912726142528</v>
+        <v>0.09582468625943492</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02321838282944533</v>
+        <v>0.01262578433719599</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1914920734254093</v>
+        <v>0.04804298010307908</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02593751768462076</v>
+        <v>0.02704368972900742</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.09807177992584991</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06482980889764306</v>
+        <v>0.06779703668909629</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1931426499706834</v>
+        <v>0.09719458991534288</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1038455496467285</v>
+        <v>0.1072910180346681</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1921194031494173</v>
+        <v>0.09664370067190874</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0243475480206141</v>
+        <v>0.01235186492451658</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1931148876069806</v>
+        <v>0.04804271157461506</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02608820149621535</v>
+        <v>0.02698819231650811</v>
       </c>
       <c r="K184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.09890289670488255</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06472140785648936</v>
+        <v>0.06756223146729426</v>
       </c>
       <c r="M184" t="n">
-        <v>0.194779452089079</v>
+        <v>0.09801827288072713</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1043300247154502</v>
+        <v>0.1077796978371789</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1937475336845819</v>
+        <v>0.09746271508438255</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02345036450587609</v>
+        <v>0.01209312497191393</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1947377017885519</v>
+        <v>0.04804244304615105</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02621278561008747</v>
+        <v>0.02693406780810996</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.09973401348391517</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06525187480734448</v>
+        <v>0.06733198582259758</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1964162542074746</v>
+        <v>0.0988419558461114</v>
       </c>
       <c r="N185" t="n">
-        <v>0.105006864101583</v>
+        <v>0.106876775035597</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1953756642197464</v>
+        <v>0.09828172949685635</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02452277563924273</v>
+        <v>0.01185011663695124</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1963605159701231</v>
+        <v>0.04804217451768703</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02640479171418403</v>
+        <v>0.02708200069298561</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.1005651302629478</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0659049017169821</v>
+        <v>0.06670796029225276</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1980530563258702</v>
+        <v>0.09966563881149566</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1055507373743398</v>
+        <v>0.1071848595325621</v>
       </c>
       <c r="O186" t="n">
-        <v>0.197003794754911</v>
+        <v>0.09910074390933014</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02458610796441555</v>
+        <v>0.01162339207721354</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1979833301516944</v>
+        <v>0.04804190598922301</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02637442730244688</v>
+        <v>0.0268326754603077</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.1013962470419804</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06558529617149764</v>
+        <v>0.06699181541350621</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1996898584442659</v>
+        <v>0.1004893217768799</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1052261652159929</v>
+        <v>0.106406561230714</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1986319252900755</v>
+        <v>0.09991975832180394</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02264806254537004</v>
+        <v>0.01141350345026543</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1996061443332657</v>
+        <v>0.04804163746075899</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02654241943889167</v>
+        <v>0.02678677659924891</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.1022273638210131</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0661562787215644</v>
+        <v>0.06648521172360441</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2013266605626615</v>
+        <v>0.1013130047422642</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1050956381537508</v>
+        <v>0.1071444900326926</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2002600558252401</v>
+        <v>0.1007387727342778</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02270861769153177</v>
+        <v>0.01122100291369049</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2012289585148369</v>
+        <v>0.04804136893229498</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02670889091191009</v>
+        <v>0.02694498859898188</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.1030584806000457</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06582346123795429</v>
+        <v>0.06668980975979372</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2029634626810571</v>
+        <v>0.1021366877076484</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1058590617541738</v>
+        <v>0.1070012558411378</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2018881863604046</v>
+        <v>0.1015577871467516</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02476775171232631</v>
+        <v>0.01104418798162563</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2028517726964082</v>
+        <v>0.04804110040383096</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02657381788043714</v>
+        <v>0.02690799594867925</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.1038895973790783</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06648678370489836</v>
+        <v>0.0667072700593207</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2046002647994527</v>
+        <v>0.1029603706730327</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1056163415838215</v>
+        <v>0.1068794685586894</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2035163168955692</v>
+        <v>0.1023768015592253</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02382544291717919</v>
+        <v>0.01087008295107905</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2044745868779795</v>
+        <v>0.04804083187536694</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02673717650340787</v>
+        <v>0.02667648313751368</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.1047207141581109</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06614618610662748</v>
+        <v>0.06633925315943168</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2062370669178483</v>
+        <v>0.103784053638417</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1068673832092545</v>
+        <v>0.1067811466233369</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2051444474307338</v>
+        <v>0.1031958159716992</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02488166961551602</v>
+        <v>0.01069698533618865</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2060974010595507</v>
+        <v>0.04804056334690292</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0266989429397573</v>
+        <v>0.02685105886080585</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.1055518309371435</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0663016084273727</v>
+        <v>0.06658244962609555</v>
       </c>
       <c r="M192" t="n">
-        <v>0.207873869036244</v>
+        <v>0.1046077366038012</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1070120921970324</v>
+        <v>0.1068924232816883</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2067725779658983</v>
+        <v>0.104014830384173</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02293641011676229</v>
+        <v>0.01052544729453642</v>
       </c>
       <c r="G193" t="n">
-        <v>0.207720215241122</v>
+        <v>0.04804029481843891</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02685909334842043</v>
+        <v>0.02682842236807076</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.1063829477161762</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06675299065136495</v>
+        <v>0.06652766492050088</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2095106711546396</v>
+        <v>0.1054314195691855</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1065503741137155</v>
+        <v>0.1068064386727724</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2084007085010629</v>
+        <v>0.1048338447966468</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02498964273034366</v>
+        <v>0.01035602098368935</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2093430294226933</v>
+        <v>0.04804002628997489</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02681760388833226</v>
+        <v>0.02680649475536051</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.1072140644952088</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06690027276283522</v>
+        <v>0.06677458134765971</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2111474732730352</v>
+        <v>0.1062551025345698</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1065821345258637</v>
+        <v>0.1067231091651494</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2100288390362274</v>
+        <v>0.1056528592091206</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0240413457656856</v>
+        <v>0.01018925856122926</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2109658436042645</v>
+        <v>0.04803975776151087</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02697445071842786</v>
+        <v>0.02678525408897767</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.1080451812742414</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06714339474601452</v>
+        <v>0.06652314569749501</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2127842753914308</v>
+        <v>0.107078785499954</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1075072790000371</v>
+        <v>0.1059423511273798</v>
       </c>
       <c r="O195" t="n">
-        <v>0.211656969571392</v>
+        <v>0.1064718736215944</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02509149753221373</v>
+        <v>0.01002571218472337</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2125886577858358</v>
+        <v>0.04803948923304685</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02692960999764221</v>
+        <v>0.02676467843522476</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.1088762980532741</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0669822965851338</v>
+        <v>0.0661733047599298</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2144210775098265</v>
+        <v>0.1079024684653383</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1078257131027958</v>
+        <v>0.1062640809280239</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2132851001065565</v>
+        <v>0.1072908880340682</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02414007633935358</v>
+        <v>0.009865934011753223</v>
       </c>
       <c r="G197" t="n">
-        <v>0.214211471967407</v>
+        <v>0.04803922070458284</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02708305788491035</v>
+        <v>0.02654474586040431</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.1097074148323067</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06731691826442396</v>
+        <v>0.066325005324887</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2160578796282221</v>
+        <v>0.1087261514307225</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1077373424006998</v>
+        <v>0.1060882149356421</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2149132306417211</v>
+        <v>0.108109902446542</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02418706049653074</v>
+        <v>0.009710476199889677</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2158342861489783</v>
+        <v>0.04803895217611882</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02703477053916728</v>
+        <v>0.02662543443081887</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.1105385316113393</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0678471997681161</v>
+        <v>0.06617819418228962</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2176946817466177</v>
+        <v>0.1095498343961068</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1076420724603089</v>
+        <v>0.1055146695187946</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2165413611768856</v>
+        <v>0.1089289168590158</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02323242831317072</v>
+        <v>0.009559890906703943</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2174571003305496</v>
+        <v>0.0480386836476548</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02718472411934802</v>
+        <v>0.02670672221277097</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.1113696483903719</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06747308108044114</v>
+        <v>0.06613281812206065</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2193314838650133</v>
+        <v>0.1103735173614911</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1081398088481836</v>
+        <v>0.105943361046042</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2181694917120502</v>
+        <v>0.1097479312714896</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02327615809869913</v>
+        <v>0.009414730289777018</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2190799145121209</v>
+        <v>0.04803841511919079</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02723289478438762</v>
+        <v>0.02648858727256313</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.1122007651694046</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06779450218562999</v>
+        <v>0.06598882393412309</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2209682859834089</v>
+        <v>0.1111972003268753</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1081304571308835</v>
+        <v>0.1057742058859445</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2197976222472148</v>
+        <v>0.1105669456839634</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02531822816254153</v>
+        <v>0.009275546506677043</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2207027286936921</v>
+        <v>0.04803814659072677</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02737925869322107</v>
+        <v>0.02647100767649788</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.1130318819484372</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06801140306791367</v>
+        <v>0.06594615840839982</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2226050881018045</v>
+        <v>0.1120208832922596</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1090139228749691</v>
+        <v>0.1051071204070627</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2214257527823793</v>
+        <v>0.1113859600964372</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02435861681412344</v>
+        <v>0.009142891714984544</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2223255428752634</v>
+        <v>0.04803787806226276</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02722379200478336</v>
+        <v>0.02655396149087774</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.1138629987274698</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06812372371152317</v>
+        <v>0.0659047683348139</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2242418902202002</v>
+        <v>0.1128445662576439</v>
       </c>
       <c r="N202" t="n">
-        <v>0.109090111647</v>
+        <v>0.1057420209779566</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2230538833175439</v>
+        <v>0.112204974508911</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02339730236287046</v>
+        <v>0.009017318072268181</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2239483570568347</v>
+        <v>0.04803760953379874</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02736647087800957</v>
+        <v>0.02663742678200526</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.1146941155065025</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0680314041006895</v>
+        <v>0.06626460050328828</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2258786923385958</v>
+        <v>0.1136682492230281</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1090589290135365</v>
+        <v>0.1051788239671869</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2246820138527084</v>
+        <v>0.1130239889213848</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02443426311820816</v>
+        <v>0.008899377736107883</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2255711712384059</v>
+        <v>0.04803734100533472</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02730727147183468</v>
+        <v>0.02642138161618299</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.1155252322855351</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06783438421964352</v>
+        <v>0.06582560170374593</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2275154944569914</v>
+        <v>0.1144919321884124</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1094202805411385</v>
+        <v>0.1054174457433137</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2263101443878729</v>
+        <v>0.1138430033338586</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02446947738956206</v>
+        <v>0.008789622864072991</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2271939854199772</v>
+        <v>0.0480370724768707</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02754616994519372</v>
+        <v>0.02660580405971343</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.1163563490645677</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06803260405261632</v>
+        <v>0.06578771872610986</v>
       </c>
       <c r="M205" t="n">
-        <v>0.229152296575387</v>
+        <v>0.1153156151537966</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1094740717963661</v>
+        <v>0.1059578026748976</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2279382749230375</v>
+        <v>0.1146620177463324</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02450292348635776</v>
+        <v>0.008688605613742705</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2288167996015484</v>
+        <v>0.04803680394840668</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02758314245702173</v>
+        <v>0.02639067217889912</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.1171874658436003</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06832600358383878</v>
+        <v>0.06595089836030302</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2307890986937827</v>
+        <v>0.1161392981191809</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1098202083457795</v>
+        <v>0.1056998111304988</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2295664054582021</v>
+        <v>0.1154810321588062</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02553457971802079</v>
+        <v>0.008596878142687107</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2304396137831197</v>
+        <v>0.04803653541994266</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02751816516625367</v>
+        <v>0.02647596404004258</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.118018582622633</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06811452279754193</v>
+        <v>0.06551508739624837</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2324259008121783</v>
+        <v>0.1169629810845652</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1091585957559384</v>
+        <v>0.1051433874786777</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2311945359933666</v>
+        <v>0.11630004657128</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02456442439397675</v>
+        <v>0.008514992608484623</v>
       </c>
       <c r="G208" t="n">
-        <v>0.232062427964691</v>
+        <v>0.04803626689147865</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02755121423182461</v>
+        <v>0.02636165770944639</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.1188496994016656</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06889810167795674</v>
+        <v>0.0654802326238689</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2340627029305739</v>
+        <v>0.1177866640499494</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1097891395934031</v>
+        <v>0.1053884480879947</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2328226665285312</v>
+        <v>0.1171190609837538</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02359243582365115</v>
+        <v>0.008443501168706166</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2336852421462622</v>
+        <v>0.04803599836301463</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02768226581266957</v>
+        <v>0.02644773125341303</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.1196808161806982</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06857668020931415</v>
+        <v>0.06594628083308765</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2356995050489695</v>
+        <v>0.1186103470153337</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1103117454247337</v>
+        <v>0.1051349093270101</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2344507970636957</v>
+        <v>0.1179380753962276</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02561859231646959</v>
+        <v>0.00838295598092928</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2353080563278335</v>
+        <v>0.04803572983455062</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02761129606772351</v>
+        <v>0.02633416273824506</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.1205119329597308</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06845019837584518</v>
+        <v>0.06571317881382749</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2373363071673652</v>
+        <v>0.1194340299807179</v>
       </c>
       <c r="N210" t="n">
-        <v>0.11012631881649</v>
+        <v>0.1053826875642844</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2360789275988603</v>
+        <v>0.1187570898087014</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02364287218185761</v>
+        <v>0.008333909202725816</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2369308705094048</v>
+        <v>0.0480354613060866</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02763828115592154</v>
+        <v>0.02642093023024498</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.1213430497387634</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06911859616178079</v>
+        <v>0.06538087335601148</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2389731092857608</v>
+        <v>0.1202577129461022</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1104327653352322</v>
+        <v>0.1053316991683778</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2377070581340248</v>
+        <v>0.1195761042211752</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02366525372924081</v>
+        <v>0.008296912991672317</v>
       </c>
       <c r="G212" t="n">
-        <v>0.238553684690976</v>
+        <v>0.04803519277762258</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02766319723619859</v>
+        <v>0.02640801179571536</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.1221741665177961</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06878181355135188</v>
+        <v>0.06604931124956256</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2406099114041564</v>
+        <v>0.1210813959114865</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1098309905475202</v>
+        <v>0.1047818605078509</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2393351886691894</v>
+        <v>0.120395118633649</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0236857152680447</v>
+        <v>0.008272519505341677</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2401764988725473</v>
+        <v>0.04803492424915856</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02768602046748975</v>
+        <v>0.02639538550095871</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.1230052832968287</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06873979052878956</v>
+        <v>0.0658184392844037</v>
       </c>
       <c r="M213" t="n">
-        <v>0.242246713522552</v>
+        <v>0.1219050788768707</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1097209000199143</v>
+        <v>0.1050330879512638</v>
       </c>
       <c r="O213" t="n">
-        <v>0.240963319204354</v>
+        <v>0.1212141330461228</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02470423510769488</v>
+        <v>0.008261280901309377</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2417993130541186</v>
+        <v>0.04803465572069455</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02780672700872999</v>
+        <v>0.02648302941227758</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.1238364000758613</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06889246707832469</v>
+        <v>0.06528820425045789</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2438835156409477</v>
+        <v>0.122728761842255</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1104023993189742</v>
+        <v>0.105085297867177</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2425914497395185</v>
+        <v>0.1220331474585966</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02472079155761688</v>
+        <v>0.008261280901309377</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2434221272356898</v>
+        <v>0.04803465572069455</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02762529301885434</v>
+        <v>0.02627092159597447</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.124667516854894</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06933978318418829</v>
+        <v>0.06585855293764814</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2455203177593432</v>
+        <v>0.1235524448076392</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1097753940112604</v>
+        <v>0.1043384066241508</v>
       </c>
       <c r="O215" t="n">
-        <v>0.244219580274683</v>
+        <v>0.1228521618710704</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0237353629272363</v>
+        <v>0.008000405381942237</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2450449414172611</v>
+        <v>0.04801494137444507</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02764169465679783</v>
+        <v>0.02645904011835194</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.1254986336339266</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06908167883061131</v>
+        <v>0.06552943213589735</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2471571198777389</v>
+        <v>0.1243761277730235</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1101397896633324</v>
+        <v>0.1048923305907457</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2458477108098476</v>
+        <v>0.1236711762835442</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02574792752597867</v>
+        <v>0.007742749992144277</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2466677555988324</v>
+        <v>0.04799522702819559</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02765590808149547</v>
+        <v>0.02644736304571252</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.1263297504129592</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06911809400182478</v>
+        <v>0.06560078863512855</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2487939219961345</v>
+        <v>0.1251998107384078</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1102954918417506</v>
+        <v>0.1045469861355218</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2474758413450122</v>
+        <v>0.124490190696018</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02475846366326955</v>
+        <v>0.007488980022242235</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2482905697804036</v>
+        <v>0.04797551268194611</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02786790945188228</v>
+        <v>0.02623586844435871</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.1271608671919918</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06934896868205959</v>
+        <v>0.06527256922526475</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2504307241145302</v>
+        <v>0.126023493703792</v>
       </c>
       <c r="N218" t="n">
-        <v>0.110442406113075</v>
+        <v>0.1042022896270398</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2491039718801767</v>
+        <v>0.1253092051084919</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02476694964853452</v>
+        <v>0.007239760762562532</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2499133839619749</v>
+        <v>0.04795579833569662</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02787767492689329</v>
+        <v>0.0264245343805931</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.1279919839710245</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06877424285554676</v>
+        <v>0.06544472069622881</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2520675262329258</v>
+        <v>0.1268471766691763</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1108804380438655</v>
+        <v>0.1048581574338597</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2507321024153413</v>
+        <v>0.1261282195209656</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02577336379119913</v>
+        <v>0.006995757503431892</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2515361981435462</v>
+        <v>0.04793608398944715</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02768518066546351</v>
+        <v>0.02641333892071816</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.1288231007500571</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06949385650651727</v>
+        <v>0.06521718983794386</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2537043283513213</v>
+        <v>0.1276708596345605</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1107094932006823</v>
+        <v>0.1052145059245423</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2523602329505059</v>
+        <v>0.1269472339334394</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02477768440068897</v>
+        <v>0.006757635535176748</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2531590123251174</v>
+        <v>0.04791636964319766</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02789040282652795</v>
+        <v>0.02630226013103647</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.1296542175290897</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0694077496192021</v>
+        <v>0.06558992344033276</v>
       </c>
       <c r="M221" t="n">
-        <v>0.255341130469717</v>
+        <v>0.1284945425999448</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1106294771500854</v>
+        <v>0.1045712514676476</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2539883634856704</v>
+        <v>0.1277662483459132</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02477988978642955</v>
+        <v>0.006526060148123819</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2547818265066887</v>
+        <v>0.04789665529694818</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02779331756902162</v>
+        <v>0.02619127607785052</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.1304853343081223</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06951586217783218</v>
+        <v>0.06526286829331854</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2569779325881126</v>
+        <v>0.1293182255653291</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1107402954586348</v>
+        <v>0.1048283104317361</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2556164940208349</v>
+        <v>0.1285852627583871</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02477287288655868</v>
+        <v>0.006301696632599614</v>
       </c>
       <c r="G223" t="n">
-        <v>0.25640464068826</v>
+        <v>0.04787694095069871</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02779165520655234</v>
+        <v>0.02618036482746287</v>
       </c>
       <c r="K223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.131316451087155</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06881697894078814</v>
+        <v>0.06553597118682414</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2586147347065082</v>
+        <v>0.1301419085307133</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1104262601675135</v>
+        <v>0.1044855991853682</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2572446245559994</v>
+        <v>0.1294042771708609</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0257105290148647</v>
+        <v>0.006085210278930636</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2580274548698312</v>
+        <v>0.04785722660444922</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02773824188269151</v>
+        <v>0.02626950444617607</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.1321475678661876</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06880688786567885</v>
+        <v>0.06510917891077259</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2602515368249039</v>
+        <v>0.1309655914960976</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1098921319482059</v>
+        <v>0.1047430340971042</v>
       </c>
       <c r="O224" t="n">
-        <v>0.258872755091164</v>
+        <v>0.1302232915833346</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0255901221759119</v>
+        <v>0.00587726637744361</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2596502690514025</v>
+        <v>0.04783751225819975</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02761978822120752</v>
+        <v>0.0263586730002926</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.1329786846452202</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06843111940495761</v>
+        <v>0.06548243825508682</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2618883389432995</v>
+        <v>0.1317892744614819</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1104021974937773</v>
+        <v>0.1042005315355045</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2605008856263286</v>
+        <v>0.1310423059958085</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02341841426274423</v>
+        <v>0.005678530218464969</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2612730832329738</v>
+        <v>0.04781779791195027</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02744372651634024</v>
+        <v>0.02624784855611502</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.1338098014242528</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06800838307746468</v>
+        <v>0.06555569600968983</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2635251410616951</v>
+        <v>0.1326129574268661</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1086858958042223</v>
+        <v>0.1043580078691295</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2621290161614931</v>
+        <v>0.1318613204082823</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02520216716840574</v>
+        <v>0.005489667092321411</v>
       </c>
       <c r="G227" t="n">
-        <v>0.262895897414545</v>
+        <v>0.04779808356570079</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02711748906232953</v>
+        <v>0.02623700917994586</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.1346409182032855</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0675573884020402</v>
+        <v>0.06522889896450459</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2651619431800907</v>
+        <v>0.1334366403922504</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1082726658795351</v>
+        <v>0.1044153794665394</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2637571466966577</v>
+        <v>0.1326803348207561</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02294814278594037</v>
+        <v>0.005311342289339403</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2645187115961163</v>
+        <v>0.04777836921945131</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02684850815341526</v>
+        <v>0.02632613293808768</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.1354720349823181</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0669968448975243</v>
+        <v>0.06560199390945406</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2667987452984864</v>
+        <v>0.1342603233576346</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1072919467197102</v>
+        <v>0.1045725626962948</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2653852772318223</v>
+        <v>0.1334993492332299</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02366310300839212</v>
+        <v>0.005144221099845636</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2661415257776875</v>
+        <v>0.04775865487320183</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02654421608383732</v>
+        <v>0.02621519789684296</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.1363031517613507</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06614546208275723</v>
+        <v>0.06507492763446127</v>
       </c>
       <c r="M229" t="n">
-        <v>0.268435547416882</v>
+        <v>0.1350840063230189</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1063731773247421</v>
+        <v>0.104129473926956</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2670134077669868</v>
+        <v>0.1343183636457037</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02235380972880498</v>
+        <v>0.004988968814166619</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2677643399592588</v>
+        <v>0.04773894052695235</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02631204514783557</v>
+        <v>0.02630418212251424</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.1371342685403834</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06552194947657902</v>
+        <v>0.06484764692944914</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2700723495352776</v>
+        <v>0.1359076892884032</v>
       </c>
       <c r="N230" t="n">
-        <v>0.104045796694625</v>
+        <v>0.1040860295270832</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2686415383021514</v>
+        <v>0.1351373780581775</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02402702484022296</v>
+        <v>0.004846250722628898</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2693871541408301</v>
+        <v>0.04771922618070287</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02605942763964986</v>
+        <v>0.02609306368140409</v>
       </c>
       <c r="K231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.137965385319416</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06504501659782999</v>
+        <v>0.0649200985843407</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2717091516536732</v>
+        <v>0.1367313722537874</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1033392438293534</v>
+        <v>0.1043421458652369</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2702696688373159</v>
+        <v>0.1359563924706513</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02268951023569</v>
+        <v>0.004716732115559126</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2710099683224014</v>
+        <v>0.04769951183445339</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02559379585352006</v>
+        <v>0.02618183524220181</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.1387965020984486</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0641333729653501</v>
+        <v>0.06519235026860346</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2733459537720688</v>
+        <v>0.1375550552191717</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1011829577289218</v>
+        <v>0.1042980587212597</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2718977993724804</v>
+        <v>0.1367754068831251</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02234802780825015</v>
+        <v>0.004601078283283808</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2726327825039726</v>
+        <v>0.0476797974882039</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02512258208368608</v>
+        <v>0.02627065400980146</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.1396276188774812</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0627057280979797</v>
+        <v>0.06536480038343426</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2749827558904644</v>
+        <v>0.138378738184556</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1004063773933245</v>
+        <v>0.1037543301648858</v>
       </c>
       <c r="O233" t="n">
-        <v>0.273525929907645</v>
+        <v>0.1375944212955989</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02300933945094736</v>
+        <v>0.004499954516129591</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2742555966855439</v>
+        <v>0.04766008314195443</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02485321862438776</v>
+        <v>0.02615956983117701</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.1404587356565139</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06168079151455891</v>
+        <v>0.06533748936282333</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2766195580088601</v>
+        <v>0.1392024211499402</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09833894182255587</v>
+        <v>0.1040109804596429</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2751540604428096</v>
+        <v>0.1384134357080727</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02068020705682561</v>
+        <v>0.004414026104422993</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2758784108671152</v>
+        <v>0.04764036879570494</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02449313776986496</v>
+        <v>0.02624858460975711</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.1412898524355465</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06137727273392773</v>
+        <v>0.06491042182439552</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2782563601272557</v>
+        <v>0.1400261041153245</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09721009001661041</v>
+        <v>0.1043680168631524</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2767821909779741</v>
+        <v>0.1392324501205465</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02136739251892893</v>
+        <v>0.004343958338490633</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2775012250486864</v>
+        <v>0.04762065444945546</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0241497718143576</v>
+        <v>0.02623770024897046</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.1421209692145791</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06011388127492653</v>
+        <v>0.06468360238577567</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2798931622456513</v>
+        <v>0.1408497870807087</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0954492609754824</v>
+        <v>0.1045254466330365</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2784103215131387</v>
+        <v>0.1400514645330203</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02007765773030128</v>
+        <v>0.004290416508659071</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2791240392302577</v>
+        <v>0.04760094010320599</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02383055305210548</v>
+        <v>0.0262269186522457</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.1429520859936118</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05920932665639539</v>
+        <v>0.06495703566458857</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2815299643640469</v>
+        <v>0.141673470046093</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09458589369916637</v>
+        <v>0.1034832770269166</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2800384520483032</v>
+        <v>0.1408704789454941</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02080871577428901</v>
+        <v>0.004254065905254859</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2807468534118289</v>
+        <v>0.0475812257569565</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02353651963561572</v>
+        <v>0.02601624172301148</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.1437832027726444</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05877082716868873</v>
+        <v>0.06523072627845908</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2831667664824426</v>
+        <v>0.1424971530114773</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09381920205975208</v>
+        <v>0.1037415153024146</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2816665825834678</v>
+        <v>0.1416894933579679</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02153997532662518</v>
+        <v>0.004235571818604615</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2823696675934002</v>
+        <v>0.04756151141070702</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02334436303637374</v>
+        <v>0.0262056713646965</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.144614319551677</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05784050463559298</v>
+        <v>0.06470467884501199</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2848035686008382</v>
+        <v>0.1433208359768615</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09245718954918652</v>
+        <v>0.1034001687171521</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2832947131186324</v>
+        <v>0.1425085077704417</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02127021790807867</v>
+        <v>0.004233235389736321</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2839924817749714</v>
+        <v>0.04754179706445755</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02295109678602279</v>
+        <v>0.02609520948072938</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.1454454363307096</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05750740175677593</v>
+        <v>0.06467889798187207</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2864403707192338</v>
+        <v>0.1441445189422458</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09149076964121738</v>
+        <v>0.1035592445287509</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2849228436537969</v>
+        <v>0.1433275221829155</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01999942749947409</v>
+        <v>0.004233404843359559</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2856152959565427</v>
+        <v>0.04752208271820807</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02265670327718219</v>
+        <v>0.02598485797453884</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.1462765531097422</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05667147420869376</v>
+        <v>0.06475338830666419</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2880771728376295</v>
+        <v>0.1449682019076301</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09021987259376185</v>
+        <v>0.1035187499948327</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2865509741889614</v>
+        <v>0.1441465365953893</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02072758808163606</v>
+        <v>0.004234043553170232</v>
       </c>
       <c r="G242" t="n">
-        <v>0.287238110138114</v>
+        <v>0.04750236837195859</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02246116490247131</v>
+        <v>0.02607461874955348</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.1471076698887749</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05533267766780231</v>
+        <v>0.06512815443701322</v>
       </c>
       <c r="M242" t="n">
-        <v>0.289713974956025</v>
+        <v>0.1457918848730143</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08894442866473734</v>
+        <v>0.1033786923730193</v>
       </c>
       <c r="O242" t="n">
-        <v>0.288179104724126</v>
+        <v>0.1449655510078631</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01845468363538923</v>
+        <v>0.004235464356626625</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2888609243196852</v>
+        <v>0.04748265402570911</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02206446405450943</v>
+        <v>0.026164493709202</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.1479387866678075</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05489096781055774</v>
+        <v>0.06490320099054386</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2913507770744207</v>
+        <v>0.1466155678383986</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08726436811206112</v>
+        <v>0.1042390789209323</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2898072352592905</v>
+        <v>0.1457845654203369</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01818069814155819</v>
+        <v>0.004237980091187019</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2904837385012565</v>
+        <v>0.04746293967945963</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02176658312591594</v>
+        <v>0.02595448475691305</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.1487699034468401</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05404630031341615</v>
+        <v>0.06517853258488096</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2929875791928163</v>
+        <v>0.1474392508037828</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08647962119365049</v>
+        <v>0.1040999168961935</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2914353657944551</v>
+        <v>0.1466035798328107</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01890561558096759</v>
+        <v>0.004241903594309718</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2921065526828278</v>
+        <v>0.04744322533321015</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02136750450931012</v>
+        <v>0.02614459379611532</v>
       </c>
       <c r="K245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.1496010202258727</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05369863085283355</v>
+        <v>0.06505415383764943</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2946243813112119</v>
+        <v>0.1482629337691671</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08569011816742278</v>
+        <v>0.1032612135564246</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2930634963296197</v>
+        <v>0.1474225942452845</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01862941993444205</v>
+        <v>0.004247547703452995</v>
       </c>
       <c r="G246" t="n">
-        <v>0.293729366864399</v>
+        <v>0.04742351098696067</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02126721059731133</v>
+        <v>0.02613482273023741</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.1504321370049054</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05274791510526594</v>
+        <v>0.06453006936647399</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2962611834296076</v>
+        <v>0.1490866167345514</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08369578929129523</v>
+        <v>0.1039229761592474</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2946916268647842</v>
+        <v>0.1482416086577583</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01735209518280618</v>
+        <v>0.004255225256075142</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2953521810459703</v>
+        <v>0.04740379664071118</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02076568378253889</v>
+        <v>0.02592517346270803</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.151263253783938</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05159410874716941</v>
+        <v>0.06510628378897942</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2978979855480032</v>
+        <v>0.1499102996999356</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08289656482318519</v>
+        <v>0.1035852119622836</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2963197573999488</v>
+        <v>0.1490606230702321</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01807362530688461</v>
+        <v>0.004265249089634451</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2969749952275416</v>
+        <v>0.04738408229446171</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02046290645761213</v>
+        <v>0.02611564789695586</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.1520943705629706</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05123716745500009</v>
+        <v>0.06448280172279069</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2995347876663987</v>
+        <v>0.1507339826653199</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08199237502100998</v>
+        <v>0.1040479282231549</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2979478879351133</v>
+        <v>0.1498796374827059</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01679399428750197</v>
+        <v>0.004277932041589202</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2985978094091129</v>
+        <v>0.04736436794821222</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02025886101515036</v>
+        <v>0.02610624793640952</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.1529254873420033</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05007704690521389</v>
+        <v>0.06485962778553248</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3011715897847944</v>
+        <v>0.1515576656307042</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08028315014268694</v>
+        <v>0.103711132199483</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2995760184702779</v>
+        <v>0.1506986518951797</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01651318610548289</v>
+        <v>0.004293586949397701</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3002206235906841</v>
+        <v>0.04734465360196274</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02005352984777296</v>
+        <v>0.02589697548449769</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.1537566041210359</v>
       </c>
       <c r="L250" t="n">
-        <v>0.049313702774267</v>
+        <v>0.06443676659482969</v>
       </c>
       <c r="M250" t="n">
-        <v>0.30280839190319</v>
+        <v>0.1523813485960884</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07926882044613354</v>
+        <v>0.1028748311488896</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3012041490054425</v>
+        <v>0.1515176663076535</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01823118474165198</v>
+        <v>0.004312526650518213</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3018434377722554</v>
+        <v>0.04732493925571327</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01974689534809922</v>
+        <v>0.02588783244464905</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.1545877209000685</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04894709073861539</v>
+        <v>0.06471422276830707</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3044451940215857</v>
+        <v>0.1532050315614727</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07814931618926668</v>
+        <v>0.1033390323289966</v>
       </c>
       <c r="O251" t="n">
-        <v>0.302832279540607</v>
+        <v>0.1523366807201273</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01594797417683388</v>
+        <v>0.004335063982409043</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3034662519538266</v>
+        <v>0.04730522490946378</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01923893990874846</v>
+        <v>0.02587882072029225</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.1554188376791011</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04777716647471514</v>
+        <v>0.06499200092358945</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3060819961399813</v>
+        <v>0.1540287145268569</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07672456763000413</v>
+        <v>0.1036037429974256</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3044604100757715</v>
+        <v>0.1531556951326011</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01566353839185319</v>
+        <v>0.004361511782528464</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3050890661353979</v>
+        <v>0.0472855105632143</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01912964592234008</v>
+        <v>0.02586994221485593</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.1562499544581338</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04730388565902233</v>
+        <v>0.06437010567830176</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3077187982583769</v>
+        <v>0.1548523974922412</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07559450502626286</v>
+        <v>0.1033689704117983</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3060885406109361</v>
+        <v>0.1539747095450749</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01637786136753456</v>
+        <v>0.004392182888334775</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3067118803169692</v>
+        <v>0.04726579621696483</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01871899578149334</v>
+        <v>0.02596119883176878</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.1570810712371664</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04672720396799293</v>
+        <v>0.06494854165006861</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3093556003767725</v>
+        <v>0.1556760804576255</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07425905863596027</v>
+        <v>0.1038347218297365</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3077166711461007</v>
+        <v>0.1547937239575487</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01709092708470259</v>
+        <v>0.004427390137286255</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3083346944985405</v>
+        <v>0.04724608187071535</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01840697187882757</v>
+        <v>0.02595259247445947</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.157912188016199</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0456470770780831</v>
+        <v>0.06432731345651499</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3109924024951681</v>
+        <v>0.1564997634230097</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07351815871701378</v>
+        <v>0.1028010045088619</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3093448016812652</v>
+        <v>0.1556127383700225</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01480271952418193</v>
+        <v>0.00446744636684121</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3099575086801117</v>
+        <v>0.04722636752446586</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01819355660696215</v>
+        <v>0.02584412504635662</v>
       </c>
       <c r="K256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.1587433047952317</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0449634606657488</v>
+        <v>0.06470642571526566</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3126292046135637</v>
+        <v>0.157323446388394</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07157173552734059</v>
+        <v>0.1030678257067962</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3109729322164297</v>
+        <v>0.1564317527824964</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01651322266679719</v>
+        <v>0.004512664414457905</v>
       </c>
       <c r="G257" t="n">
-        <v>0.311580322861683</v>
+        <v>0.04720665317821639</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01767873235851639</v>
+        <v>0.02583579845088893</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.1595744215742643</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04427631040744617</v>
+        <v>0.06488588304394541</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3142660067319594</v>
+        <v>0.1581471293537782</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07041971932485808</v>
+        <v>0.1026351926811612</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3126010627515943</v>
+        <v>0.1572507671949702</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01422242049337299</v>
+        <v>0.004563357117594632</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3132031370432543</v>
+        <v>0.04718693883196691</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0174624815261096</v>
+        <v>0.02602761459148507</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.1604055383532969</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0437855819796312</v>
+        <v>0.06436569006017911</v>
       </c>
       <c r="M258" t="n">
-        <v>0.315902808850355</v>
+        <v>0.1589708123191625</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06906204036748359</v>
+        <v>0.1032031126895785</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3142291932867589</v>
+        <v>0.158069781607444</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01493029698473396</v>
+        <v>0.004619837313709706</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3148259512248255</v>
+        <v>0.04716722448571743</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01704478650236113</v>
+        <v>0.02591957537157367</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.1612366551323295</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04239123105875997</v>
+        <v>0.06474585138159156</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3175396109687506</v>
+        <v>0.1597944952845468</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0684986289131343</v>
+        <v>0.1035715929896701</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3158573238219234</v>
+        <v>0.1588887960199178</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01363683612170473</v>
+        <v>0.004682417840261383</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3164487654063968</v>
+        <v>0.04714751013946795</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01692562967989029</v>
+        <v>0.02601168269458343</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.1620677719113622</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04149321332128847</v>
+        <v>0.06452637162580752</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3191764130871462</v>
+        <v>0.160618178249931</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06692941521972767</v>
+        <v>0.1032406408390574</v>
       </c>
       <c r="O260" t="n">
-        <v>0.317485454357088</v>
+        <v>0.1597078104323915</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01434202188510992</v>
+        <v>0.004751411534707976</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3180715795879681</v>
+        <v>0.04712779579321846</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01650499345131645</v>
+        <v>0.02590393846394298</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.1628988886903948</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04109148444367289</v>
+        <v>0.06440725541045184</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3208132152055418</v>
+        <v>0.1614418612153153</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06565432954518091</v>
+        <v>0.1034102634953623</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3191135848922525</v>
+        <v>0.1605268248448654</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01504583825577415</v>
+        <v>0.004827131234507731</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3196943937695393</v>
+        <v>0.04710808144696899</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01608286020925889</v>
+        <v>0.025896344583081</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.1637300054694274</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04018600010236914</v>
+        <v>0.06428850735314945</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3224500173239375</v>
+        <v>0.1622655441806996</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06477330214741134</v>
+        <v>0.1031804682162065</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3207417154274171</v>
+        <v>0.1613458392573392</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01274826921452205</v>
+        <v>0.004909889777118995</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3213172079511106</v>
+        <v>0.0470883671007195</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01575921234633698</v>
+        <v>0.02578890295542616</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.16456112224846</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0394767159738334</v>
+        <v>0.06477013207152499</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3240868194423331</v>
+        <v>0.1630892271460838</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06298626328433637</v>
+        <v>0.1024512622592117</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3223698459625816</v>
+        <v>0.162164853669813</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01244929874217823</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3229400221326819</v>
+        <v>0.04706865275447002</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01553403225517005</v>
+        <v>0.0259816154844071</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.1653922390274926</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03826358773452163</v>
+        <v>0.06435213418320335</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3257236215607287</v>
+        <v>0.1639129101114681</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06149314321387322</v>
+        <v>0.1033226528819997</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3239979764977462</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1629838680822868</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04705549485973318</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00531321095877868</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0470557633881972</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005623520693985182</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04705603191666122</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005930850989403193</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04705630044512523</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006235123628843278</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04705656897358925</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006536260396089399</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04705683750205327</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006834183074951858</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04705710603051729</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007128813449214885</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0470573745589813</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007420073302688512</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04705764308744532</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007707884419157235</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04705791161590934</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007992168582430813</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04705818014437336</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008272847576294033</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04705844867283737</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008549843184556344</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04705871720130139</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008823077191002879</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04705898572976541</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009092471379442711</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04705925425822943</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009357947533661329</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04705952278669344</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009619427437467472</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04705979131515746</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009876832874646975</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04706005984362147</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01013008562900277</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04706032837208549</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01037910748433742</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04706059690054951</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01062382022443729</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04706086542901353</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01086414563311022</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04706113395747755</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01110000549414297</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04706140248594156</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01133132159134298</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04706167101440558</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01155801570849739</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04706193954286959</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01178032901224137</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04706220807133361</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01200009958333106</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04706247659979763</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01221756858840135</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04706274512826165</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01243265781123998</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04706301365672566</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0126452890356535</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04706328218518968</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01285538404542986</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0470635507136537</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01306286462437541</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04706381924211772</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01326765255627829</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04706408777058173</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01346966962494028</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04706435629904575</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01366883761416286</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04706462482750977</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01386507830773457</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04706489335597378</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01405831348946113</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0470651618844378</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01424846494313136</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04706543041290182</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01443545445255071</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04706569894136584</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01461920380150825</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04706596746982985</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01479963477380915</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04706623599829387</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0149766691532428</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04706650452675789</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01515022872361406</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04706677305522191</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0153202352687126</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04706704158368592</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01548661057234302</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04706731011214994</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01564927641829525</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04706757864061396</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01580815459037359</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04706784716907798</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01596316687236831</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04706811569754199</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01611423504808338</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04706838422600601</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01626128090130938</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04706865275447002</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01626128090130938</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04705549485973318</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01640313232133726</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04707574626291069</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01654437734213758</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04709599766608821</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01668455467001772</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04711624906926572</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01682320301128522</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04713650047244324</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01695986107224759</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04715675187562076</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01709406755921222</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04717700327879827</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01722536117848669</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04719725468197579</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01735328063637837</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0472175060851533</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0174773646391948</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04723775748833081</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01759715189324349</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04725800889150833</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01771218110483185</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04727826029468584</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0178219909802674</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04729851169786335</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01792612022585762</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04731876310104087</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01802410754790996</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04733901450421838</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01811549165273196</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0473592659073959</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01819981124663101</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04737951731057342</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01827660503591464</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04739976871375093</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01834541172689035</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04742002011692845</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01840577002586557</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04744027152010596</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0184572186391478</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04746052292328347</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01849929627304454</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04748077432646099</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01853154163386324</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0475010257296385</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01855349342791138</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04752127713281601</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01856469036149645</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04754152853599353</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01856611123116925</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04756177993917104</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01856610160682253</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04758203134234856</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01856606533043876</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04760228274552607</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01856598463399323</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04762253414870359</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01856584174946123</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0476427855518811</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01856561890881806</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04766303695505861</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01856529834403902</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04768328835823613</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0185648622870994</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04770353976141364</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.0185642929699745</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04772379116459115</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0185635726246396</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04774404256776867</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01856268348307002</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04776429397094619</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01856160777724104</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0477845453741237</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01856032773912796</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04780479677730122</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01855882560070608</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04782504818047873</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01855708359395069</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04784529958365624</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01855508395083708</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04786555098683376</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01855280890334055</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04788580239001127</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01855024068343641</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04790605379318878</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01854736152309993</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0479263051963663</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01854415365430642</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04794655659954381</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01854059930903118</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04796680800272133</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0185366807192495</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04798705940589885</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01853238011693667</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04800731080907636</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01852767973406799</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04802756221225388</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01852256180261876</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04804781361543139</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01852256180261876</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04804781361543139</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01889032306352941</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04963015811666899</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01925073765455171</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05121250261790659</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01960365025993104</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05279484711914419</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01994890556391278</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05437719162038179</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02028634825074233</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05595953612161939</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02061582300466507</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05754188062285699</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02093717450992637</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05912422512409458</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02125024745077164</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06070656962533218</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02155488651144623</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06228891412656979</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02185093637619556</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06387125862780739</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02213824172926498</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.065453603129045</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02241664725489993</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06703594763028259</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02268599763734571</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06861829213152019</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02294613756084778</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07020063663275779</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0231969117096515</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07178298113399539</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02343816476800225</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.073365325635233</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02366974142014539</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07494767013647059</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02389148635032635</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07653001463770819</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02410324424279051</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07811235913894579</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02430485978178323</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.07969470364018338</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02449617765154988</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.081277048141421</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02467704253633591</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08285939264265858</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02484729912038664</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08444173714389619</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02500679208794748</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.0860240816451338</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02515536612326381</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08760642614637139</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02529286591058102</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08918877064760899</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02541913613414449</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09077111514884659</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0255340214781996</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09235345965008419</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02563736662699175</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.0939358041513218</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02572901626476632</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09551814865255939</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02580881507576869</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09710049315379699</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02587660774424422</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09868283765503459</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02593223895443834</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1002651821562722</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02597555339059641</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1018475266575098</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0260063957369638</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1034298711587474</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02603008240349169</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.105012215659985</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02603006416929089</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1065945601612226</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02602669504074873</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1081769046624602</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02601779964221091</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1097592491636978</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02600379768563017</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1113415936649354</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02598510888295933</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.112923938166173</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02596215294615115</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1145062826674106</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02593534958715842</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1160886271686482</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02590511851793393</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1176709716698858</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02587187945043048</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1192533161711234</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02583605209660082</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.120835660672361</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02579805616839773</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1224180051735986</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02575831137777402</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1240003496748362</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02571723743668248</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1255826941760738</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02567525405707585</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1271650386773114</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02563249789328736</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.128747383178549</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02557639135202989</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1303297276797866</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02550314054160912</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1319120721810242</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02541711121667748</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1334944166822618</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0253226691318874</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1350767611834994</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02522418004189132</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.136659105684737</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02512600970134166</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1382414501859746</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02503252386489086</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1398237946872122</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02494808828719137</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1414061391884498</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0248770687228956</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1429884836896874</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.024823830926656</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.144570828190925</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02478402935885666</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1461531726921626</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0247466600686777</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1477355171934002</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02471148478592818</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02467836361483532</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1509002061958754</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02464715665962635</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.152482550697113</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02461772402452846</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1540648951983506</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02458992581376891</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1556472396995882</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02456362213157489</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1572295842008258</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02453867308217363</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1588119287020634</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02451493876979235</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.160394273203301</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02449227929865831</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1619766177045386</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02447055477299868</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1635589622057762</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02444962529704069</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1651413067070138</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02442935097501158</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1667236512082514</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02440959191113857</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.168305995709489</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02439020820964887</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1698883402107266</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02437105997476969</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1714706847119642</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02435200731072828</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1730530292132018</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02433291032175185</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1746353737144394</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02431362911206762</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.176217718215677</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02429402378590279</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1778000627169146</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0242743641997611</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1793824072181522</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02425503315908053</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1809647517193898</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02423604282591215</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1825470962206274</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02421740534055398</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.184129440721865</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02419913284330402</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1857117852231026</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02418123747446029</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1872941297243402</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0241637313743208</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1888764742255778</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02414662668318355</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1904588187268154</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02412993554134658</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.192041163228053</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02411367008910786</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1936235077292906</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02409784246676541</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1952058522305282</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02408246481461724</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1967881967317658</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02406754927296138</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1983705412330034</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02405310798209582</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.199952885734241</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02403915308231857</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2015352302354786</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02402569671392766</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2031175747367162</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02401275101722108</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2046999192379538</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
